--- a/bots/crawl_ch/output/vegi_coop_2023-02-02.xlsx
+++ b/bots/crawl_ch/output/vegi_coop_2023-02-02.xlsx
@@ -531,7 +531,7 @@
       <c r="N2" t="inlineStr"/>
       <c r="O2" t="inlineStr">
         <is>
-          <t>2023-02-02 12:58:48</t>
+          <t>2023-02-02 20:52:01</t>
         </is>
       </c>
     </row>
@@ -600,7 +600,7 @@
       <c r="N3" t="inlineStr"/>
       <c r="O3" t="inlineStr">
         <is>
-          <t>2023-02-02 12:58:48</t>
+          <t>2023-02-02 20:52:01</t>
         </is>
       </c>
     </row>
@@ -665,7 +665,7 @@
       <c r="N4" t="inlineStr"/>
       <c r="O4" t="inlineStr">
         <is>
-          <t>2023-02-02 12:58:48</t>
+          <t>2023-02-02 20:52:01</t>
         </is>
       </c>
     </row>
@@ -734,7 +734,7 @@
       <c r="N5" t="inlineStr"/>
       <c r="O5" t="inlineStr">
         <is>
-          <t>2023-02-02 12:58:48</t>
+          <t>2023-02-02 20:52:01</t>
         </is>
       </c>
     </row>
@@ -799,7 +799,7 @@
       <c r="N6" t="inlineStr"/>
       <c r="O6" t="inlineStr">
         <is>
-          <t>2023-02-02 12:58:48</t>
+          <t>2023-02-02 20:52:01</t>
         </is>
       </c>
     </row>
@@ -868,7 +868,7 @@
       <c r="N7" t="inlineStr"/>
       <c r="O7" t="inlineStr">
         <is>
-          <t>2023-02-02 12:58:48</t>
+          <t>2023-02-02 20:52:01</t>
         </is>
       </c>
     </row>
@@ -933,7 +933,7 @@
       <c r="N8" t="inlineStr"/>
       <c r="O8" t="inlineStr">
         <is>
-          <t>2023-02-02 12:58:48</t>
+          <t>2023-02-02 20:52:01</t>
         </is>
       </c>
     </row>
@@ -1002,7 +1002,7 @@
       <c r="N9" t="inlineStr"/>
       <c r="O9" t="inlineStr">
         <is>
-          <t>2023-02-02 12:58:48</t>
+          <t>2023-02-02 20:52:01</t>
         </is>
       </c>
     </row>
@@ -1067,7 +1067,7 @@
       <c r="N10" t="inlineStr"/>
       <c r="O10" t="inlineStr">
         <is>
-          <t>2023-02-02 12:58:48</t>
+          <t>2023-02-02 20:52:01</t>
         </is>
       </c>
     </row>
@@ -1132,7 +1132,7 @@
       <c r="N11" t="inlineStr"/>
       <c r="O11" t="inlineStr">
         <is>
-          <t>2023-02-02 12:58:48</t>
+          <t>2023-02-02 20:52:01</t>
         </is>
       </c>
     </row>
@@ -1201,7 +1201,7 @@
       <c r="N12" t="inlineStr"/>
       <c r="O12" t="inlineStr">
         <is>
-          <t>2023-02-02 12:58:48</t>
+          <t>2023-02-02 20:52:01</t>
         </is>
       </c>
     </row>
@@ -1270,7 +1270,7 @@
       <c r="N13" t="inlineStr"/>
       <c r="O13" t="inlineStr">
         <is>
-          <t>2023-02-02 12:58:48</t>
+          <t>2023-02-02 20:52:01</t>
         </is>
       </c>
     </row>
@@ -1339,7 +1339,7 @@
       <c r="N14" t="inlineStr"/>
       <c r="O14" t="inlineStr">
         <is>
-          <t>2023-02-02 12:58:48</t>
+          <t>2023-02-02 20:52:01</t>
         </is>
       </c>
     </row>
@@ -1404,7 +1404,7 @@
       <c r="N15" t="inlineStr"/>
       <c r="O15" t="inlineStr">
         <is>
-          <t>2023-02-02 12:58:48</t>
+          <t>2023-02-02 20:52:01</t>
         </is>
       </c>
     </row>
@@ -1473,7 +1473,7 @@
       <c r="N16" t="inlineStr"/>
       <c r="O16" t="inlineStr">
         <is>
-          <t>2023-02-02 12:58:48</t>
+          <t>2023-02-02 20:52:01</t>
         </is>
       </c>
     </row>
@@ -1542,7 +1542,7 @@
       <c r="N17" t="inlineStr"/>
       <c r="O17" t="inlineStr">
         <is>
-          <t>2023-02-02 12:58:48</t>
+          <t>2023-02-02 20:52:01</t>
         </is>
       </c>
     </row>
@@ -1611,7 +1611,7 @@
       <c r="N18" t="inlineStr"/>
       <c r="O18" t="inlineStr">
         <is>
-          <t>2023-02-02 12:58:48</t>
+          <t>2023-02-02 20:52:01</t>
         </is>
       </c>
     </row>
@@ -1680,7 +1680,7 @@
       <c r="N19" t="inlineStr"/>
       <c r="O19" t="inlineStr">
         <is>
-          <t>2023-02-02 12:58:48</t>
+          <t>2023-02-02 20:52:01</t>
         </is>
       </c>
     </row>
@@ -1745,7 +1745,7 @@
       <c r="N20" t="inlineStr"/>
       <c r="O20" t="inlineStr">
         <is>
-          <t>2023-02-02 12:58:48</t>
+          <t>2023-02-02 20:52:01</t>
         </is>
       </c>
     </row>
@@ -1798,7 +1798,7 @@
       <c r="N21" t="inlineStr"/>
       <c r="O21" t="inlineStr">
         <is>
-          <t>2023-02-02 12:58:48</t>
+          <t>2023-02-02 20:52:01</t>
         </is>
       </c>
     </row>
@@ -1863,7 +1863,7 @@
       <c r="N22" t="inlineStr"/>
       <c r="O22" t="inlineStr">
         <is>
-          <t>2023-02-02 12:58:48</t>
+          <t>2023-02-02 20:52:01</t>
         </is>
       </c>
     </row>
@@ -1932,7 +1932,7 @@
       <c r="N23" t="inlineStr"/>
       <c r="O23" t="inlineStr">
         <is>
-          <t>2023-02-02 12:58:48</t>
+          <t>2023-02-02 20:52:01</t>
         </is>
       </c>
     </row>
@@ -1997,7 +1997,7 @@
       <c r="N24" t="inlineStr"/>
       <c r="O24" t="inlineStr">
         <is>
-          <t>2023-02-02 12:58:48</t>
+          <t>2023-02-02 20:52:01</t>
         </is>
       </c>
     </row>
@@ -2062,7 +2062,7 @@
       <c r="N25" t="inlineStr"/>
       <c r="O25" t="inlineStr">
         <is>
-          <t>2023-02-02 12:58:48</t>
+          <t>2023-02-02 20:52:01</t>
         </is>
       </c>
     </row>
@@ -2135,7 +2135,7 @@
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>2023-02-02 12:58:48</t>
+          <t>2023-02-02 20:52:01</t>
         </is>
       </c>
     </row>
@@ -2200,7 +2200,7 @@
       <c r="N27" t="inlineStr"/>
       <c r="O27" t="inlineStr">
         <is>
-          <t>2023-02-02 12:58:48</t>
+          <t>2023-02-02 20:52:01</t>
         </is>
       </c>
     </row>
@@ -2269,7 +2269,7 @@
       <c r="N28" t="inlineStr"/>
       <c r="O28" t="inlineStr">
         <is>
-          <t>2023-02-02 12:58:48</t>
+          <t>2023-02-02 20:52:01</t>
         </is>
       </c>
     </row>
@@ -2338,7 +2338,7 @@
       <c r="N29" t="inlineStr"/>
       <c r="O29" t="inlineStr">
         <is>
-          <t>2023-02-02 12:58:48</t>
+          <t>2023-02-02 20:52:01</t>
         </is>
       </c>
     </row>
@@ -2391,7 +2391,7 @@
       <c r="N30" t="inlineStr"/>
       <c r="O30" t="inlineStr">
         <is>
-          <t>2023-02-02 12:58:48</t>
+          <t>2023-02-02 20:52:01</t>
         </is>
       </c>
     </row>
@@ -2456,7 +2456,7 @@
       <c r="N31" t="inlineStr"/>
       <c r="O31" t="inlineStr">
         <is>
-          <t>2023-02-02 12:58:48</t>
+          <t>2023-02-02 20:52:01</t>
         </is>
       </c>
     </row>
@@ -2521,7 +2521,7 @@
       <c r="N32" t="inlineStr"/>
       <c r="O32" t="inlineStr">
         <is>
-          <t>2023-02-02 12:58:48</t>
+          <t>2023-02-02 20:52:01</t>
         </is>
       </c>
     </row>
@@ -2590,7 +2590,7 @@
       <c r="N33" t="inlineStr"/>
       <c r="O33" t="inlineStr">
         <is>
-          <t>2023-02-02 12:58:48</t>
+          <t>2023-02-02 20:52:01</t>
         </is>
       </c>
     </row>
@@ -2659,7 +2659,7 @@
       <c r="N34" t="inlineStr"/>
       <c r="O34" t="inlineStr">
         <is>
-          <t>2023-02-02 12:58:48</t>
+          <t>2023-02-02 20:52:01</t>
         </is>
       </c>
     </row>
@@ -2724,7 +2724,7 @@
       <c r="N35" t="inlineStr"/>
       <c r="O35" t="inlineStr">
         <is>
-          <t>2023-02-02 12:58:48</t>
+          <t>2023-02-02 20:52:01</t>
         </is>
       </c>
     </row>
@@ -2793,7 +2793,7 @@
       <c r="N36" t="inlineStr"/>
       <c r="O36" t="inlineStr">
         <is>
-          <t>2023-02-02 12:58:48</t>
+          <t>2023-02-02 20:52:01</t>
         </is>
       </c>
     </row>
@@ -2858,7 +2858,7 @@
       <c r="N37" t="inlineStr"/>
       <c r="O37" t="inlineStr">
         <is>
-          <t>2023-02-02 12:58:48</t>
+          <t>2023-02-02 20:52:01</t>
         </is>
       </c>
     </row>
@@ -2927,7 +2927,7 @@
       <c r="N38" t="inlineStr"/>
       <c r="O38" t="inlineStr">
         <is>
-          <t>2023-02-02 12:58:48</t>
+          <t>2023-02-02 20:52:01</t>
         </is>
       </c>
     </row>
@@ -2992,7 +2992,7 @@
       <c r="N39" t="inlineStr"/>
       <c r="O39" t="inlineStr">
         <is>
-          <t>2023-02-02 12:58:48</t>
+          <t>2023-02-02 20:52:01</t>
         </is>
       </c>
     </row>
@@ -3057,7 +3057,7 @@
       <c r="N40" t="inlineStr"/>
       <c r="O40" t="inlineStr">
         <is>
-          <t>2023-02-02 12:58:48</t>
+          <t>2023-02-02 20:52:01</t>
         </is>
       </c>
     </row>
@@ -3122,7 +3122,7 @@
       <c r="N41" t="inlineStr"/>
       <c r="O41" t="inlineStr">
         <is>
-          <t>2023-02-02 12:58:48</t>
+          <t>2023-02-02 20:52:01</t>
         </is>
       </c>
     </row>
@@ -3187,7 +3187,7 @@
       <c r="N42" t="inlineStr"/>
       <c r="O42" t="inlineStr">
         <is>
-          <t>2023-02-02 12:58:48</t>
+          <t>2023-02-02 20:52:01</t>
         </is>
       </c>
     </row>
@@ -3256,7 +3256,7 @@
       <c r="N43" t="inlineStr"/>
       <c r="O43" t="inlineStr">
         <is>
-          <t>2023-02-02 12:58:48</t>
+          <t>2023-02-02 20:52:01</t>
         </is>
       </c>
     </row>
@@ -3325,7 +3325,7 @@
       <c r="N44" t="inlineStr"/>
       <c r="O44" t="inlineStr">
         <is>
-          <t>2023-02-02 12:58:48</t>
+          <t>2023-02-02 20:52:01</t>
         </is>
       </c>
     </row>
@@ -3394,7 +3394,7 @@
       <c r="N45" t="inlineStr"/>
       <c r="O45" t="inlineStr">
         <is>
-          <t>2023-02-02 12:58:48</t>
+          <t>2023-02-02 20:52:01</t>
         </is>
       </c>
     </row>
@@ -3463,7 +3463,7 @@
       <c r="N46" t="inlineStr"/>
       <c r="O46" t="inlineStr">
         <is>
-          <t>2023-02-02 12:58:48</t>
+          <t>2023-02-02 20:52:01</t>
         </is>
       </c>
     </row>
@@ -3528,7 +3528,7 @@
       <c r="N47" t="inlineStr"/>
       <c r="O47" t="inlineStr">
         <is>
-          <t>2023-02-02 12:58:48</t>
+          <t>2023-02-02 20:52:01</t>
         </is>
       </c>
     </row>
@@ -3549,10 +3549,10 @@
         </is>
       </c>
       <c r="D48" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E48" t="n">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
@@ -3597,7 +3597,7 @@
       <c r="N48" t="inlineStr"/>
       <c r="O48" t="inlineStr">
         <is>
-          <t>2023-02-02 12:58:48</t>
+          <t>2023-02-02 20:52:01</t>
         </is>
       </c>
     </row>
@@ -3666,7 +3666,7 @@
       <c r="N49" t="inlineStr"/>
       <c r="O49" t="inlineStr">
         <is>
-          <t>2023-02-02 12:58:48</t>
+          <t>2023-02-02 20:52:01</t>
         </is>
       </c>
     </row>
@@ -3735,7 +3735,7 @@
       <c r="N50" t="inlineStr"/>
       <c r="O50" t="inlineStr">
         <is>
-          <t>2023-02-02 12:58:48</t>
+          <t>2023-02-02 20:52:01</t>
         </is>
       </c>
     </row>
@@ -3800,7 +3800,7 @@
       <c r="N51" t="inlineStr"/>
       <c r="O51" t="inlineStr">
         <is>
-          <t>2023-02-02 12:58:48</t>
+          <t>2023-02-02 20:52:01</t>
         </is>
       </c>
     </row>
@@ -3865,7 +3865,7 @@
       <c r="N52" t="inlineStr"/>
       <c r="O52" t="inlineStr">
         <is>
-          <t>2023-02-02 12:58:48</t>
+          <t>2023-02-02 20:52:01</t>
         </is>
       </c>
     </row>
@@ -3934,7 +3934,7 @@
       <c r="N53" t="inlineStr"/>
       <c r="O53" t="inlineStr">
         <is>
-          <t>2023-02-02 12:58:48</t>
+          <t>2023-02-02 20:52:01</t>
         </is>
       </c>
     </row>
@@ -4003,7 +4003,7 @@
       <c r="N54" t="inlineStr"/>
       <c r="O54" t="inlineStr">
         <is>
-          <t>2023-02-02 12:58:48</t>
+          <t>2023-02-02 20:52:01</t>
         </is>
       </c>
     </row>
@@ -4072,7 +4072,7 @@
       <c r="N55" t="inlineStr"/>
       <c r="O55" t="inlineStr">
         <is>
-          <t>2023-02-02 12:58:48</t>
+          <t>2023-02-02 20:52:01</t>
         </is>
       </c>
     </row>
@@ -4141,7 +4141,7 @@
       <c r="N56" t="inlineStr"/>
       <c r="O56" t="inlineStr">
         <is>
-          <t>2023-02-02 12:58:48</t>
+          <t>2023-02-02 20:52:01</t>
         </is>
       </c>
     </row>
@@ -4210,7 +4210,7 @@
       <c r="N57" t="inlineStr"/>
       <c r="O57" t="inlineStr">
         <is>
-          <t>2023-02-02 12:58:48</t>
+          <t>2023-02-02 20:52:01</t>
         </is>
       </c>
     </row>
@@ -4279,7 +4279,7 @@
       <c r="N58" t="inlineStr"/>
       <c r="O58" t="inlineStr">
         <is>
-          <t>2023-02-02 12:58:48</t>
+          <t>2023-02-02 20:52:01</t>
         </is>
       </c>
     </row>
@@ -4344,7 +4344,7 @@
       <c r="N59" t="inlineStr"/>
       <c r="O59" t="inlineStr">
         <is>
-          <t>2023-02-02 12:58:48</t>
+          <t>2023-02-02 20:52:01</t>
         </is>
       </c>
     </row>
@@ -4397,7 +4397,7 @@
       <c r="N60" t="inlineStr"/>
       <c r="O60" t="inlineStr">
         <is>
-          <t>2023-02-02 12:58:48</t>
+          <t>2023-02-02 20:52:01</t>
         </is>
       </c>
     </row>
@@ -4470,7 +4470,7 @@
       </c>
       <c r="O61" t="inlineStr">
         <is>
-          <t>2023-02-02 12:58:48</t>
+          <t>2023-02-02 20:52:01</t>
         </is>
       </c>
     </row>
@@ -4539,7 +4539,7 @@
       <c r="N62" t="inlineStr"/>
       <c r="O62" t="inlineStr">
         <is>
-          <t>2023-02-02 12:58:48</t>
+          <t>2023-02-02 20:52:01</t>
         </is>
       </c>
     </row>
@@ -4612,7 +4612,7 @@
       </c>
       <c r="O63" t="inlineStr">
         <is>
-          <t>2023-02-02 12:58:48</t>
+          <t>2023-02-02 20:52:01</t>
         </is>
       </c>
     </row>
@@ -4685,7 +4685,7 @@
       </c>
       <c r="O64" t="inlineStr">
         <is>
-          <t>2023-02-02 12:58:48</t>
+          <t>2023-02-02 20:52:01</t>
         </is>
       </c>
     </row>
@@ -4754,7 +4754,7 @@
       <c r="N65" t="inlineStr"/>
       <c r="O65" t="inlineStr">
         <is>
-          <t>2023-02-02 12:58:48</t>
+          <t>2023-02-02 20:52:01</t>
         </is>
       </c>
     </row>
@@ -4823,7 +4823,7 @@
       <c r="N66" t="inlineStr"/>
       <c r="O66" t="inlineStr">
         <is>
-          <t>2023-02-02 12:58:48</t>
+          <t>2023-02-02 20:52:01</t>
         </is>
       </c>
     </row>
@@ -4892,7 +4892,7 @@
       <c r="N67" t="inlineStr"/>
       <c r="O67" t="inlineStr">
         <is>
-          <t>2023-02-02 12:58:48</t>
+          <t>2023-02-02 20:52:01</t>
         </is>
       </c>
     </row>
@@ -4961,7 +4961,7 @@
       <c r="N68" t="inlineStr"/>
       <c r="O68" t="inlineStr">
         <is>
-          <t>2023-02-02 12:58:48</t>
+          <t>2023-02-02 20:52:01</t>
         </is>
       </c>
     </row>
@@ -5034,7 +5034,7 @@
       </c>
       <c r="O69" t="inlineStr">
         <is>
-          <t>2023-02-02 12:58:48</t>
+          <t>2023-02-02 20:52:01</t>
         </is>
       </c>
     </row>
@@ -5103,7 +5103,7 @@
       <c r="N70" t="inlineStr"/>
       <c r="O70" t="inlineStr">
         <is>
-          <t>2023-02-02 12:58:48</t>
+          <t>2023-02-02 20:52:01</t>
         </is>
       </c>
     </row>
@@ -5172,7 +5172,7 @@
       <c r="N71" t="inlineStr"/>
       <c r="O71" t="inlineStr">
         <is>
-          <t>2023-02-02 12:58:48</t>
+          <t>2023-02-02 20:52:01</t>
         </is>
       </c>
     </row>
@@ -5237,7 +5237,7 @@
       <c r="N72" t="inlineStr"/>
       <c r="O72" t="inlineStr">
         <is>
-          <t>2023-02-02 12:58:48</t>
+          <t>2023-02-02 20:52:01</t>
         </is>
       </c>
     </row>
@@ -5306,7 +5306,7 @@
       <c r="N73" t="inlineStr"/>
       <c r="O73" t="inlineStr">
         <is>
-          <t>2023-02-02 12:58:48</t>
+          <t>2023-02-02 20:52:01</t>
         </is>
       </c>
     </row>
@@ -5375,7 +5375,7 @@
       <c r="N74" t="inlineStr"/>
       <c r="O74" t="inlineStr">
         <is>
-          <t>2023-02-02 12:58:48</t>
+          <t>2023-02-02 20:52:01</t>
         </is>
       </c>
     </row>
@@ -5444,7 +5444,7 @@
       <c r="N75" t="inlineStr"/>
       <c r="O75" t="inlineStr">
         <is>
-          <t>2023-02-02 12:58:48</t>
+          <t>2023-02-02 20:52:01</t>
         </is>
       </c>
     </row>
@@ -5513,7 +5513,7 @@
       <c r="N76" t="inlineStr"/>
       <c r="O76" t="inlineStr">
         <is>
-          <t>2023-02-02 12:58:48</t>
+          <t>2023-02-02 20:52:01</t>
         </is>
       </c>
     </row>
@@ -5578,7 +5578,7 @@
       <c r="N77" t="inlineStr"/>
       <c r="O77" t="inlineStr">
         <is>
-          <t>2023-02-02 12:58:48</t>
+          <t>2023-02-02 20:52:01</t>
         </is>
       </c>
     </row>
@@ -5651,7 +5651,7 @@
       </c>
       <c r="O78" t="inlineStr">
         <is>
-          <t>2023-02-02 12:58:48</t>
+          <t>2023-02-02 20:52:01</t>
         </is>
       </c>
     </row>
@@ -5716,7 +5716,7 @@
       <c r="N79" t="inlineStr"/>
       <c r="O79" t="inlineStr">
         <is>
-          <t>2023-02-02 12:58:48</t>
+          <t>2023-02-02 20:52:01</t>
         </is>
       </c>
     </row>
@@ -5785,7 +5785,7 @@
       <c r="N80" t="inlineStr"/>
       <c r="O80" t="inlineStr">
         <is>
-          <t>2023-02-02 12:58:48</t>
+          <t>2023-02-02 20:52:01</t>
         </is>
       </c>
     </row>
@@ -5854,7 +5854,7 @@
       <c r="N81" t="inlineStr"/>
       <c r="O81" t="inlineStr">
         <is>
-          <t>2023-02-02 12:58:48</t>
+          <t>2023-02-02 20:52:01</t>
         </is>
       </c>
     </row>
@@ -5919,7 +5919,7 @@
       <c r="N82" t="inlineStr"/>
       <c r="O82" t="inlineStr">
         <is>
-          <t>2023-02-02 12:58:48</t>
+          <t>2023-02-02 20:52:01</t>
         </is>
       </c>
     </row>
@@ -5988,7 +5988,7 @@
       <c r="N83" t="inlineStr"/>
       <c r="O83" t="inlineStr">
         <is>
-          <t>2023-02-02 12:58:48</t>
+          <t>2023-02-02 20:52:01</t>
         </is>
       </c>
     </row>
@@ -6057,7 +6057,7 @@
       <c r="N84" t="inlineStr"/>
       <c r="O84" t="inlineStr">
         <is>
-          <t>2023-02-02 12:58:48</t>
+          <t>2023-02-02 20:52:01</t>
         </is>
       </c>
     </row>
@@ -6126,7 +6126,7 @@
       <c r="N85" t="inlineStr"/>
       <c r="O85" t="inlineStr">
         <is>
-          <t>2023-02-02 12:58:48</t>
+          <t>2023-02-02 20:52:01</t>
         </is>
       </c>
     </row>
@@ -6191,7 +6191,7 @@
       <c r="N86" t="inlineStr"/>
       <c r="O86" t="inlineStr">
         <is>
-          <t>2023-02-02 12:58:48</t>
+          <t>2023-02-02 20:52:01</t>
         </is>
       </c>
     </row>
@@ -6260,7 +6260,7 @@
       <c r="N87" t="inlineStr"/>
       <c r="O87" t="inlineStr">
         <is>
-          <t>2023-02-02 12:58:48</t>
+          <t>2023-02-02 20:52:01</t>
         </is>
       </c>
     </row>
@@ -6333,7 +6333,7 @@
       </c>
       <c r="O88" t="inlineStr">
         <is>
-          <t>2023-02-02 12:58:48</t>
+          <t>2023-02-02 20:52:01</t>
         </is>
       </c>
     </row>
@@ -6402,7 +6402,7 @@
       </c>
       <c r="O89" t="inlineStr">
         <is>
-          <t>2023-02-02 12:58:48</t>
+          <t>2023-02-02 20:52:01</t>
         </is>
       </c>
     </row>
@@ -6471,7 +6471,7 @@
       <c r="N90" t="inlineStr"/>
       <c r="O90" t="inlineStr">
         <is>
-          <t>2023-02-02 12:58:48</t>
+          <t>2023-02-02 20:52:01</t>
         </is>
       </c>
     </row>
@@ -6540,7 +6540,7 @@
       <c r="N91" t="inlineStr"/>
       <c r="O91" t="inlineStr">
         <is>
-          <t>2023-02-02 12:58:48</t>
+          <t>2023-02-02 20:52:01</t>
         </is>
       </c>
     </row>
@@ -6609,7 +6609,7 @@
       <c r="N92" t="inlineStr"/>
       <c r="O92" t="inlineStr">
         <is>
-          <t>2023-02-02 12:58:48</t>
+          <t>2023-02-02 20:52:01</t>
         </is>
       </c>
     </row>
@@ -6676,7 +6676,7 @@
       <c r="N93" t="inlineStr"/>
       <c r="O93" t="inlineStr">
         <is>
-          <t>2023-02-02 12:58:48</t>
+          <t>2023-02-02 20:52:01</t>
         </is>
       </c>
     </row>
@@ -6745,7 +6745,7 @@
       <c r="N94" t="inlineStr"/>
       <c r="O94" t="inlineStr">
         <is>
-          <t>2023-02-02 12:58:48</t>
+          <t>2023-02-02 20:52:01</t>
         </is>
       </c>
     </row>
@@ -6818,7 +6818,7 @@
       </c>
       <c r="O95" t="inlineStr">
         <is>
-          <t>2023-02-02 12:58:48</t>
+          <t>2023-02-02 20:52:01</t>
         </is>
       </c>
     </row>
@@ -6883,7 +6883,7 @@
       <c r="N96" t="inlineStr"/>
       <c r="O96" t="inlineStr">
         <is>
-          <t>2023-02-02 12:58:48</t>
+          <t>2023-02-02 20:52:01</t>
         </is>
       </c>
     </row>
@@ -6952,7 +6952,7 @@
       <c r="N97" t="inlineStr"/>
       <c r="O97" t="inlineStr">
         <is>
-          <t>2023-02-02 12:58:48</t>
+          <t>2023-02-02 20:52:01</t>
         </is>
       </c>
     </row>
@@ -7025,7 +7025,7 @@
       </c>
       <c r="O98" t="inlineStr">
         <is>
-          <t>2023-02-02 12:58:48</t>
+          <t>2023-02-02 20:52:01</t>
         </is>
       </c>
     </row>
@@ -7090,7 +7090,7 @@
       <c r="N99" t="inlineStr"/>
       <c r="O99" t="inlineStr">
         <is>
-          <t>2023-02-02 12:58:48</t>
+          <t>2023-02-02 20:52:01</t>
         </is>
       </c>
     </row>
@@ -7159,7 +7159,7 @@
       <c r="N100" t="inlineStr"/>
       <c r="O100" t="inlineStr">
         <is>
-          <t>2023-02-02 12:58:48</t>
+          <t>2023-02-02 20:52:01</t>
         </is>
       </c>
     </row>
@@ -7224,7 +7224,7 @@
       <c r="N101" t="inlineStr"/>
       <c r="O101" t="inlineStr">
         <is>
-          <t>2023-02-02 12:58:48</t>
+          <t>2023-02-02 20:52:01</t>
         </is>
       </c>
     </row>
@@ -7293,7 +7293,7 @@
       <c r="N102" t="inlineStr"/>
       <c r="O102" t="inlineStr">
         <is>
-          <t>2023-02-02 12:58:48</t>
+          <t>2023-02-02 20:52:01</t>
         </is>
       </c>
     </row>
@@ -7366,7 +7366,7 @@
       </c>
       <c r="O103" t="inlineStr">
         <is>
-          <t>2023-02-02 12:58:48</t>
+          <t>2023-02-02 20:52:01</t>
         </is>
       </c>
     </row>
@@ -7435,7 +7435,7 @@
       <c r="N104" t="inlineStr"/>
       <c r="O104" t="inlineStr">
         <is>
-          <t>2023-02-02 12:58:48</t>
+          <t>2023-02-02 20:52:01</t>
         </is>
       </c>
     </row>
@@ -7504,7 +7504,7 @@
       <c r="N105" t="inlineStr"/>
       <c r="O105" t="inlineStr">
         <is>
-          <t>2023-02-02 12:58:48</t>
+          <t>2023-02-02 20:52:01</t>
         </is>
       </c>
     </row>
@@ -7577,7 +7577,7 @@
       </c>
       <c r="O106" t="inlineStr">
         <is>
-          <t>2023-02-02 12:58:48</t>
+          <t>2023-02-02 20:52:01</t>
         </is>
       </c>
     </row>
@@ -7630,7 +7630,7 @@
       <c r="N107" t="inlineStr"/>
       <c r="O107" t="inlineStr">
         <is>
-          <t>2023-02-02 12:58:48</t>
+          <t>2023-02-02 20:52:01</t>
         </is>
       </c>
     </row>
@@ -7699,7 +7699,7 @@
       <c r="N108" t="inlineStr"/>
       <c r="O108" t="inlineStr">
         <is>
-          <t>2023-02-02 12:58:48</t>
+          <t>2023-02-02 20:52:01</t>
         </is>
       </c>
     </row>
@@ -7768,7 +7768,7 @@
       <c r="N109" t="inlineStr"/>
       <c r="O109" t="inlineStr">
         <is>
-          <t>2023-02-02 12:58:48</t>
+          <t>2023-02-02 20:52:01</t>
         </is>
       </c>
     </row>
@@ -7841,7 +7841,7 @@
       </c>
       <c r="O110" t="inlineStr">
         <is>
-          <t>2023-02-02 12:58:48</t>
+          <t>2023-02-02 20:52:01</t>
         </is>
       </c>
     </row>
@@ -7910,7 +7910,7 @@
       <c r="N111" t="inlineStr"/>
       <c r="O111" t="inlineStr">
         <is>
-          <t>2023-02-02 12:58:48</t>
+          <t>2023-02-02 20:52:01</t>
         </is>
       </c>
     </row>
@@ -7961,7 +7961,7 @@
       <c r="N112" t="inlineStr"/>
       <c r="O112" t="inlineStr">
         <is>
-          <t>2023-02-02 12:58:48</t>
+          <t>2023-02-02 20:52:01</t>
         </is>
       </c>
     </row>
@@ -8030,7 +8030,7 @@
       <c r="N113" t="inlineStr"/>
       <c r="O113" t="inlineStr">
         <is>
-          <t>2023-02-02 12:58:48</t>
+          <t>2023-02-02 20:52:01</t>
         </is>
       </c>
     </row>
@@ -8099,7 +8099,7 @@
       <c r="N114" t="inlineStr"/>
       <c r="O114" t="inlineStr">
         <is>
-          <t>2023-02-02 12:58:48</t>
+          <t>2023-02-02 20:52:01</t>
         </is>
       </c>
     </row>
@@ -8168,7 +8168,7 @@
       <c r="N115" t="inlineStr"/>
       <c r="O115" t="inlineStr">
         <is>
-          <t>2023-02-02 12:58:48</t>
+          <t>2023-02-02 20:52:01</t>
         </is>
       </c>
     </row>
@@ -8237,7 +8237,7 @@
       <c r="N116" t="inlineStr"/>
       <c r="O116" t="inlineStr">
         <is>
-          <t>2023-02-02 12:58:48</t>
+          <t>2023-02-02 20:52:01</t>
         </is>
       </c>
     </row>
@@ -8306,7 +8306,7 @@
       <c r="N117" t="inlineStr"/>
       <c r="O117" t="inlineStr">
         <is>
-          <t>2023-02-02 12:58:48</t>
+          <t>2023-02-02 20:52:01</t>
         </is>
       </c>
     </row>
@@ -8371,7 +8371,7 @@
       <c r="N118" t="inlineStr"/>
       <c r="O118" t="inlineStr">
         <is>
-          <t>2023-02-02 12:58:48</t>
+          <t>2023-02-02 20:52:01</t>
         </is>
       </c>
     </row>
@@ -8444,7 +8444,7 @@
       </c>
       <c r="O119" t="inlineStr">
         <is>
-          <t>2023-02-02 12:58:48</t>
+          <t>2023-02-02 20:52:01</t>
         </is>
       </c>
     </row>
@@ -8509,7 +8509,7 @@
       <c r="N120" t="inlineStr"/>
       <c r="O120" t="inlineStr">
         <is>
-          <t>2023-02-02 12:58:48</t>
+          <t>2023-02-02 20:52:01</t>
         </is>
       </c>
     </row>
@@ -8578,7 +8578,7 @@
       <c r="N121" t="inlineStr"/>
       <c r="O121" t="inlineStr">
         <is>
-          <t>2023-02-02 12:58:48</t>
+          <t>2023-02-02 20:52:01</t>
         </is>
       </c>
     </row>
@@ -8647,7 +8647,7 @@
       <c r="N122" t="inlineStr"/>
       <c r="O122" t="inlineStr">
         <is>
-          <t>2023-02-02 12:58:48</t>
+          <t>2023-02-02 20:52:01</t>
         </is>
       </c>
     </row>
@@ -8720,7 +8720,7 @@
       </c>
       <c r="O123" t="inlineStr">
         <is>
-          <t>2023-02-02 12:58:48</t>
+          <t>2023-02-02 20:52:01</t>
         </is>
       </c>
     </row>
@@ -8785,7 +8785,7 @@
       <c r="N124" t="inlineStr"/>
       <c r="O124" t="inlineStr">
         <is>
-          <t>2023-02-02 12:58:48</t>
+          <t>2023-02-02 20:52:01</t>
         </is>
       </c>
     </row>
@@ -8854,7 +8854,7 @@
       <c r="N125" t="inlineStr"/>
       <c r="O125" t="inlineStr">
         <is>
-          <t>2023-02-02 12:58:48</t>
+          <t>2023-02-02 20:52:01</t>
         </is>
       </c>
     </row>
@@ -8927,7 +8927,7 @@
       </c>
       <c r="O126" t="inlineStr">
         <is>
-          <t>2023-02-02 12:58:48</t>
+          <t>2023-02-02 20:52:01</t>
         </is>
       </c>
     </row>
@@ -8996,7 +8996,7 @@
       <c r="N127" t="inlineStr"/>
       <c r="O127" t="inlineStr">
         <is>
-          <t>2023-02-02 12:58:48</t>
+          <t>2023-02-02 20:52:01</t>
         </is>
       </c>
     </row>
@@ -9061,7 +9061,7 @@
       <c r="N128" t="inlineStr"/>
       <c r="O128" t="inlineStr">
         <is>
-          <t>2023-02-02 12:58:48</t>
+          <t>2023-02-02 20:52:01</t>
         </is>
       </c>
     </row>
@@ -9130,7 +9130,7 @@
       <c r="N129" t="inlineStr"/>
       <c r="O129" t="inlineStr">
         <is>
-          <t>2023-02-02 12:58:48</t>
+          <t>2023-02-02 20:52:01</t>
         </is>
       </c>
     </row>
@@ -9199,7 +9199,7 @@
       <c r="N130" t="inlineStr"/>
       <c r="O130" t="inlineStr">
         <is>
-          <t>2023-02-02 12:58:48</t>
+          <t>2023-02-02 20:52:01</t>
         </is>
       </c>
     </row>
@@ -9264,7 +9264,7 @@
       <c r="N131" t="inlineStr"/>
       <c r="O131" t="inlineStr">
         <is>
-          <t>2023-02-02 12:58:48</t>
+          <t>2023-02-02 20:52:01</t>
         </is>
       </c>
     </row>
@@ -9337,7 +9337,7 @@
       </c>
       <c r="O132" t="inlineStr">
         <is>
-          <t>2023-02-02 12:58:48</t>
+          <t>2023-02-02 20:52:01</t>
         </is>
       </c>
     </row>
@@ -9402,7 +9402,7 @@
       <c r="N133" t="inlineStr"/>
       <c r="O133" t="inlineStr">
         <is>
-          <t>2023-02-02 12:58:48</t>
+          <t>2023-02-02 20:52:01</t>
         </is>
       </c>
     </row>
@@ -9475,7 +9475,7 @@
       </c>
       <c r="O134" t="inlineStr">
         <is>
-          <t>2023-02-02 12:58:48</t>
+          <t>2023-02-02 20:52:01</t>
         </is>
       </c>
     </row>
@@ -9544,7 +9544,7 @@
       <c r="N135" t="inlineStr"/>
       <c r="O135" t="inlineStr">
         <is>
-          <t>2023-02-02 12:58:48</t>
+          <t>2023-02-02 20:52:01</t>
         </is>
       </c>
     </row>
@@ -9613,7 +9613,7 @@
       <c r="N136" t="inlineStr"/>
       <c r="O136" t="inlineStr">
         <is>
-          <t>2023-02-02 12:58:48</t>
+          <t>2023-02-02 20:52:01</t>
         </is>
       </c>
     </row>
@@ -9676,7 +9676,7 @@
       </c>
       <c r="M137" t="inlineStr">
         <is>
-          <t>Betty Bossi Jungsalat mit Kräutern 20% Aktion 5.90 Schweizer Franken statt 7.40 Schweizer Franken</t>
+          <t>Betty Bossi Jungsalat mit Kräutern - Online kein Bestand 20% Aktion 5.90 Schweizer Franken statt 7.40 Schweizer Franken</t>
         </is>
       </c>
       <c r="N137" t="inlineStr">
@@ -9686,7 +9686,7 @@
       </c>
       <c r="O137" t="inlineStr">
         <is>
-          <t>2023-02-02 12:58:48</t>
+          <t>2023-02-02 20:52:01</t>
         </is>
       </c>
     </row>
@@ -9733,7 +9733,7 @@
       <c r="N138" t="inlineStr"/>
       <c r="O138" t="inlineStr">
         <is>
-          <t>2023-02-02 12:58:48</t>
+          <t>2023-02-02 20:52:01</t>
         </is>
       </c>
     </row>
@@ -9798,7 +9798,7 @@
       <c r="N139" t="inlineStr"/>
       <c r="O139" t="inlineStr">
         <is>
-          <t>2023-02-02 12:58:48</t>
+          <t>2023-02-02 20:52:01</t>
         </is>
       </c>
     </row>
@@ -9871,7 +9871,7 @@
       </c>
       <c r="O140" t="inlineStr">
         <is>
-          <t>2023-02-02 12:58:48</t>
+          <t>2023-02-02 20:52:01</t>
         </is>
       </c>
     </row>
@@ -9940,7 +9940,7 @@
       <c r="N141" t="inlineStr"/>
       <c r="O141" t="inlineStr">
         <is>
-          <t>2023-02-02 12:58:48</t>
+          <t>2023-02-02 20:52:01</t>
         </is>
       </c>
     </row>
@@ -10013,7 +10013,7 @@
       </c>
       <c r="O142" t="inlineStr">
         <is>
-          <t>2023-02-02 12:58:48</t>
+          <t>2023-02-02 20:52:01</t>
         </is>
       </c>
     </row>
@@ -10082,7 +10082,7 @@
       <c r="N143" t="inlineStr"/>
       <c r="O143" t="inlineStr">
         <is>
-          <t>2023-02-02 12:58:48</t>
+          <t>2023-02-02 20:52:01</t>
         </is>
       </c>
     </row>
@@ -10151,7 +10151,7 @@
       <c r="N144" t="inlineStr"/>
       <c r="O144" t="inlineStr">
         <is>
-          <t>2023-02-02 12:58:48</t>
+          <t>2023-02-02 20:52:01</t>
         </is>
       </c>
     </row>
@@ -10216,7 +10216,7 @@
       <c r="N145" t="inlineStr"/>
       <c r="O145" t="inlineStr">
         <is>
-          <t>2023-02-02 12:58:48</t>
+          <t>2023-02-02 20:52:01</t>
         </is>
       </c>
     </row>
@@ -10287,7 +10287,7 @@
       </c>
       <c r="O146" t="inlineStr">
         <is>
-          <t>2023-02-02 12:58:48</t>
+          <t>2023-02-02 20:52:01</t>
         </is>
       </c>
     </row>
@@ -10356,7 +10356,7 @@
       <c r="N147" t="inlineStr"/>
       <c r="O147" t="inlineStr">
         <is>
-          <t>2023-02-02 12:58:48</t>
+          <t>2023-02-02 20:52:01</t>
         </is>
       </c>
     </row>
@@ -10429,7 +10429,7 @@
       </c>
       <c r="O148" t="inlineStr">
         <is>
-          <t>2023-02-02 12:58:48</t>
+          <t>2023-02-02 20:52:01</t>
         </is>
       </c>
     </row>
@@ -10498,7 +10498,7 @@
       <c r="N149" t="inlineStr"/>
       <c r="O149" t="inlineStr">
         <is>
-          <t>2023-02-02 12:58:48</t>
+          <t>2023-02-02 20:52:01</t>
         </is>
       </c>
     </row>
@@ -10519,7 +10519,7 @@
         </is>
       </c>
       <c r="D150" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E150" t="n">
         <v>5</v>
@@ -10541,13 +10541,13 @@
       </c>
       <c r="M150" t="inlineStr">
         <is>
-          <t>Kiwi rot 1 Stück 1.20 Schweizer Franken</t>
+          <t>Kiwi rot 1 Stück - Online kein Bestand 1.20 Schweizer Franken</t>
         </is>
       </c>
       <c r="N150" t="inlineStr"/>
       <c r="O150" t="inlineStr">
         <is>
-          <t>2023-02-02 12:58:48</t>
+          <t>2023-02-02 20:52:01</t>
         </is>
       </c>
     </row>
@@ -10612,7 +10612,7 @@
       <c r="N151" t="inlineStr"/>
       <c r="O151" t="inlineStr">
         <is>
-          <t>2023-02-02 12:58:48</t>
+          <t>2023-02-02 20:52:01</t>
         </is>
       </c>
     </row>
@@ -10677,7 +10677,7 @@
       <c r="N152" t="inlineStr"/>
       <c r="O152" t="inlineStr">
         <is>
-          <t>2023-02-02 12:58:48</t>
+          <t>2023-02-02 20:52:01</t>
         </is>
       </c>
     </row>
@@ -10750,7 +10750,7 @@
       </c>
       <c r="O153" t="inlineStr">
         <is>
-          <t>2023-02-02 12:58:48</t>
+          <t>2023-02-02 20:52:01</t>
         </is>
       </c>
     </row>
@@ -10815,7 +10815,7 @@
       <c r="N154" t="inlineStr"/>
       <c r="O154" t="inlineStr">
         <is>
-          <t>2023-02-02 12:58:48</t>
+          <t>2023-02-02 20:52:01</t>
         </is>
       </c>
     </row>
@@ -10884,7 +10884,7 @@
       <c r="N155" t="inlineStr"/>
       <c r="O155" t="inlineStr">
         <is>
-          <t>2023-02-02 12:58:48</t>
+          <t>2023-02-02 20:52:01</t>
         </is>
       </c>
     </row>
@@ -10911,12 +10911,12 @@
       <c r="F156" t="inlineStr"/>
       <c r="G156" t="inlineStr">
         <is>
-          <t>3.90</t>
+          <t>2.70</t>
         </is>
       </c>
       <c r="H156" t="inlineStr">
         <is>
-          <t>0.52/100g</t>
+          <t>0.36/100g</t>
         </is>
       </c>
       <c r="I156" t="inlineStr">
@@ -10926,7 +10926,7 @@
       </c>
       <c r="J156" t="inlineStr">
         <is>
-          <t>0.52</t>
+          <t>0.36</t>
         </is>
       </c>
       <c r="K156" t="inlineStr">
@@ -10941,13 +10941,13 @@
       </c>
       <c r="M156" t="inlineStr">
         <is>
-          <t>Äpfel Jazz IP-Suisse 3.90 Schweizer Franken</t>
+          <t>Äpfel Jazz IP-Suisse 30% Aktion 2.70 Schweizer Franken statt 3.90 Schweizer Franken</t>
         </is>
       </c>
       <c r="N156" t="inlineStr"/>
       <c r="O156" t="inlineStr">
         <is>
-          <t>2023-02-02 12:58:48</t>
+          <t>2023-02-02 20:52:01</t>
         </is>
       </c>
     </row>
@@ -11020,7 +11020,7 @@
       </c>
       <c r="O157" t="inlineStr">
         <is>
-          <t>2023-02-02 12:58:48</t>
+          <t>2023-02-02 20:52:01</t>
         </is>
       </c>
     </row>
@@ -11089,7 +11089,7 @@
       <c r="N158" t="inlineStr"/>
       <c r="O158" t="inlineStr">
         <is>
-          <t>2023-02-02 12:58:48</t>
+          <t>2023-02-02 20:52:01</t>
         </is>
       </c>
     </row>
@@ -11154,7 +11154,7 @@
       <c r="N159" t="inlineStr"/>
       <c r="O159" t="inlineStr">
         <is>
-          <t>2023-02-02 12:58:48</t>
+          <t>2023-02-02 20:52:01</t>
         </is>
       </c>
     </row>
@@ -11221,7 +11221,7 @@
       <c r="N160" t="inlineStr"/>
       <c r="O160" t="inlineStr">
         <is>
-          <t>2023-02-02 12:58:48</t>
+          <t>2023-02-02 20:52:01</t>
         </is>
       </c>
     </row>
@@ -11270,7 +11270,7 @@
       <c r="N161" t="inlineStr"/>
       <c r="O161" t="inlineStr">
         <is>
-          <t>2023-02-02 12:58:48</t>
+          <t>2023-02-02 20:52:01</t>
         </is>
       </c>
     </row>
@@ -11339,7 +11339,7 @@
       <c r="N162" t="inlineStr"/>
       <c r="O162" t="inlineStr">
         <is>
-          <t>2023-02-02 12:58:48</t>
+          <t>2023-02-02 20:52:01</t>
         </is>
       </c>
     </row>
@@ -11404,7 +11404,7 @@
       <c r="N163" t="inlineStr"/>
       <c r="O163" t="inlineStr">
         <is>
-          <t>2023-02-02 12:58:48</t>
+          <t>2023-02-02 20:52:01</t>
         </is>
       </c>
     </row>
@@ -11469,7 +11469,7 @@
       <c r="N164" t="inlineStr"/>
       <c r="O164" t="inlineStr">
         <is>
-          <t>2023-02-02 12:58:48</t>
+          <t>2023-02-02 20:52:01</t>
         </is>
       </c>
     </row>
@@ -11538,7 +11538,7 @@
       <c r="N165" t="inlineStr"/>
       <c r="O165" t="inlineStr">
         <is>
-          <t>2023-02-02 12:58:48</t>
+          <t>2023-02-02 20:52:01</t>
         </is>
       </c>
     </row>
@@ -11607,7 +11607,7 @@
       <c r="N166" t="inlineStr"/>
       <c r="O166" t="inlineStr">
         <is>
-          <t>2023-02-02 12:58:48</t>
+          <t>2023-02-02 20:52:01</t>
         </is>
       </c>
     </row>
@@ -11676,7 +11676,7 @@
       <c r="N167" t="inlineStr"/>
       <c r="O167" t="inlineStr">
         <is>
-          <t>2023-02-02 12:58:48</t>
+          <t>2023-02-02 20:52:01</t>
         </is>
       </c>
     </row>
@@ -11697,7 +11697,7 @@
         </is>
       </c>
       <c r="D168" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E168" t="n">
         <v>4.5</v>
@@ -11745,7 +11745,7 @@
       <c r="N168" t="inlineStr"/>
       <c r="O168" t="inlineStr">
         <is>
-          <t>2023-02-02 12:58:48</t>
+          <t>2023-02-02 20:52:01</t>
         </is>
       </c>
     </row>
@@ -11818,7 +11818,7 @@
       </c>
       <c r="O169" t="inlineStr">
         <is>
-          <t>2023-02-02 12:58:48</t>
+          <t>2023-02-02 20:52:01</t>
         </is>
       </c>
     </row>
@@ -11887,7 +11887,7 @@
       <c r="N170" t="inlineStr"/>
       <c r="O170" t="inlineStr">
         <is>
-          <t>2023-02-02 12:58:48</t>
+          <t>2023-02-02 20:52:01</t>
         </is>
       </c>
     </row>
@@ -11956,7 +11956,7 @@
       <c r="N171" t="inlineStr"/>
       <c r="O171" t="inlineStr">
         <is>
-          <t>2023-02-02 12:58:48</t>
+          <t>2023-02-02 20:52:01</t>
         </is>
       </c>
     </row>
@@ -12021,7 +12021,7 @@
       <c r="N172" t="inlineStr"/>
       <c r="O172" t="inlineStr">
         <is>
-          <t>2023-02-02 12:58:48</t>
+          <t>2023-02-02 20:52:01</t>
         </is>
       </c>
     </row>
@@ -12086,7 +12086,7 @@
       <c r="N173" t="inlineStr"/>
       <c r="O173" t="inlineStr">
         <is>
-          <t>2023-02-02 12:58:48</t>
+          <t>2023-02-02 20:52:01</t>
         </is>
       </c>
     </row>
@@ -12151,7 +12151,7 @@
       <c r="N174" t="inlineStr"/>
       <c r="O174" t="inlineStr">
         <is>
-          <t>2023-02-02 12:58:48</t>
+          <t>2023-02-02 20:52:01</t>
         </is>
       </c>
     </row>
@@ -12224,7 +12224,7 @@
       </c>
       <c r="O175" t="inlineStr">
         <is>
-          <t>2023-02-02 12:58:48</t>
+          <t>2023-02-02 20:52:01</t>
         </is>
       </c>
     </row>
@@ -12293,7 +12293,7 @@
       <c r="N176" t="inlineStr"/>
       <c r="O176" t="inlineStr">
         <is>
-          <t>2023-02-02 12:58:48</t>
+          <t>2023-02-02 20:52:01</t>
         </is>
       </c>
     </row>
@@ -12362,7 +12362,7 @@
       <c r="N177" t="inlineStr"/>
       <c r="O177" t="inlineStr">
         <is>
-          <t>2023-02-02 12:58:48</t>
+          <t>2023-02-02 20:52:01</t>
         </is>
       </c>
     </row>
@@ -12431,7 +12431,7 @@
       <c r="N178" t="inlineStr"/>
       <c r="O178" t="inlineStr">
         <is>
-          <t>2023-02-02 12:58:48</t>
+          <t>2023-02-02 20:52:01</t>
         </is>
       </c>
     </row>
@@ -12504,7 +12504,7 @@
       </c>
       <c r="O179" t="inlineStr">
         <is>
-          <t>2023-02-02 12:58:48</t>
+          <t>2023-02-02 20:52:01</t>
         </is>
       </c>
     </row>
@@ -12573,7 +12573,7 @@
       <c r="N180" t="inlineStr"/>
       <c r="O180" t="inlineStr">
         <is>
-          <t>2023-02-02 12:58:48</t>
+          <t>2023-02-02 20:52:01</t>
         </is>
       </c>
     </row>
@@ -12646,7 +12646,7 @@
       </c>
       <c r="O181" t="inlineStr">
         <is>
-          <t>2023-02-02 12:58:48</t>
+          <t>2023-02-02 20:52:01</t>
         </is>
       </c>
     </row>
@@ -12715,7 +12715,7 @@
       <c r="N182" t="inlineStr"/>
       <c r="O182" t="inlineStr">
         <is>
-          <t>2023-02-02 12:58:48</t>
+          <t>2023-02-02 20:52:01</t>
         </is>
       </c>
     </row>
@@ -12788,7 +12788,7 @@
       </c>
       <c r="O183" t="inlineStr">
         <is>
-          <t>2023-02-02 12:58:48</t>
+          <t>2023-02-02 20:52:01</t>
         </is>
       </c>
     </row>
@@ -12857,7 +12857,7 @@
       <c r="N184" t="inlineStr"/>
       <c r="O184" t="inlineStr">
         <is>
-          <t>2023-02-02 12:58:48</t>
+          <t>2023-02-02 20:52:01</t>
         </is>
       </c>
     </row>
@@ -12926,7 +12926,7 @@
       <c r="N185" t="inlineStr"/>
       <c r="O185" t="inlineStr">
         <is>
-          <t>2023-02-02 12:58:48</t>
+          <t>2023-02-02 20:52:01</t>
         </is>
       </c>
     </row>
@@ -12995,7 +12995,7 @@
       <c r="N186" t="inlineStr"/>
       <c r="O186" t="inlineStr">
         <is>
-          <t>2023-02-02 12:58:48</t>
+          <t>2023-02-02 20:52:01</t>
         </is>
       </c>
     </row>
@@ -13064,7 +13064,7 @@
       <c r="N187" t="inlineStr"/>
       <c r="O187" t="inlineStr">
         <is>
-          <t>2023-02-02 12:58:48</t>
+          <t>2023-02-02 20:52:01</t>
         </is>
       </c>
     </row>
@@ -13137,7 +13137,7 @@
       </c>
       <c r="O188" t="inlineStr">
         <is>
-          <t>2023-02-02 12:58:48</t>
+          <t>2023-02-02 20:52:01</t>
         </is>
       </c>
     </row>
@@ -13210,7 +13210,7 @@
       </c>
       <c r="O189" t="inlineStr">
         <is>
-          <t>2023-02-02 12:58:48</t>
+          <t>2023-02-02 20:52:01</t>
         </is>
       </c>
     </row>
@@ -13283,7 +13283,7 @@
       </c>
       <c r="O190" t="inlineStr">
         <is>
-          <t>2023-02-02 12:58:48</t>
+          <t>2023-02-02 20:52:01</t>
         </is>
       </c>
     </row>
@@ -13352,7 +13352,7 @@
       <c r="N191" t="inlineStr"/>
       <c r="O191" t="inlineStr">
         <is>
-          <t>2023-02-02 12:58:48</t>
+          <t>2023-02-02 20:52:01</t>
         </is>
       </c>
     </row>
@@ -13425,7 +13425,7 @@
       </c>
       <c r="O192" t="inlineStr">
         <is>
-          <t>2023-02-02 12:58:48</t>
+          <t>2023-02-02 20:52:01</t>
         </is>
       </c>
     </row>
@@ -13498,7 +13498,7 @@
       </c>
       <c r="O193" t="inlineStr">
         <is>
-          <t>2023-02-02 12:58:48</t>
+          <t>2023-02-02 20:52:01</t>
         </is>
       </c>
     </row>
@@ -13571,7 +13571,7 @@
       </c>
       <c r="O194" t="inlineStr">
         <is>
-          <t>2023-02-02 12:58:48</t>
+          <t>2023-02-02 20:52:01</t>
         </is>
       </c>
     </row>
@@ -13640,7 +13640,7 @@
       <c r="N195" t="inlineStr"/>
       <c r="O195" t="inlineStr">
         <is>
-          <t>2023-02-02 12:58:48</t>
+          <t>2023-02-02 20:52:01</t>
         </is>
       </c>
     </row>
@@ -13713,7 +13713,7 @@
       </c>
       <c r="O196" t="inlineStr">
         <is>
-          <t>2023-02-02 12:58:48</t>
+          <t>2023-02-02 20:52:01</t>
         </is>
       </c>
     </row>
@@ -13778,7 +13778,7 @@
       <c r="N197" t="inlineStr"/>
       <c r="O197" t="inlineStr">
         <is>
-          <t>2023-02-02 12:58:48</t>
+          <t>2023-02-02 20:52:01</t>
         </is>
       </c>
     </row>
@@ -13843,7 +13843,7 @@
       <c r="N198" t="inlineStr"/>
       <c r="O198" t="inlineStr">
         <is>
-          <t>2023-02-02 12:58:48</t>
+          <t>2023-02-02 20:52:01</t>
         </is>
       </c>
     </row>
@@ -13916,7 +13916,7 @@
       </c>
       <c r="O199" t="inlineStr">
         <is>
-          <t>2023-02-02 12:58:48</t>
+          <t>2023-02-02 20:52:01</t>
         </is>
       </c>
     </row>
@@ -13989,7 +13989,7 @@
       </c>
       <c r="O200" t="inlineStr">
         <is>
-          <t>2023-02-02 12:58:48</t>
+          <t>2023-02-02 20:52:01</t>
         </is>
       </c>
     </row>
@@ -14062,7 +14062,7 @@
       </c>
       <c r="O201" t="inlineStr">
         <is>
-          <t>2023-02-02 12:58:48</t>
+          <t>2023-02-02 20:52:01</t>
         </is>
       </c>
     </row>
@@ -14135,7 +14135,7 @@
       </c>
       <c r="O202" t="inlineStr">
         <is>
-          <t>2023-02-02 12:58:48</t>
+          <t>2023-02-02 20:52:01</t>
         </is>
       </c>
     </row>
@@ -14208,7 +14208,7 @@
       </c>
       <c r="O203" t="inlineStr">
         <is>
-          <t>2023-02-02 12:58:48</t>
+          <t>2023-02-02 20:52:01</t>
         </is>
       </c>
     </row>
@@ -14273,41 +14273,45 @@
       <c r="N204" t="inlineStr"/>
       <c r="O204" t="inlineStr">
         <is>
-          <t>2023-02-02 12:58:48</t>
+          <t>2023-02-02 20:52:01</t>
         </is>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>7023057</t>
+          <t>6324870</t>
         </is>
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>Rosenkohl violett</t>
+          <t>Bio Lauch grün ca. 500g</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/kohlgemuese/rosenkohl-kabis/rosenkohl-violett/p/7023057</t>
+          <t>/de/lebensmittel/fruechte-gemuese/weiteres-gemuese/lauch-fenchel/bio-lauch-gruen-ca/p/6324870</t>
         </is>
       </c>
       <c r="D205" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="E205" t="n">
-        <v>5</v>
-      </c>
-      <c r="F205" t="inlineStr"/>
+        <v>3.5</v>
+      </c>
+      <c r="F205" t="inlineStr">
+        <is>
+          <t>Coop</t>
+        </is>
+      </c>
       <c r="G205" t="inlineStr">
         <is>
-          <t>2.95</t>
+          <t>3.50</t>
         </is>
       </c>
       <c r="H205" t="inlineStr">
         <is>
-          <t>0.98/100g</t>
+          <t>0.70/100g</t>
         </is>
       </c>
       <c r="I205" t="inlineStr">
@@ -14317,7 +14321,7 @@
       </c>
       <c r="J205" t="inlineStr">
         <is>
-          <t>0.98</t>
+          <t>0.70</t>
         </is>
       </c>
       <c r="K205" t="inlineStr">
@@ -14327,56 +14331,52 @@
       </c>
       <c r="L205" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fruechte-gemuese', 'kohlgemuese', 'rosenkohl-kabis']</t>
+          <t>['lebensmittel', 'fruechte-gemuese', 'weiteres-gemuese', 'lauch-fenchel']</t>
         </is>
       </c>
       <c r="M205" t="inlineStr">
         <is>
-          <t>Rosenkohl violett 2.95 Schweizer Franken</t>
+          <t>Bio Lauch grün ca. 500g 3.50 Schweizer Franken</t>
         </is>
       </c>
       <c r="N205" t="inlineStr"/>
       <c r="O205" t="inlineStr">
         <is>
-          <t>2023-02-02 12:58:48</t>
+          <t>2023-02-02 20:52:01</t>
         </is>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>5756740</t>
+          <t>7023057</t>
         </is>
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>Betty Bossi Nüsslisalat</t>
+          <t>Rosenkohl violett</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/salate/geschnittene-salate/betty-bossi-nuesslisalat/p/5756740</t>
+          <t>/de/lebensmittel/fruechte-gemuese/kohlgemuese/rosenkohl-kabis/rosenkohl-violett/p/7023057</t>
         </is>
       </c>
       <c r="D206" t="n">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="E206" t="n">
-        <v>4</v>
-      </c>
-      <c r="F206" t="inlineStr">
-        <is>
-          <t>Coop</t>
-        </is>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="F206" t="inlineStr"/>
       <c r="G206" t="inlineStr">
         <is>
-          <t>3.95</t>
+          <t>2.95</t>
         </is>
       </c>
       <c r="H206" t="inlineStr">
         <is>
-          <t>3.29/100g</t>
+          <t>0.98/100g</t>
         </is>
       </c>
       <c r="I206" t="inlineStr">
@@ -14386,7 +14386,7 @@
       </c>
       <c r="J206" t="inlineStr">
         <is>
-          <t>3.29</t>
+          <t>0.98</t>
         </is>
       </c>
       <c r="K206" t="inlineStr">
@@ -14396,47 +14396,43 @@
       </c>
       <c r="L206" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fruechte-gemuese', 'salate', 'geschnittene-salate']</t>
+          <t>['lebensmittel', 'fruechte-gemuese', 'kohlgemuese', 'rosenkohl-kabis']</t>
         </is>
       </c>
       <c r="M206" t="inlineStr">
         <is>
-          <t>Betty Bossi Nüsslisalat 3.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N206" t="inlineStr">
-        <is>
-          <t>['chilled']</t>
-        </is>
-      </c>
+          <t>Rosenkohl violett 2.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N206" t="inlineStr"/>
       <c r="O206" t="inlineStr">
         <is>
-          <t>2023-02-02 12:58:48</t>
+          <t>2023-02-02 20:52:01</t>
         </is>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>6123810</t>
+          <t>5756740</t>
         </is>
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>Kartoffeln rote Linie IP-Suisse</t>
+          <t>Betty Bossi Nüsslisalat</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/wurzelgemuese/kartoffeln/kartoffeln-rote-linie-ip-suisse/p/6123810</t>
+          <t>/de/lebensmittel/fruechte-gemuese/salate/geschnittene-salate/betty-bossi-nuesslisalat/p/5756740</t>
         </is>
       </c>
       <c r="D207" t="n">
+        <v>18</v>
+      </c>
+      <c r="E207" t="n">
         <v>4</v>
       </c>
-      <c r="E207" t="n">
-        <v>3.5</v>
-      </c>
       <c r="F207" t="inlineStr">
         <is>
           <t>Coop</t>
@@ -14449,196 +14445,200 @@
       </c>
       <c r="H207" t="inlineStr">
         <is>
-          <t>1.58/1kg</t>
+          <t>3.29/100g</t>
         </is>
       </c>
       <c r="I207" t="inlineStr">
         <is>
-          <t>Preis pro 1 Kilogramm</t>
+          <t>Preis pro 100 Gramm</t>
         </is>
       </c>
       <c r="J207" t="inlineStr">
         <is>
-          <t>1.58</t>
+          <t>3.29</t>
         </is>
       </c>
       <c r="K207" t="inlineStr">
         <is>
-          <t>1kg</t>
+          <t>100g</t>
         </is>
       </c>
       <c r="L207" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fruechte-gemuese', 'wurzelgemuese', 'kartoffeln']</t>
+          <t>['lebensmittel', 'fruechte-gemuese', 'salate', 'geschnittene-salate']</t>
         </is>
       </c>
       <c r="M207" t="inlineStr">
         <is>
-          <t>Kartoffeln rote Linie IP-Suisse 3.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N207" t="inlineStr"/>
+          <t>Betty Bossi Nüsslisalat 3.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N207" t="inlineStr">
+        <is>
+          <t>['chilled']</t>
+        </is>
+      </c>
       <c r="O207" t="inlineStr">
         <is>
-          <t>2023-02-02 12:58:48</t>
+          <t>2023-02-02 20:52:01</t>
         </is>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>6540254</t>
+          <t>6123810</t>
         </is>
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>Chicoree mix</t>
+          <t>Kartoffeln rote Linie IP-Suisse</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/salate/ganze-salate/chicoree-mix/p/6540254</t>
+          <t>/de/lebensmittel/fruechte-gemuese/wurzelgemuese/kartoffeln/kartoffeln-rote-linie-ip-suisse/p/6123810</t>
         </is>
       </c>
       <c r="D208" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E208" t="n">
-        <v>5</v>
-      </c>
-      <c r="F208" t="inlineStr"/>
+        <v>3.5</v>
+      </c>
+      <c r="F208" t="inlineStr">
+        <is>
+          <t>Coop</t>
+        </is>
+      </c>
       <c r="G208" t="inlineStr">
         <is>
-          <t>2.95</t>
+          <t>3.95</t>
         </is>
       </c>
       <c r="H208" t="inlineStr">
         <is>
-          <t>0.74/100g</t>
+          <t>1.58/1kg</t>
         </is>
       </c>
       <c r="I208" t="inlineStr">
         <is>
-          <t>Preis pro 100 Gramm</t>
+          <t>Preis pro 1 Kilogramm</t>
         </is>
       </c>
       <c r="J208" t="inlineStr">
         <is>
-          <t>0.74</t>
+          <t>1.58</t>
         </is>
       </c>
       <c r="K208" t="inlineStr">
         <is>
-          <t>100g</t>
+          <t>1kg</t>
         </is>
       </c>
       <c r="L208" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fruechte-gemuese', 'salate', 'ganze-salate']</t>
+          <t>['lebensmittel', 'fruechte-gemuese', 'wurzelgemuese', 'kartoffeln']</t>
         </is>
       </c>
       <c r="M208" t="inlineStr">
         <is>
-          <t>Chicoree mix 2.95 Schweizer Franken</t>
+          <t>Kartoffeln rote Linie IP-Suisse 3.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N208" t="inlineStr"/>
       <c r="O208" t="inlineStr">
         <is>
-          <t>2023-02-02 12:58:48</t>
+          <t>2023-02-02 20:52:01</t>
         </is>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>6533585</t>
+          <t>6540254</t>
         </is>
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>Prix Garantie Clementinen</t>
+          <t>Chicoree mix</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/fruechte/zitrusfruechte/prix-garantie-clementinen/p/6533585</t>
+          <t>/de/lebensmittel/fruechte-gemuese/salate/ganze-salate/chicoree-mix/p/6540254</t>
         </is>
       </c>
       <c r="D209" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E209" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="F209" t="inlineStr">
-        <is>
-          <t>Coop</t>
-        </is>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="F209" t="inlineStr"/>
       <c r="G209" t="inlineStr">
         <is>
-          <t>4.50</t>
+          <t>2.95</t>
         </is>
       </c>
       <c r="H209" t="inlineStr">
         <is>
-          <t>1.80/1kg</t>
+          <t>0.74/100g</t>
         </is>
       </c>
       <c r="I209" t="inlineStr">
         <is>
-          <t>Preis pro 1 Kilogramm</t>
+          <t>Preis pro 100 Gramm</t>
         </is>
       </c>
       <c r="J209" t="inlineStr">
         <is>
-          <t>1.80</t>
+          <t>0.74</t>
         </is>
       </c>
       <c r="K209" t="inlineStr">
         <is>
-          <t>1kg</t>
+          <t>100g</t>
         </is>
       </c>
       <c r="L209" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fruechte-gemuese', 'fruechte', 'zitrusfruechte']</t>
+          <t>['lebensmittel', 'fruechte-gemuese', 'salate', 'ganze-salate']</t>
         </is>
       </c>
       <c r="M209" t="inlineStr">
         <is>
-          <t>Prix Garantie Clementinen 4.50 Schweizer Franken</t>
+          <t>Chicoree mix 2.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N209" t="inlineStr"/>
       <c r="O209" t="inlineStr">
         <is>
-          <t>2023-02-02 12:58:48</t>
+          <t>2023-02-02 20:52:01</t>
         </is>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>6324870</t>
+          <t>6533585</t>
         </is>
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>Bio Lauch grün ca. 500g</t>
+          <t>Prix Garantie Clementinen</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/weiteres-gemuese/lauch-fenchel/bio-lauch-gruen-ca/p/6324870</t>
+          <t>/de/lebensmittel/fruechte-gemuese/fruechte/zitrusfruechte/prix-garantie-clementinen/p/6533585</t>
         </is>
       </c>
       <c r="D210" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="E210" t="n">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="F210" t="inlineStr">
         <is>
@@ -14647,43 +14647,43 @@
       </c>
       <c r="G210" t="inlineStr">
         <is>
-          <t>3.50</t>
+          <t>4.50</t>
         </is>
       </c>
       <c r="H210" t="inlineStr">
         <is>
-          <t>0.70/100g</t>
+          <t>1.80/1kg</t>
         </is>
       </c>
       <c r="I210" t="inlineStr">
         <is>
-          <t>Preis pro 100 Gramm</t>
+          <t>Preis pro 1 Kilogramm</t>
         </is>
       </c>
       <c r="J210" t="inlineStr">
         <is>
-          <t>0.70</t>
+          <t>1.80</t>
         </is>
       </c>
       <c r="K210" t="inlineStr">
         <is>
-          <t>100g</t>
+          <t>1kg</t>
         </is>
       </c>
       <c r="L210" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fruechte-gemuese', 'weiteres-gemuese', 'lauch-fenchel']</t>
+          <t>['lebensmittel', 'fruechte-gemuese', 'fruechte', 'zitrusfruechte']</t>
         </is>
       </c>
       <c r="M210" t="inlineStr">
         <is>
-          <t>Bio Lauch grün ca. 500g 3.50 Schweizer Franken</t>
+          <t>Prix Garantie Clementinen 4.50 Schweizer Franken</t>
         </is>
       </c>
       <c r="N210" t="inlineStr"/>
       <c r="O210" t="inlineStr">
         <is>
-          <t>2023-02-02 12:58:48</t>
+          <t>2023-02-02 20:52:01</t>
         </is>
       </c>
     </row>
@@ -14756,7 +14756,7 @@
       </c>
       <c r="O211" t="inlineStr">
         <is>
-          <t>2023-02-02 12:58:48</t>
+          <t>2023-02-02 20:52:01</t>
         </is>
       </c>
     </row>
@@ -14825,7 +14825,7 @@
       <c r="N212" t="inlineStr"/>
       <c r="O212" t="inlineStr">
         <is>
-          <t>2023-02-02 12:58:48</t>
+          <t>2023-02-02 20:52:01</t>
         </is>
       </c>
     </row>
@@ -14894,7 +14894,7 @@
       <c r="N213" t="inlineStr"/>
       <c r="O213" t="inlineStr">
         <is>
-          <t>2023-02-02 12:58:48</t>
+          <t>2023-02-02 20:52:01</t>
         </is>
       </c>
     </row>
@@ -14963,7 +14963,7 @@
       <c r="N214" t="inlineStr"/>
       <c r="O214" t="inlineStr">
         <is>
-          <t>2023-02-02 12:58:48</t>
+          <t>2023-02-02 20:52:01</t>
         </is>
       </c>
     </row>
@@ -15032,7 +15032,7 @@
       <c r="N215" t="inlineStr"/>
       <c r="O215" t="inlineStr">
         <is>
-          <t>2023-02-02 12:58:48</t>
+          <t>2023-02-02 20:52:01</t>
         </is>
       </c>
     </row>
@@ -15105,7 +15105,7 @@
       </c>
       <c r="O216" t="inlineStr">
         <is>
-          <t>2023-02-02 12:58:48</t>
+          <t>2023-02-02 20:52:01</t>
         </is>
       </c>
     </row>
@@ -15168,7 +15168,7 @@
       <c r="N217" t="inlineStr"/>
       <c r="O217" t="inlineStr">
         <is>
-          <t>2023-02-02 12:58:48</t>
+          <t>2023-02-02 20:52:01</t>
         </is>
       </c>
     </row>
@@ -15237,7 +15237,7 @@
       <c r="N218" t="inlineStr"/>
       <c r="O218" t="inlineStr">
         <is>
-          <t>2023-02-02 12:58:48</t>
+          <t>2023-02-02 20:52:01</t>
         </is>
       </c>
     </row>
@@ -15306,7 +15306,7 @@
       <c r="N219" t="inlineStr"/>
       <c r="O219" t="inlineStr">
         <is>
-          <t>2023-02-02 12:58:48</t>
+          <t>2023-02-02 20:52:01</t>
         </is>
       </c>
     </row>
@@ -15379,7 +15379,7 @@
       </c>
       <c r="O220" t="inlineStr">
         <is>
-          <t>2023-02-02 12:58:48</t>
+          <t>2023-02-02 20:52:01</t>
         </is>
       </c>
     </row>
@@ -15452,7 +15452,7 @@
       </c>
       <c r="O221" t="inlineStr">
         <is>
-          <t>2023-02-02 12:58:48</t>
+          <t>2023-02-02 20:52:01</t>
         </is>
       </c>
     </row>
@@ -15517,7 +15517,7 @@
       <c r="N222" t="inlineStr"/>
       <c r="O222" t="inlineStr">
         <is>
-          <t>2023-02-02 12:58:48</t>
+          <t>2023-02-02 20:52:01</t>
         </is>
       </c>
     </row>
@@ -15582,7 +15582,7 @@
       <c r="N223" t="inlineStr"/>
       <c r="O223" t="inlineStr">
         <is>
-          <t>2023-02-02 12:58:48</t>
+          <t>2023-02-02 20:52:01</t>
         </is>
       </c>
     </row>
@@ -15655,7 +15655,7 @@
       </c>
       <c r="O224" t="inlineStr">
         <is>
-          <t>2023-02-02 12:58:48</t>
+          <t>2023-02-02 20:52:01</t>
         </is>
       </c>
     </row>
@@ -15728,7 +15728,7 @@
       </c>
       <c r="O225" t="inlineStr">
         <is>
-          <t>2023-02-02 12:58:48</t>
+          <t>2023-02-02 20:52:01</t>
         </is>
       </c>
     </row>
@@ -15801,7 +15801,7 @@
       </c>
       <c r="O226" t="inlineStr">
         <is>
-          <t>2023-02-02 12:58:48</t>
+          <t>2023-02-02 20:52:01</t>
         </is>
       </c>
     </row>
@@ -15874,7 +15874,7 @@
       </c>
       <c r="O227" t="inlineStr">
         <is>
-          <t>2023-02-02 12:58:48</t>
+          <t>2023-02-02 20:52:01</t>
         </is>
       </c>
     </row>
@@ -15947,7 +15947,7 @@
       </c>
       <c r="O228" t="inlineStr">
         <is>
-          <t>2023-02-02 12:58:48</t>
+          <t>2023-02-02 20:52:01</t>
         </is>
       </c>
     </row>
@@ -16020,7 +16020,7 @@
       </c>
       <c r="O229" t="inlineStr">
         <is>
-          <t>2023-02-02 12:58:48</t>
+          <t>2023-02-02 20:52:01</t>
         </is>
       </c>
     </row>
@@ -16089,7 +16089,7 @@
       <c r="N230" t="inlineStr"/>
       <c r="O230" t="inlineStr">
         <is>
-          <t>2023-02-02 12:58:48</t>
+          <t>2023-02-02 20:52:01</t>
         </is>
       </c>
     </row>
@@ -16162,7 +16162,7 @@
       </c>
       <c r="O231" t="inlineStr">
         <is>
-          <t>2023-02-02 12:58:48</t>
+          <t>2023-02-02 20:52:01</t>
         </is>
       </c>
     </row>
@@ -16225,7 +16225,7 @@
       <c r="N232" t="inlineStr"/>
       <c r="O232" t="inlineStr">
         <is>
-          <t>2023-02-02 12:58:48</t>
+          <t>2023-02-02 20:52:01</t>
         </is>
       </c>
     </row>
@@ -16298,7 +16298,7 @@
       </c>
       <c r="O233" t="inlineStr">
         <is>
-          <t>2023-02-02 12:58:48</t>
+          <t>2023-02-02 20:52:01</t>
         </is>
       </c>
     </row>
@@ -16363,7 +16363,7 @@
       <c r="N234" t="inlineStr"/>
       <c r="O234" t="inlineStr">
         <is>
-          <t>2023-02-02 12:58:48</t>
+          <t>2023-02-02 20:52:01</t>
         </is>
       </c>
     </row>
@@ -16432,7 +16432,7 @@
       <c r="N235" t="inlineStr"/>
       <c r="O235" t="inlineStr">
         <is>
-          <t>2023-02-02 12:58:48</t>
+          <t>2023-02-02 20:52:01</t>
         </is>
       </c>
     </row>
@@ -16501,7 +16501,7 @@
       <c r="N236" t="inlineStr"/>
       <c r="O236" t="inlineStr">
         <is>
-          <t>2023-02-02 12:58:48</t>
+          <t>2023-02-02 20:52:01</t>
         </is>
       </c>
     </row>
@@ -16574,7 +16574,7 @@
       </c>
       <c r="O237" t="inlineStr">
         <is>
-          <t>2023-02-02 12:58:48</t>
+          <t>2023-02-02 20:52:01</t>
         </is>
       </c>
     </row>
@@ -16647,7 +16647,7 @@
       </c>
       <c r="O238" t="inlineStr">
         <is>
-          <t>2023-02-02 12:58:48</t>
+          <t>2023-02-02 20:52:01</t>
         </is>
       </c>
     </row>
@@ -16712,7 +16712,7 @@
       <c r="N239" t="inlineStr"/>
       <c r="O239" t="inlineStr">
         <is>
-          <t>2023-02-02 12:58:48</t>
+          <t>2023-02-02 20:52:01</t>
         </is>
       </c>
     </row>
@@ -16781,7 +16781,7 @@
       <c r="N240" t="inlineStr"/>
       <c r="O240" t="inlineStr">
         <is>
-          <t>2023-02-02 12:58:48</t>
+          <t>2023-02-02 20:52:01</t>
         </is>
       </c>
     </row>
@@ -16854,7 +16854,7 @@
       </c>
       <c r="O241" t="inlineStr">
         <is>
-          <t>2023-02-02 12:58:48</t>
+          <t>2023-02-02 20:52:01</t>
         </is>
       </c>
     </row>
@@ -16917,7 +16917,7 @@
       <c r="N242" t="inlineStr"/>
       <c r="O242" t="inlineStr">
         <is>
-          <t>2023-02-02 12:58:48</t>
+          <t>2023-02-02 20:52:01</t>
         </is>
       </c>
     </row>
@@ -16982,7 +16982,7 @@
       <c r="N243" t="inlineStr"/>
       <c r="O243" t="inlineStr">
         <is>
-          <t>2023-02-02 12:58:48</t>
+          <t>2023-02-02 20:52:01</t>
         </is>
       </c>
     </row>
@@ -17035,7 +17035,7 @@
       <c r="N244" t="inlineStr"/>
       <c r="O244" t="inlineStr">
         <is>
-          <t>2023-02-02 12:58:48</t>
+          <t>2023-02-02 20:52:01</t>
         </is>
       </c>
     </row>
@@ -17108,7 +17108,7 @@
       </c>
       <c r="O245" t="inlineStr">
         <is>
-          <t>2023-02-02 12:58:48</t>
+          <t>2023-02-02 20:52:01</t>
         </is>
       </c>
     </row>
@@ -17155,7 +17155,7 @@
       <c r="N246" t="inlineStr"/>
       <c r="O246" t="inlineStr">
         <is>
-          <t>2023-02-02 12:58:48</t>
+          <t>2023-02-02 20:52:01</t>
         </is>
       </c>
     </row>
@@ -17228,7 +17228,7 @@
       </c>
       <c r="O247" t="inlineStr">
         <is>
-          <t>2023-02-02 12:58:48</t>
+          <t>2023-02-02 20:52:01</t>
         </is>
       </c>
     </row>
@@ -17301,7 +17301,7 @@
       </c>
       <c r="O248" t="inlineStr">
         <is>
-          <t>2023-02-02 12:58:48</t>
+          <t>2023-02-02 20:52:01</t>
         </is>
       </c>
     </row>
@@ -17374,7 +17374,7 @@
       </c>
       <c r="O249" t="inlineStr">
         <is>
-          <t>2023-02-02 12:58:48</t>
+          <t>2023-02-02 20:52:01</t>
         </is>
       </c>
     </row>
@@ -17443,7 +17443,7 @@
       <c r="N250" t="inlineStr"/>
       <c r="O250" t="inlineStr">
         <is>
-          <t>2023-02-02 12:58:48</t>
+          <t>2023-02-02 20:52:01</t>
         </is>
       </c>
     </row>
@@ -17516,7 +17516,7 @@
       </c>
       <c r="O251" t="inlineStr">
         <is>
-          <t>2023-02-02 12:58:48</t>
+          <t>2023-02-02 20:52:01</t>
         </is>
       </c>
     </row>
@@ -17589,7 +17589,7 @@
       </c>
       <c r="O252" t="inlineStr">
         <is>
-          <t>2023-02-02 12:58:48</t>
+          <t>2023-02-02 20:52:01</t>
         </is>
       </c>
     </row>
@@ -17654,7 +17654,7 @@
       <c r="N253" t="inlineStr"/>
       <c r="O253" t="inlineStr">
         <is>
-          <t>2023-02-02 12:58:48</t>
+          <t>2023-02-02 20:52:01</t>
         </is>
       </c>
     </row>
@@ -17727,7 +17727,7 @@
       </c>
       <c r="O254" t="inlineStr">
         <is>
-          <t>2023-02-02 12:58:48</t>
+          <t>2023-02-02 20:52:01</t>
         </is>
       </c>
     </row>
@@ -17796,7 +17796,7 @@
       </c>
       <c r="O255" t="inlineStr">
         <is>
-          <t>2023-02-02 12:58:48</t>
+          <t>2023-02-02 20:52:01</t>
         </is>
       </c>
     </row>
@@ -17861,7 +17861,7 @@
       <c r="N256" t="inlineStr"/>
       <c r="O256" t="inlineStr">
         <is>
-          <t>2023-02-02 12:58:48</t>
+          <t>2023-02-02 20:52:01</t>
         </is>
       </c>
     </row>
@@ -17930,7 +17930,7 @@
       <c r="N257" t="inlineStr"/>
       <c r="O257" t="inlineStr">
         <is>
-          <t>2023-02-02 12:58:48</t>
+          <t>2023-02-02 20:52:01</t>
         </is>
       </c>
     </row>
@@ -18003,7 +18003,7 @@
       </c>
       <c r="O258" t="inlineStr">
         <is>
-          <t>2023-02-02 12:58:48</t>
+          <t>2023-02-02 20:52:01</t>
         </is>
       </c>
     </row>
@@ -18068,7 +18068,7 @@
       <c r="N259" t="inlineStr"/>
       <c r="O259" t="inlineStr">
         <is>
-          <t>2023-02-02 12:58:48</t>
+          <t>2023-02-02 20:52:01</t>
         </is>
       </c>
     </row>
@@ -18133,7 +18133,7 @@
       <c r="N260" t="inlineStr"/>
       <c r="O260" t="inlineStr">
         <is>
-          <t>2023-02-02 12:58:48</t>
+          <t>2023-02-02 20:52:01</t>
         </is>
       </c>
     </row>
@@ -18206,7 +18206,7 @@
       </c>
       <c r="O261" t="inlineStr">
         <is>
-          <t>2023-02-02 12:58:48</t>
+          <t>2023-02-02 20:52:01</t>
         </is>
       </c>
     </row>
@@ -18279,45 +18279,45 @@
       </c>
       <c r="O262" t="inlineStr">
         <is>
-          <t>2023-02-02 12:58:48</t>
+          <t>2023-02-02 20:52:01</t>
         </is>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>6431571</t>
+          <t>6711893</t>
         </is>
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>Schweizer Dörrbohnen</t>
+          <t>Wild Foods Wood Smoked</t>
         </is>
       </c>
       <c r="C263" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/weiteres-gemuese/mais-erbsen-bohnen/schweizer-doerrbohnen/p/6431571</t>
+          <t>/de/lebensmittel/fleisch-fisch/the-veggie-chef/pflanzlicher-fischersatz/wild-foods-wood-smoked/p/6711893</t>
         </is>
       </c>
       <c r="D263" t="n">
-        <v>10</v>
+        <v>38</v>
       </c>
       <c r="E263" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F263" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>WILD FOODS</t>
         </is>
       </c>
       <c r="G263" t="inlineStr">
         <is>
-          <t>4.80</t>
+          <t>8.95</t>
         </is>
       </c>
       <c r="H263" t="inlineStr">
         <is>
-          <t>4.80/100g</t>
+          <t>6.88/100g</t>
         </is>
       </c>
       <c r="I263" t="inlineStr">
@@ -18327,7 +18327,7 @@
       </c>
       <c r="J263" t="inlineStr">
         <is>
-          <t>4.80</t>
+          <t>6.88</t>
         </is>
       </c>
       <c r="K263" t="inlineStr">
@@ -18337,56 +18337,60 @@
       </c>
       <c r="L263" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fruechte-gemuese', 'weiteres-gemuese', 'mais-erbsen-bohnen']</t>
+          <t>['lebensmittel', 'fleisch-fisch', 'the-veggie-chef', 'pflanzlicher-fischersatz']</t>
         </is>
       </c>
       <c r="M263" t="inlineStr">
         <is>
-          <t>Schweizer Dörrbohnen 4.80 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N263" t="inlineStr"/>
+          <t>Wild Foods Wood Smoked 8.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N263" t="inlineStr">
+        <is>
+          <t>['chilled', 'vegan', 'vegetarian']</t>
+        </is>
+      </c>
       <c r="O263" t="inlineStr">
         <is>
-          <t>2023-02-02 12:58:48</t>
+          <t>2023-02-02 20:52:01</t>
         </is>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>6711893</t>
+          <t>6431571</t>
         </is>
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>Wild Foods Wood Smoked</t>
+          <t>Schweizer Dörrbohnen</t>
         </is>
       </c>
       <c r="C264" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fleisch-fisch/the-veggie-chef/pflanzlicher-fischersatz/wild-foods-wood-smoked/p/6711893</t>
+          <t>/de/lebensmittel/fruechte-gemuese/weiteres-gemuese/mais-erbsen-bohnen/schweizer-doerrbohnen/p/6431571</t>
         </is>
       </c>
       <c r="D264" t="n">
-        <v>38</v>
+        <v>10</v>
       </c>
       <c r="E264" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F264" t="inlineStr">
         <is>
-          <t>WILD FOODS</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G264" t="inlineStr">
         <is>
-          <t>8.95</t>
+          <t>4.80</t>
         </is>
       </c>
       <c r="H264" t="inlineStr">
         <is>
-          <t>6.88/100g</t>
+          <t>4.80/100g</t>
         </is>
       </c>
       <c r="I264" t="inlineStr">
@@ -18396,7 +18400,7 @@
       </c>
       <c r="J264" t="inlineStr">
         <is>
-          <t>6.88</t>
+          <t>4.80</t>
         </is>
       </c>
       <c r="K264" t="inlineStr">
@@ -18406,22 +18410,18 @@
       </c>
       <c r="L264" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fleisch-fisch', 'the-veggie-chef', 'pflanzlicher-fischersatz']</t>
+          <t>['lebensmittel', 'fruechte-gemuese', 'weiteres-gemuese', 'mais-erbsen-bohnen']</t>
         </is>
       </c>
       <c r="M264" t="inlineStr">
         <is>
-          <t>Wild Foods Wood Smoked 8.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N264" t="inlineStr">
-        <is>
-          <t>['chilled', 'vegan', 'vegetarian']</t>
-        </is>
-      </c>
+          <t>Schweizer Dörrbohnen 4.80 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N264" t="inlineStr"/>
       <c r="O264" t="inlineStr">
         <is>
-          <t>2023-02-02 12:58:48</t>
+          <t>2023-02-02 20:52:01</t>
         </is>
       </c>
     </row>
@@ -18488,7 +18488,7 @@
       <c r="N265" t="inlineStr"/>
       <c r="O265" t="inlineStr">
         <is>
-          <t>2023-02-02 12:58:48</t>
+          <t>2023-02-02 20:52:01</t>
         </is>
       </c>
     </row>
@@ -18557,7 +18557,7 @@
       <c r="N266" t="inlineStr"/>
       <c r="O266" t="inlineStr">
         <is>
-          <t>2023-02-02 12:58:48</t>
+          <t>2023-02-02 20:52:01</t>
         </is>
       </c>
     </row>
@@ -18630,7 +18630,7 @@
       </c>
       <c r="O267" t="inlineStr">
         <is>
-          <t>2023-02-02 12:58:48</t>
+          <t>2023-02-02 20:52:01</t>
         </is>
       </c>
     </row>
@@ -18699,7 +18699,7 @@
       <c r="N268" t="inlineStr"/>
       <c r="O268" t="inlineStr">
         <is>
-          <t>2023-02-02 12:58:48</t>
+          <t>2023-02-02 20:52:01</t>
         </is>
       </c>
     </row>
@@ -18772,7 +18772,7 @@
       </c>
       <c r="O269" t="inlineStr">
         <is>
-          <t>2023-02-02 12:58:48</t>
+          <t>2023-02-02 20:52:01</t>
         </is>
       </c>
     </row>
@@ -18841,7 +18841,7 @@
       <c r="N270" t="inlineStr"/>
       <c r="O270" t="inlineStr">
         <is>
-          <t>2023-02-02 12:58:48</t>
+          <t>2023-02-02 20:52:01</t>
         </is>
       </c>
     </row>
@@ -18906,7 +18906,7 @@
       <c r="N271" t="inlineStr"/>
       <c r="O271" t="inlineStr">
         <is>
-          <t>2023-02-02 12:58:48</t>
+          <t>2023-02-02 20:52:01</t>
         </is>
       </c>
     </row>
@@ -18927,10 +18927,10 @@
         </is>
       </c>
       <c r="D272" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E272" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="F272" t="inlineStr">
         <is>
@@ -18979,7 +18979,7 @@
       </c>
       <c r="O272" t="inlineStr">
         <is>
-          <t>2023-02-02 12:58:48</t>
+          <t>2023-02-02 20:52:01</t>
         </is>
       </c>
     </row>
@@ -19000,7 +19000,7 @@
         </is>
       </c>
       <c r="D273" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E273" t="n">
         <v>3.5</v>
@@ -19048,7 +19048,7 @@
       <c r="N273" t="inlineStr"/>
       <c r="O273" t="inlineStr">
         <is>
-          <t>2023-02-02 12:58:48</t>
+          <t>2023-02-02 20:52:01</t>
         </is>
       </c>
     </row>
@@ -19117,7 +19117,7 @@
       <c r="N274" t="inlineStr"/>
       <c r="O274" t="inlineStr">
         <is>
-          <t>2023-02-02 12:58:48</t>
+          <t>2023-02-02 20:52:01</t>
         </is>
       </c>
     </row>
@@ -19188,7 +19188,7 @@
       </c>
       <c r="O275" t="inlineStr">
         <is>
-          <t>2023-02-02 12:58:48</t>
+          <t>2023-02-02 20:52:01</t>
         </is>
       </c>
     </row>
@@ -19261,7 +19261,7 @@
       </c>
       <c r="O276" t="inlineStr">
         <is>
-          <t>2023-02-02 12:58:48</t>
+          <t>2023-02-02 20:52:01</t>
         </is>
       </c>
     </row>
@@ -19330,7 +19330,7 @@
       <c r="N277" t="inlineStr"/>
       <c r="O277" t="inlineStr">
         <is>
-          <t>2023-02-02 12:58:48</t>
+          <t>2023-02-02 20:52:01</t>
         </is>
       </c>
     </row>
@@ -19403,7 +19403,7 @@
       </c>
       <c r="O278" t="inlineStr">
         <is>
-          <t>2023-02-02 12:58:48</t>
+          <t>2023-02-02 20:52:01</t>
         </is>
       </c>
     </row>
@@ -19472,7 +19472,7 @@
       <c r="N279" t="inlineStr"/>
       <c r="O279" t="inlineStr">
         <is>
-          <t>2023-02-02 12:58:48</t>
+          <t>2023-02-02 20:52:01</t>
         </is>
       </c>
     </row>
@@ -19541,7 +19541,7 @@
       <c r="N280" t="inlineStr"/>
       <c r="O280" t="inlineStr">
         <is>
-          <t>2023-02-02 12:58:48</t>
+          <t>2023-02-02 20:52:01</t>
         </is>
       </c>
     </row>
@@ -19614,7 +19614,7 @@
       </c>
       <c r="O281" t="inlineStr">
         <is>
-          <t>2023-02-02 12:58:48</t>
+          <t>2023-02-02 20:52:01</t>
         </is>
       </c>
     </row>
@@ -19683,7 +19683,7 @@
       <c r="N282" t="inlineStr"/>
       <c r="O282" t="inlineStr">
         <is>
-          <t>2023-02-02 12:58:48</t>
+          <t>2023-02-02 20:52:01</t>
         </is>
       </c>
     </row>
@@ -19746,7 +19746,7 @@
       <c r="N283" t="inlineStr"/>
       <c r="O283" t="inlineStr">
         <is>
-          <t>2023-02-02 12:58:48</t>
+          <t>2023-02-02 20:52:01</t>
         </is>
       </c>
     </row>
@@ -19815,7 +19815,7 @@
       <c r="N284" t="inlineStr"/>
       <c r="O284" t="inlineStr">
         <is>
-          <t>2023-02-02 12:58:48</t>
+          <t>2023-02-02 20:52:01</t>
         </is>
       </c>
     </row>
@@ -19888,7 +19888,7 @@
       </c>
       <c r="O285" t="inlineStr">
         <is>
-          <t>2023-02-02 12:58:48</t>
+          <t>2023-02-02 20:52:01</t>
         </is>
       </c>
     </row>
@@ -19955,7 +19955,7 @@
       <c r="N286" t="inlineStr"/>
       <c r="O286" t="inlineStr">
         <is>
-          <t>2023-02-02 12:58:48</t>
+          <t>2023-02-02 20:52:01</t>
         </is>
       </c>
     </row>
@@ -20024,41 +20024,41 @@
       <c r="N287" t="inlineStr"/>
       <c r="O287" t="inlineStr">
         <is>
-          <t>2023-02-02 12:58:48</t>
+          <t>2023-02-02 20:52:01</t>
         </is>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>3368021</t>
+          <t>4513438</t>
         </is>
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>Mini-Karotten</t>
+          <t>Wakame Salat mit Algen</t>
         </is>
       </c>
       <c r="C288" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/wurzelgemuese/rueebli-pastinaken/mini-karotten/p/3368021</t>
+          <t>/de/lebensmittel/fertiggerichte/frische-fertiggerichte/fertigsalate/wakame-salat-mit-algen/p/4513438</t>
         </is>
       </c>
       <c r="D288" t="n">
+        <v>23</v>
+      </c>
+      <c r="E288" t="n">
         <v>5</v>
-      </c>
-      <c r="E288" t="n">
-        <v>3</v>
       </c>
       <c r="F288" t="inlineStr"/>
       <c r="G288" t="inlineStr">
         <is>
-          <t>4.95</t>
+          <t>3.95</t>
         </is>
       </c>
       <c r="H288" t="inlineStr">
         <is>
-          <t>2.48/100g</t>
+          <t>3.16/100g</t>
         </is>
       </c>
       <c r="I288" t="inlineStr">
@@ -20068,7 +20068,7 @@
       </c>
       <c r="J288" t="inlineStr">
         <is>
-          <t>2.48</t>
+          <t>3.16</t>
         </is>
       </c>
       <c r="K288" t="inlineStr">
@@ -20078,111 +20078,111 @@
       </c>
       <c r="L288" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fruechte-gemuese', 'wurzelgemuese', 'rueebli-pastinaken']</t>
+          <t>['lebensmittel', 'fertiggerichte', 'frische-fertiggerichte', 'fertigsalate']</t>
         </is>
       </c>
       <c r="M288" t="inlineStr">
         <is>
-          <t>Mini-Karotten 4.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N288" t="inlineStr"/>
+          <t>Wakame Salat mit Algen 3.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N288" t="inlineStr">
+        <is>
+          <t>['chilled']</t>
+        </is>
+      </c>
       <c r="O288" t="inlineStr">
         <is>
-          <t>2023-02-02 12:58:48</t>
+          <t>2023-02-02 20:52:01</t>
         </is>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>6471640</t>
+          <t>3368021</t>
         </is>
       </c>
       <c r="B289" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Blumenkohl ca. 1kg</t>
+          <t>Mini-Karotten</t>
         </is>
       </c>
       <c r="C289" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/kohlgemuese/broccoli-blumenkohl/naturaplan-bio-blumenkohl-ca/p/6471640</t>
+          <t>/de/lebensmittel/fruechte-gemuese/wurzelgemuese/rueebli-pastinaken/mini-karotten/p/3368021</t>
         </is>
       </c>
       <c r="D289" t="n">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="E289" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="F289" t="inlineStr">
-        <is>
-          <t>Coop</t>
-        </is>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="F289" t="inlineStr"/>
       <c r="G289" t="inlineStr">
         <is>
-          <t>5.40</t>
+          <t>4.95</t>
         </is>
       </c>
       <c r="H289" t="inlineStr">
         <is>
-          <t>5.40/1kg</t>
+          <t>2.48/100g</t>
         </is>
       </c>
       <c r="I289" t="inlineStr">
         <is>
-          <t>Preis pro 1 Kilogramm</t>
+          <t>Preis pro 100 Gramm</t>
         </is>
       </c>
       <c r="J289" t="inlineStr">
         <is>
-          <t>5.40</t>
+          <t>2.48</t>
         </is>
       </c>
       <c r="K289" t="inlineStr">
         <is>
-          <t>1kg</t>
+          <t>100g</t>
         </is>
       </c>
       <c r="L289" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fruechte-gemuese', 'kohlgemuese', 'broccoli-blumenkohl']</t>
+          <t>['lebensmittel', 'fruechte-gemuese', 'wurzelgemuese', 'rueebli-pastinaken']</t>
         </is>
       </c>
       <c r="M289" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Blumenkohl ca. 1kg 5.40 Schweizer Franken</t>
+          <t>Mini-Karotten 4.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N289" t="inlineStr"/>
       <c r="O289" t="inlineStr">
         <is>
-          <t>2023-02-02 12:58:48</t>
+          <t>2023-02-02 20:52:01</t>
         </is>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>3090819</t>
+          <t>6471640</t>
         </is>
       </c>
       <c r="B290" t="inlineStr">
         <is>
-          <t>Baumnüsse Grenoble</t>
+          <t>Naturaplan Bio Blumenkohl ca. 1kg</t>
         </is>
       </c>
       <c r="C290" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/nuesse-datteln-marroni-und-feigen/baumnuesse-grenoble/p/3090819</t>
+          <t>/de/lebensmittel/fruechte-gemuese/kohlgemuese/broccoli-blumenkohl/naturaplan-bio-blumenkohl-ca/p/6471640</t>
         </is>
       </c>
       <c r="D290" t="n">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="E290" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="F290" t="inlineStr">
         <is>
@@ -20191,77 +20191,81 @@
       </c>
       <c r="G290" t="inlineStr">
         <is>
-          <t>3.40</t>
+          <t>5.40</t>
         </is>
       </c>
       <c r="H290" t="inlineStr">
         <is>
-          <t>0.68/100g</t>
+          <t>5.40/1kg</t>
         </is>
       </c>
       <c r="I290" t="inlineStr">
         <is>
-          <t>Preis pro 100 Gramm</t>
+          <t>Preis pro 1 Kilogramm</t>
         </is>
       </c>
       <c r="J290" t="inlineStr">
         <is>
-          <t>0.68</t>
+          <t>5.40</t>
         </is>
       </c>
       <c r="K290" t="inlineStr">
         <is>
-          <t>100g</t>
+          <t>1kg</t>
         </is>
       </c>
       <c r="L290" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fruechte-gemuese', 'nuesse-datteln-marroni-und-feigen']</t>
+          <t>['lebensmittel', 'fruechte-gemuese', 'kohlgemuese', 'broccoli-blumenkohl']</t>
         </is>
       </c>
       <c r="M290" t="inlineStr">
         <is>
-          <t>Baumnüsse Grenoble 3.40 Schweizer Franken</t>
+          <t>Naturaplan Bio Blumenkohl ca. 1kg 5.40 Schweizer Franken</t>
         </is>
       </c>
       <c r="N290" t="inlineStr"/>
       <c r="O290" t="inlineStr">
         <is>
-          <t>2023-02-02 12:58:48</t>
+          <t>2023-02-02 20:52:01</t>
         </is>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>4227197</t>
+          <t>3090819</t>
         </is>
       </c>
       <c r="B291" t="inlineStr">
         <is>
-          <t>Broccoli- &amp;amp; Blumenkohl-Röschen</t>
+          <t>Baumnüsse Grenoble</t>
         </is>
       </c>
       <c r="C291" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/kohlgemuese/broccoli-blumenkohl/broccoli-blumenkohl-roeschen/p/4227197</t>
+          <t>/de/lebensmittel/fruechte-gemuese/nuesse-datteln-marroni-und-feigen/baumnuesse-grenoble/p/3090819</t>
         </is>
       </c>
       <c r="D291" t="n">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="E291" t="n">
         <v>4</v>
       </c>
-      <c r="F291" t="inlineStr"/>
+      <c r="F291" t="inlineStr">
+        <is>
+          <t>Coop</t>
+        </is>
+      </c>
       <c r="G291" t="inlineStr">
         <is>
-          <t>3.95</t>
+          <t>3.40</t>
         </is>
       </c>
       <c r="H291" t="inlineStr">
         <is>
-          <t>0.99/100g</t>
+          <t>0.68/100g</t>
         </is>
       </c>
       <c r="I291" t="inlineStr">
@@ -20271,7 +20275,7 @@
       </c>
       <c r="J291" t="inlineStr">
         <is>
-          <t>0.99</t>
+          <t>0.68</t>
         </is>
       </c>
       <c r="K291" t="inlineStr">
@@ -20281,48 +20285,44 @@
       </c>
       <c r="L291" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fruechte-gemuese', 'kohlgemuese', 'broccoli-blumenkohl']</t>
+          <t>['lebensmittel', 'fruechte-gemuese', 'nuesse-datteln-marroni-und-feigen']</t>
         </is>
       </c>
       <c r="M291" t="inlineStr">
         <is>
-          <t>Broccoli- &amp;amp; Blumenkohl-Röschen 3.95 Schweizer Franken</t>
+          <t>Baumnüsse Grenoble 3.40 Schweizer Franken</t>
         </is>
       </c>
       <c r="N291" t="inlineStr"/>
       <c r="O291" t="inlineStr">
         <is>
-          <t>2023-02-02 12:58:48</t>
+          <t>2023-02-02 20:52:01</t>
         </is>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>6638719</t>
+          <t>4227197</t>
         </is>
       </c>
       <c r="B292" t="inlineStr">
         <is>
-          <t>Betty Bossi Hörnlisalat classic</t>
+          <t>Broccoli- &amp;amp; Blumenkohl-Röschen</t>
         </is>
       </c>
       <c r="C292" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fertiggerichte/frische-fertiggerichte/fertigsalate/betty-bossi-hoernlisalat-classic/p/6638719</t>
+          <t>/de/lebensmittel/fruechte-gemuese/kohlgemuese/broccoli-blumenkohl/broccoli-blumenkohl-roeschen/p/4227197</t>
         </is>
       </c>
       <c r="D292" t="n">
         <v>8</v>
       </c>
       <c r="E292" t="n">
-        <v>3</v>
-      </c>
-      <c r="F292" t="inlineStr">
-        <is>
-          <t>Coop</t>
-        </is>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="F292" t="inlineStr"/>
       <c r="G292" t="inlineStr">
         <is>
           <t>3.95</t>
@@ -20330,7 +20330,7 @@
       </c>
       <c r="H292" t="inlineStr">
         <is>
-          <t>1.22/100g</t>
+          <t>0.99/100g</t>
         </is>
       </c>
       <c r="I292" t="inlineStr">
@@ -20340,7 +20340,7 @@
       </c>
       <c r="J292" t="inlineStr">
         <is>
-          <t>1.22</t>
+          <t>0.99</t>
         </is>
       </c>
       <c r="K292" t="inlineStr">
@@ -20350,48 +20350,48 @@
       </c>
       <c r="L292" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fertiggerichte', 'frische-fertiggerichte', 'fertigsalate']</t>
+          <t>['lebensmittel', 'fruechte-gemuese', 'kohlgemuese', 'broccoli-blumenkohl']</t>
         </is>
       </c>
       <c r="M292" t="inlineStr">
         <is>
-          <t>Betty Bossi Hörnlisalat classic 3.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N292" t="inlineStr">
-        <is>
-          <t>['chilled']</t>
-        </is>
-      </c>
+          <t>Broccoli- &amp;amp; Blumenkohl-Röschen 3.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N292" t="inlineStr"/>
       <c r="O292" t="inlineStr">
         <is>
-          <t>2023-02-02 12:58:48</t>
+          <t>2023-02-02 20:52:01</t>
         </is>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>4513438</t>
+          <t>6638719</t>
         </is>
       </c>
       <c r="B293" t="inlineStr">
         <is>
-          <t>Wakame Salat mit Algen</t>
+          <t>Betty Bossi Hörnlisalat classic</t>
         </is>
       </c>
       <c r="C293" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fertiggerichte/frische-fertiggerichte/fertigsalate/wakame-salat-mit-algen/p/4513438</t>
+          <t>/de/lebensmittel/fertiggerichte/frische-fertiggerichte/fertigsalate/betty-bossi-hoernlisalat-classic/p/6638719</t>
         </is>
       </c>
       <c r="D293" t="n">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="E293" t="n">
-        <v>5</v>
-      </c>
-      <c r="F293" t="inlineStr"/>
+        <v>3</v>
+      </c>
+      <c r="F293" t="inlineStr">
+        <is>
+          <t>Coop</t>
+        </is>
+      </c>
       <c r="G293" t="inlineStr">
         <is>
           <t>3.95</t>
@@ -20399,7 +20399,7 @@
       </c>
       <c r="H293" t="inlineStr">
         <is>
-          <t>3.16/100g</t>
+          <t>1.22/100g</t>
         </is>
       </c>
       <c r="I293" t="inlineStr">
@@ -20409,7 +20409,7 @@
       </c>
       <c r="J293" t="inlineStr">
         <is>
-          <t>3.16</t>
+          <t>1.22</t>
         </is>
       </c>
       <c r="K293" t="inlineStr">
@@ -20424,7 +20424,7 @@
       </c>
       <c r="M293" t="inlineStr">
         <is>
-          <t>Wakame Salat mit Algen 3.95 Schweizer Franken</t>
+          <t>Betty Bossi Hörnlisalat classic 3.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N293" t="inlineStr">
@@ -20434,7 +20434,7 @@
       </c>
       <c r="O293" t="inlineStr">
         <is>
-          <t>2023-02-02 12:58:48</t>
+          <t>2023-02-02 20:52:01</t>
         </is>
       </c>
     </row>
@@ -20507,7 +20507,7 @@
       </c>
       <c r="O294" t="inlineStr">
         <is>
-          <t>2023-02-02 12:58:48</t>
+          <t>2023-02-02 20:52:01</t>
         </is>
       </c>
     </row>
@@ -20580,31 +20580,31 @@
       </c>
       <c r="O295" t="inlineStr">
         <is>
-          <t>2023-02-02 12:58:48</t>
+          <t>2023-02-02 20:52:01</t>
         </is>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>4655212</t>
+          <t>6316821</t>
         </is>
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>Betty Bossi Mini Kopfsalat rot</t>
+          <t>Pro Specie Rara Campiuns Schwarzwurzel 500g</t>
         </is>
       </c>
       <c r="C296" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/salate/geschnittene-salate/betty-bossi-mini-kopfsalat-rot/p/4655212</t>
+          <t>/de/lebensmittel/fruechte-gemuese/wurzelgemuese/pro-specie-rara-campiuns-schwarzwurzel/p/6316821</t>
         </is>
       </c>
       <c r="D296" t="n">
-        <v>60</v>
+        <v>13</v>
       </c>
       <c r="E296" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="F296" t="inlineStr">
         <is>
@@ -20613,12 +20613,12 @@
       </c>
       <c r="G296" t="inlineStr">
         <is>
-          <t>3.20</t>
+          <t>4.50</t>
         </is>
       </c>
       <c r="H296" t="inlineStr">
         <is>
-          <t>2.13/100g</t>
+          <t>0.90/100g</t>
         </is>
       </c>
       <c r="I296" t="inlineStr">
@@ -20628,7 +20628,7 @@
       </c>
       <c r="J296" t="inlineStr">
         <is>
-          <t>2.13</t>
+          <t>0.90</t>
         </is>
       </c>
       <c r="K296" t="inlineStr">
@@ -20638,60 +20638,56 @@
       </c>
       <c r="L296" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fruechte-gemuese', 'salate', 'geschnittene-salate']</t>
+          <t>['lebensmittel', 'fruechte-gemuese', 'wurzelgemuese']</t>
         </is>
       </c>
       <c r="M296" t="inlineStr">
         <is>
-          <t>Betty Bossi Mini Kopfsalat rot 3.20 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N296" t="inlineStr">
-        <is>
-          <t>['chilled']</t>
-        </is>
-      </c>
+          <t>Pro Specie Rara Campiuns Schwarzwurzel 500g 4.50 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N296" t="inlineStr"/>
       <c r="O296" t="inlineStr">
         <is>
-          <t>2023-02-02 12:58:48</t>
+          <t>2023-02-02 20:52:01</t>
         </is>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>6466965</t>
+          <t>4655212</t>
         </is>
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>Garden Gourmet vegane Filet-Stückchen</t>
+          <t>Betty Bossi Mini Kopfsalat rot</t>
         </is>
       </c>
       <c r="C297" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fleisch-fisch/the-veggie-chef/gehacktes-geschnetzeltes/garden-gourmet-vegane-filet-stueckchen/p/6466965</t>
+          <t>/de/lebensmittel/fruechte-gemuese/salate/geschnittene-salate/betty-bossi-mini-kopfsalat-rot/p/4655212</t>
         </is>
       </c>
       <c r="D297" t="n">
-        <v>22</v>
+        <v>60</v>
       </c>
       <c r="E297" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F297" t="inlineStr">
         <is>
-          <t>Garden Gourmet</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G297" t="inlineStr">
         <is>
-          <t>4.95</t>
+          <t>3.20</t>
         </is>
       </c>
       <c r="H297" t="inlineStr">
         <is>
-          <t>3.09/100g</t>
+          <t>2.13/100g</t>
         </is>
       </c>
       <c r="I297" t="inlineStr">
@@ -20701,7 +20697,7 @@
       </c>
       <c r="J297" t="inlineStr">
         <is>
-          <t>3.09</t>
+          <t>2.13</t>
         </is>
       </c>
       <c r="K297" t="inlineStr">
@@ -20711,60 +20707,60 @@
       </c>
       <c r="L297" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fleisch-fisch', 'the-veggie-chef', 'gehacktes-geschnetzeltes']</t>
+          <t>['lebensmittel', 'fruechte-gemuese', 'salate', 'geschnittene-salate']</t>
         </is>
       </c>
       <c r="M297" t="inlineStr">
         <is>
-          <t>Garden Gourmet vegane Filet-Stückchen 4.95 Schweizer Franken</t>
+          <t>Betty Bossi Mini Kopfsalat rot 3.20 Schweizer Franken</t>
         </is>
       </c>
       <c r="N297" t="inlineStr">
         <is>
-          <t>['chilled', 'vegan', 'vegetarian']</t>
+          <t>['chilled']</t>
         </is>
       </c>
       <c r="O297" t="inlineStr">
         <is>
-          <t>2023-02-02 12:58:48</t>
+          <t>2023-02-02 20:52:01</t>
         </is>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>6316821</t>
+          <t>6466965</t>
         </is>
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>Pro Specie Rara Campiuns Schwarzwurzel 500g</t>
+          <t>Garden Gourmet vegane Filet-Stückchen</t>
         </is>
       </c>
       <c r="C298" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/wurzelgemuese/pro-specie-rara-campiuns-schwarzwurzel/p/6316821</t>
+          <t>/de/lebensmittel/fleisch-fisch/the-veggie-chef/gehacktes-geschnetzeltes/garden-gourmet-vegane-filet-stueckchen/p/6466965</t>
         </is>
       </c>
       <c r="D298" t="n">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="E298" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="F298" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Garden Gourmet</t>
         </is>
       </c>
       <c r="G298" t="inlineStr">
         <is>
-          <t>4.50</t>
+          <t>4.95</t>
         </is>
       </c>
       <c r="H298" t="inlineStr">
         <is>
-          <t>0.90/100g</t>
+          <t>3.09/100g</t>
         </is>
       </c>
       <c r="I298" t="inlineStr">
@@ -20774,7 +20770,7 @@
       </c>
       <c r="J298" t="inlineStr">
         <is>
-          <t>0.90</t>
+          <t>3.09</t>
         </is>
       </c>
       <c r="K298" t="inlineStr">
@@ -20784,18 +20780,22 @@
       </c>
       <c r="L298" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fruechte-gemuese', 'wurzelgemuese']</t>
+          <t>['lebensmittel', 'fleisch-fisch', 'the-veggie-chef', 'gehacktes-geschnetzeltes']</t>
         </is>
       </c>
       <c r="M298" t="inlineStr">
         <is>
-          <t>Pro Specie Rara Campiuns Schwarzwurzel 500g 4.50 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N298" t="inlineStr"/>
+          <t>Garden Gourmet vegane Filet-Stückchen 4.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N298" t="inlineStr">
+        <is>
+          <t>['chilled', 'vegan', 'vegetarian']</t>
+        </is>
+      </c>
       <c r="O298" t="inlineStr">
         <is>
-          <t>2023-02-02 12:58:48</t>
+          <t>2023-02-02 20:52:01</t>
         </is>
       </c>
     </row>
@@ -20864,7 +20864,7 @@
       <c r="N299" t="inlineStr"/>
       <c r="O299" t="inlineStr">
         <is>
-          <t>2023-02-02 12:58:48</t>
+          <t>2023-02-02 20:52:01</t>
         </is>
       </c>
     </row>
@@ -20931,7 +20931,7 @@
       <c r="N300" t="inlineStr"/>
       <c r="O300" t="inlineStr">
         <is>
-          <t>2023-02-02 12:58:48</t>
+          <t>2023-02-02 20:52:01</t>
         </is>
       </c>
     </row>
@@ -20996,7 +20996,7 @@
       <c r="N301" t="inlineStr"/>
       <c r="O301" t="inlineStr">
         <is>
-          <t>2023-02-02 12:58:48</t>
+          <t>2023-02-02 20:52:01</t>
         </is>
       </c>
     </row>
@@ -21069,7 +21069,7 @@
       </c>
       <c r="O302" t="inlineStr">
         <is>
-          <t>2023-02-02 12:58:48</t>
+          <t>2023-02-02 20:52:01</t>
         </is>
       </c>
     </row>
@@ -21142,7 +21142,7 @@
       </c>
       <c r="O303" t="inlineStr">
         <is>
-          <t>2023-02-02 12:58:48</t>
+          <t>2023-02-02 20:52:01</t>
         </is>
       </c>
     </row>
@@ -21215,7 +21215,7 @@
       </c>
       <c r="O304" t="inlineStr">
         <is>
-          <t>2023-02-02 12:58:48</t>
+          <t>2023-02-02 20:52:01</t>
         </is>
       </c>
     </row>
@@ -21288,7 +21288,7 @@
       </c>
       <c r="O305" t="inlineStr">
         <is>
-          <t>2023-02-02 12:58:48</t>
+          <t>2023-02-02 20:52:01</t>
         </is>
       </c>
     </row>
@@ -21361,41 +21361,45 @@
       </c>
       <c r="O306" t="inlineStr">
         <is>
-          <t>2023-02-02 12:58:48</t>
+          <t>2023-02-02 20:52:01</t>
         </is>
       </c>
     </row>
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
-          <t>7060571</t>
+          <t>5987849</t>
         </is>
       </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t>Swiss Cherry Rispen-Tomaten</t>
+          <t>Betty Bossi Gartensalat mit Kräuter</t>
         </is>
       </c>
       <c r="C307" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/salatgemuese/tomaten/swiss-cherry-rispen-tomaten/p/7060571</t>
+          <t>/de/lebensmittel/fruechte-gemuese/salate/geschnittene-salate/betty-bossi-gartensalat-mit-kraeuter/p/5987849</t>
         </is>
       </c>
       <c r="D307" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E307" t="n">
-        <v>5</v>
-      </c>
-      <c r="F307" t="inlineStr"/>
+        <v>4</v>
+      </c>
+      <c r="F307" t="inlineStr">
+        <is>
+          <t>Coop</t>
+        </is>
+      </c>
       <c r="G307" t="inlineStr">
         <is>
-          <t>4.95</t>
+          <t>3.95</t>
         </is>
       </c>
       <c r="H307" t="inlineStr">
         <is>
-          <t>1.65/100g</t>
+          <t>1.98/100g</t>
         </is>
       </c>
       <c r="I307" t="inlineStr">
@@ -21405,7 +21409,7 @@
       </c>
       <c r="J307" t="inlineStr">
         <is>
-          <t>1.65</t>
+          <t>1.98</t>
         </is>
       </c>
       <c r="K307" t="inlineStr">
@@ -21415,56 +21419,56 @@
       </c>
       <c r="L307" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fruechte-gemuese', 'salatgemuese', 'tomaten']</t>
+          <t>['lebensmittel', 'fruechte-gemuese', 'salate', 'geschnittene-salate']</t>
         </is>
       </c>
       <c r="M307" t="inlineStr">
         <is>
-          <t>Swiss Cherry Rispen-Tomaten 4.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N307" t="inlineStr"/>
+          <t>Betty Bossi Gartensalat mit Kräuter 3.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N307" t="inlineStr">
+        <is>
+          <t>['chilled']</t>
+        </is>
+      </c>
       <c r="O307" t="inlineStr">
         <is>
-          <t>2023-02-02 12:58:48</t>
+          <t>2023-02-02 20:52:01</t>
         </is>
       </c>
     </row>
     <row r="308">
       <c r="A308" t="inlineStr">
         <is>
-          <t>5987849</t>
+          <t>7060571</t>
         </is>
       </c>
       <c r="B308" t="inlineStr">
         <is>
-          <t>Betty Bossi Gartensalat mit Kräuter</t>
+          <t>Swiss Cherry Rispen-Tomaten</t>
         </is>
       </c>
       <c r="C308" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/salate/geschnittene-salate/betty-bossi-gartensalat-mit-kraeuter/p/5987849</t>
+          <t>/de/lebensmittel/fruechte-gemuese/salatgemuese/tomaten/swiss-cherry-rispen-tomaten/p/7060571</t>
         </is>
       </c>
       <c r="D308" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E308" t="n">
-        <v>4</v>
-      </c>
-      <c r="F308" t="inlineStr">
-        <is>
-          <t>Coop</t>
-        </is>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="F308" t="inlineStr"/>
       <c r="G308" t="inlineStr">
         <is>
-          <t>3.95</t>
+          <t>4.95</t>
         </is>
       </c>
       <c r="H308" t="inlineStr">
         <is>
-          <t>1.98/100g</t>
+          <t>1.65/100g</t>
         </is>
       </c>
       <c r="I308" t="inlineStr">
@@ -21474,7 +21478,7 @@
       </c>
       <c r="J308" t="inlineStr">
         <is>
-          <t>1.98</t>
+          <t>1.65</t>
         </is>
       </c>
       <c r="K308" t="inlineStr">
@@ -21484,22 +21488,18 @@
       </c>
       <c r="L308" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fruechte-gemuese', 'salate', 'geschnittene-salate']</t>
+          <t>['lebensmittel', 'fruechte-gemuese', 'salatgemuese', 'tomaten']</t>
         </is>
       </c>
       <c r="M308" t="inlineStr">
         <is>
-          <t>Betty Bossi Gartensalat mit Kräuter 3.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N308" t="inlineStr">
-        <is>
-          <t>['chilled']</t>
-        </is>
-      </c>
+          <t>Swiss Cherry Rispen-Tomaten 4.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N308" t="inlineStr"/>
       <c r="O308" t="inlineStr">
         <is>
-          <t>2023-02-02 12:58:48</t>
+          <t>2023-02-02 20:52:01</t>
         </is>
       </c>
     </row>
@@ -21564,141 +21564,141 @@
       <c r="N309" t="inlineStr"/>
       <c r="O309" t="inlineStr">
         <is>
-          <t>2023-02-02 12:58:48</t>
+          <t>2023-02-02 20:52:01</t>
         </is>
       </c>
     </row>
     <row r="310">
       <c r="A310" t="inlineStr">
         <is>
-          <t>3819149</t>
+          <t>4069878</t>
         </is>
       </c>
       <c r="B310" t="inlineStr">
         <is>
-          <t>Tomaten Fragolino</t>
+          <t>Fairtrade Kokosnuss 1 Stück</t>
         </is>
       </c>
       <c r="C310" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/salatgemuese/tomaten/tomaten-fragolino/p/3819149</t>
+          <t>/de/lebensmittel/fruechte-gemuese/fruechte/weitere-exotische-fruechte/fairtrade-kokosnuss-1-stueck/p/4069878</t>
         </is>
       </c>
       <c r="D310" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E310" t="n">
-        <v>5</v>
-      </c>
-      <c r="F310" t="inlineStr"/>
+        <v>2.5</v>
+      </c>
+      <c r="F310" t="inlineStr">
+        <is>
+          <t>Coop</t>
+        </is>
+      </c>
       <c r="G310" t="inlineStr">
         <is>
-          <t>3.95</t>
+          <t>1.80</t>
         </is>
       </c>
       <c r="H310" t="inlineStr">
         <is>
-          <t>1.58/100g</t>
+          <t>1.80/1ST</t>
         </is>
       </c>
       <c r="I310" t="inlineStr">
         <is>
-          <t>Preis pro 100 Gramm</t>
+          <t>Preis pro 1 Stück</t>
         </is>
       </c>
       <c r="J310" t="inlineStr">
         <is>
-          <t>1.58</t>
+          <t>1.80</t>
         </is>
       </c>
       <c r="K310" t="inlineStr">
         <is>
-          <t>100g</t>
+          <t>1ST</t>
         </is>
       </c>
       <c r="L310" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fruechte-gemuese', 'salatgemuese', 'tomaten']</t>
+          <t>['lebensmittel', 'fruechte-gemuese', 'fruechte', 'weitere-exotische-fruechte']</t>
         </is>
       </c>
       <c r="M310" t="inlineStr">
         <is>
-          <t>Tomaten Fragolino 3.95 Schweizer Franken</t>
+          <t>Fairtrade Kokosnuss 1 Stück 1.80 Schweizer Franken</t>
         </is>
       </c>
       <c r="N310" t="inlineStr"/>
       <c r="O310" t="inlineStr">
         <is>
-          <t>2023-02-02 12:58:48</t>
+          <t>2023-02-02 20:52:01</t>
         </is>
       </c>
     </row>
     <row r="311">
       <c r="A311" t="inlineStr">
         <is>
-          <t>4069878</t>
+          <t>3819149</t>
         </is>
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>Fairtrade Kokosnuss 1 Stück</t>
+          <t>Tomaten Fragolino</t>
         </is>
       </c>
       <c r="C311" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/fruechte/weitere-exotische-fruechte/fairtrade-kokosnuss-1-stueck/p/4069878</t>
+          <t>/de/lebensmittel/fruechte-gemuese/salatgemuese/tomaten/tomaten-fragolino/p/3819149</t>
         </is>
       </c>
       <c r="D311" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="E311" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="F311" t="inlineStr">
-        <is>
-          <t>Coop</t>
-        </is>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="F311" t="inlineStr"/>
       <c r="G311" t="inlineStr">
         <is>
-          <t>1.80</t>
+          <t>3.95</t>
         </is>
       </c>
       <c r="H311" t="inlineStr">
         <is>
-          <t>1.80/1ST</t>
+          <t>1.58/100g</t>
         </is>
       </c>
       <c r="I311" t="inlineStr">
         <is>
-          <t>Preis pro 1 Stück</t>
+          <t>Preis pro 100 Gramm</t>
         </is>
       </c>
       <c r="J311" t="inlineStr">
         <is>
-          <t>1.80</t>
+          <t>1.58</t>
         </is>
       </c>
       <c r="K311" t="inlineStr">
         <is>
-          <t>1ST</t>
+          <t>100g</t>
         </is>
       </c>
       <c r="L311" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fruechte-gemuese', 'fruechte', 'weitere-exotische-fruechte']</t>
+          <t>['lebensmittel', 'fruechte-gemuese', 'salatgemuese', 'tomaten']</t>
         </is>
       </c>
       <c r="M311" t="inlineStr">
         <is>
-          <t>Fairtrade Kokosnuss 1 Stück 1.80 Schweizer Franken</t>
+          <t>Tomaten Fragolino 3.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N311" t="inlineStr"/>
       <c r="O311" t="inlineStr">
         <is>
-          <t>2023-02-02 12:58:48</t>
+          <t>2023-02-02 20:52:01</t>
         </is>
       </c>
     </row>
@@ -21771,31 +21771,31 @@
       </c>
       <c r="O312" t="inlineStr">
         <is>
-          <t>2023-02-02 12:58:48</t>
+          <t>2023-02-02 20:52:01</t>
         </is>
       </c>
     </row>
     <row r="313">
       <c r="A313" t="inlineStr">
         <is>
-          <t>6649018</t>
+          <t>5982896</t>
         </is>
       </c>
       <c r="B313" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Quinoa &amp;amp; Süsskartoffel</t>
+          <t>Betty Bossi Fairtrade Früchte Mix</t>
         </is>
       </c>
       <c r="C313" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fertiggerichte/frische-fertiggerichte/fertigsalate/naturaplan-bio-quinoa-suesskartoffel/p/6649018</t>
+          <t>/de/lebensmittel/fruechte-gemuese/fruechte/ananas-mangos/betty-bossi-fairtrade-fruechte-mix/p/5982896</t>
         </is>
       </c>
       <c r="D313" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E313" t="n">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="F313" t="inlineStr">
         <is>
@@ -21804,12 +21804,12 @@
       </c>
       <c r="G313" t="inlineStr">
         <is>
-          <t>5.20</t>
+          <t>3.80</t>
         </is>
       </c>
       <c r="H313" t="inlineStr">
         <is>
-          <t>2.89/100g</t>
+          <t>2.53/100g</t>
         </is>
       </c>
       <c r="I313" t="inlineStr">
@@ -21819,7 +21819,7 @@
       </c>
       <c r="J313" t="inlineStr">
         <is>
-          <t>2.89</t>
+          <t>2.53</t>
         </is>
       </c>
       <c r="K313" t="inlineStr">
@@ -21829,47 +21829,47 @@
       </c>
       <c r="L313" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fertiggerichte', 'frische-fertiggerichte', 'fertigsalate']</t>
+          <t>['lebensmittel', 'fruechte-gemuese', 'fruechte', 'ananas-mangos']</t>
         </is>
       </c>
       <c r="M313" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Quinoa &amp;amp; Süsskartoffel 5.20 Schweizer Franken</t>
+          <t>Betty Bossi Fairtrade Früchte Mix 3.80 Schweizer Franken</t>
         </is>
       </c>
       <c r="N313" t="inlineStr">
         <is>
-          <t>['chilled', 'vegan', 'vegetarian']</t>
+          <t>['chilled']</t>
         </is>
       </c>
       <c r="O313" t="inlineStr">
         <is>
-          <t>2023-02-02 12:58:48</t>
+          <t>2023-02-02 20:52:01</t>
         </is>
       </c>
     </row>
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t>5982896</t>
+          <t>6649018</t>
         </is>
       </c>
       <c r="B314" t="inlineStr">
         <is>
-          <t>Betty Bossi Fairtrade Früchte Mix</t>
+          <t>Naturaplan Bio Quinoa &amp;amp; Süsskartoffel</t>
         </is>
       </c>
       <c r="C314" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/fruechte/ananas-mangos/betty-bossi-fairtrade-fruechte-mix/p/5982896</t>
+          <t>/de/lebensmittel/fertiggerichte/frische-fertiggerichte/fertigsalate/naturaplan-bio-quinoa-suesskartoffel/p/6649018</t>
         </is>
       </c>
       <c r="D314" t="n">
+        <v>5</v>
+      </c>
+      <c r="E314" t="n">
         <v>3</v>
       </c>
-      <c r="E314" t="n">
-        <v>3.5</v>
-      </c>
       <c r="F314" t="inlineStr">
         <is>
           <t>Coop</t>
@@ -21877,12 +21877,12 @@
       </c>
       <c r="G314" t="inlineStr">
         <is>
-          <t>3.80</t>
+          <t>5.20</t>
         </is>
       </c>
       <c r="H314" t="inlineStr">
         <is>
-          <t>2.53/100g</t>
+          <t>2.89/100g</t>
         </is>
       </c>
       <c r="I314" t="inlineStr">
@@ -21892,7 +21892,7 @@
       </c>
       <c r="J314" t="inlineStr">
         <is>
-          <t>2.53</t>
+          <t>2.89</t>
         </is>
       </c>
       <c r="K314" t="inlineStr">
@@ -21902,22 +21902,22 @@
       </c>
       <c r="L314" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fruechte-gemuese', 'fruechte', 'ananas-mangos']</t>
+          <t>['lebensmittel', 'fertiggerichte', 'frische-fertiggerichte', 'fertigsalate']</t>
         </is>
       </c>
       <c r="M314" t="inlineStr">
         <is>
-          <t>Betty Bossi Fairtrade Früchte Mix 3.80 Schweizer Franken</t>
+          <t>Naturaplan Bio Quinoa &amp;amp; Süsskartoffel 5.20 Schweizer Franken</t>
         </is>
       </c>
       <c r="N314" t="inlineStr">
         <is>
-          <t>['chilled']</t>
+          <t>['chilled', 'vegan', 'vegetarian']</t>
         </is>
       </c>
       <c r="O314" t="inlineStr">
         <is>
-          <t>2023-02-02 12:58:48</t>
+          <t>2023-02-02 20:52:01</t>
         </is>
       </c>
     </row>
@@ -21990,7 +21990,7 @@
       </c>
       <c r="O315" t="inlineStr">
         <is>
-          <t>2023-02-02 12:58:48</t>
+          <t>2023-02-02 20:52:01</t>
         </is>
       </c>
     </row>
@@ -22063,7 +22063,7 @@
       </c>
       <c r="O316" t="inlineStr">
         <is>
-          <t>2023-02-02 12:58:48</t>
+          <t>2023-02-02 20:52:01</t>
         </is>
       </c>
     </row>
@@ -22136,7 +22136,7 @@
       </c>
       <c r="O317" t="inlineStr">
         <is>
-          <t>2023-02-02 12:58:48</t>
+          <t>2023-02-02 20:52:01</t>
         </is>
       </c>
     </row>
@@ -22209,7 +22209,7 @@
       </c>
       <c r="O318" t="inlineStr">
         <is>
-          <t>2023-02-02 12:58:48</t>
+          <t>2023-02-02 20:52:01</t>
         </is>
       </c>
     </row>
@@ -22282,7 +22282,7 @@
       </c>
       <c r="O319" t="inlineStr">
         <is>
-          <t>2023-02-02 12:58:48</t>
+          <t>2023-02-02 20:52:01</t>
         </is>
       </c>
     </row>
@@ -22355,7 +22355,7 @@
       </c>
       <c r="O320" t="inlineStr">
         <is>
-          <t>2023-02-02 12:58:48</t>
+          <t>2023-02-02 20:52:01</t>
         </is>
       </c>
     </row>
@@ -22428,7 +22428,7 @@
       </c>
       <c r="O321" t="inlineStr">
         <is>
-          <t>2023-02-02 12:58:48</t>
+          <t>2023-02-02 20:52:01</t>
         </is>
       </c>
     </row>
@@ -22497,7 +22497,7 @@
       <c r="N322" t="inlineStr"/>
       <c r="O322" t="inlineStr">
         <is>
-          <t>2023-02-02 12:58:48</t>
+          <t>2023-02-02 20:52:01</t>
         </is>
       </c>
     </row>
@@ -22570,7 +22570,7 @@
       </c>
       <c r="O323" t="inlineStr">
         <is>
-          <t>2023-02-02 12:58:48</t>
+          <t>2023-02-02 20:52:01</t>
         </is>
       </c>
     </row>
@@ -22637,7 +22637,7 @@
       <c r="N324" t="inlineStr"/>
       <c r="O324" t="inlineStr">
         <is>
-          <t>2023-02-02 12:58:48</t>
+          <t>2023-02-02 20:52:01</t>
         </is>
       </c>
     </row>
@@ -22710,181 +22710,185 @@
       </c>
       <c r="O325" t="inlineStr">
         <is>
-          <t>2023-02-02 12:58:48</t>
+          <t>2023-02-02 20:52:01</t>
         </is>
       </c>
     </row>
     <row r="326">
       <c r="A326" t="inlineStr">
         <is>
-          <t>5766628</t>
+          <t>7048923</t>
         </is>
       </c>
       <c r="B326" t="inlineStr">
         <is>
-          <t>Primagusto Blutorangen ca. 1kg</t>
+          <t>Garden Gourmet Sensational Schnitzel</t>
         </is>
       </c>
       <c r="C326" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/fruechte/zitrusfruechte/primagusto-blutorangen-ca/p/5766628</t>
-        </is>
-      </c>
-      <c r="D326" t="inlineStr"/>
+          <t>/de/lebensmittel/fleisch-fisch/the-veggie-chef/schnitzel-nuggets/garden-gourmet-sensational-schnitzel/p/7048923</t>
+        </is>
+      </c>
+      <c r="D326" t="n">
+        <v>17</v>
+      </c>
       <c r="E326" t="n">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="F326" t="inlineStr">
         <is>
-          <t>Primagusto</t>
+          <t>Garden Gourmet</t>
         </is>
       </c>
       <c r="G326" t="inlineStr">
         <is>
-          <t>4.95</t>
+          <t>6.95</t>
         </is>
       </c>
       <c r="H326" t="inlineStr">
         <is>
-          <t>4.95/1kg</t>
+          <t>3.86/100g</t>
         </is>
       </c>
       <c r="I326" t="inlineStr">
         <is>
-          <t>Preis pro 1 Kilogramm</t>
+          <t>Preis pro 100 Gramm</t>
         </is>
       </c>
       <c r="J326" t="inlineStr">
         <is>
-          <t>4.95</t>
+          <t>3.86</t>
         </is>
       </c>
       <c r="K326" t="inlineStr">
         <is>
-          <t>1kg</t>
+          <t>100g</t>
         </is>
       </c>
       <c r="L326" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fruechte-gemuese', 'fruechte', 'zitrusfruechte']</t>
+          <t>['lebensmittel', 'fleisch-fisch', 'the-veggie-chef', 'schnitzel-nuggets']</t>
         </is>
       </c>
       <c r="M326" t="inlineStr">
         <is>
-          <t>Primagusto Blutorangen ca. 1kg 4.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N326" t="inlineStr"/>
+          <t>Garden Gourmet Sensational Schnitzel 6.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N326" t="inlineStr">
+        <is>
+          <t>['chilled', 'vegan', 'vegetarian']</t>
+        </is>
+      </c>
       <c r="O326" t="inlineStr">
         <is>
-          <t>2023-02-02 12:58:48</t>
+          <t>2023-02-02 20:52:01</t>
         </is>
       </c>
     </row>
     <row r="327">
       <c r="A327" t="inlineStr">
         <is>
-          <t>3896517</t>
+          <t>5766628</t>
         </is>
       </c>
       <c r="B327" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Peperoni rot ca. 500g</t>
+          <t>Primagusto Blutorangen ca. 1kg</t>
         </is>
       </c>
       <c r="C327" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/salatgemuese/peperoni/naturaplan-bio-peperoni-rot-ca/p/3896517</t>
-        </is>
-      </c>
-      <c r="D327" t="n">
-        <v>3</v>
-      </c>
+          <t>/de/lebensmittel/fruechte-gemuese/fruechte/zitrusfruechte/primagusto-blutorangen-ca/p/5766628</t>
+        </is>
+      </c>
+      <c r="D327" t="inlineStr"/>
       <c r="E327" t="n">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="F327" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Primagusto</t>
         </is>
       </c>
       <c r="G327" t="inlineStr">
         <is>
-          <t>3.00</t>
+          <t>4.95</t>
         </is>
       </c>
       <c r="H327" t="inlineStr">
         <is>
-          <t>0.60/100g</t>
+          <t>4.95/1kg</t>
         </is>
       </c>
       <c r="I327" t="inlineStr">
         <is>
-          <t>Preis pro 100 Gramm</t>
+          <t>Preis pro 1 Kilogramm</t>
         </is>
       </c>
       <c r="J327" t="inlineStr">
         <is>
-          <t>0.60</t>
+          <t>4.95</t>
         </is>
       </c>
       <c r="K327" t="inlineStr">
         <is>
-          <t>100g</t>
+          <t>1kg</t>
         </is>
       </c>
       <c r="L327" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fruechte-gemuese', 'salatgemuese', 'peperoni']</t>
+          <t>['lebensmittel', 'fruechte-gemuese', 'fruechte', 'zitrusfruechte']</t>
         </is>
       </c>
       <c r="M327" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Peperoni rot ca. 500g 3.00 Schweizer Franken</t>
+          <t>Primagusto Blutorangen ca. 1kg 4.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N327" t="inlineStr"/>
       <c r="O327" t="inlineStr">
         <is>
-          <t>2023-02-02 12:58:48</t>
+          <t>2023-02-02 20:52:01</t>
         </is>
       </c>
     </row>
     <row r="328">
       <c r="A328" t="inlineStr">
         <is>
-          <t>7048923</t>
+          <t>3896517</t>
         </is>
       </c>
       <c r="B328" t="inlineStr">
         <is>
-          <t>Garden Gourmet Sensational Schnitzel</t>
+          <t>Naturaplan Bio Peperoni rot ca. 500g</t>
         </is>
       </c>
       <c r="C328" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fleisch-fisch/the-veggie-chef/schnitzel-nuggets/garden-gourmet-sensational-schnitzel/p/7048923</t>
+          <t>/de/lebensmittel/fruechte-gemuese/salatgemuese/peperoni/naturaplan-bio-peperoni-rot-ca/p/3896517</t>
         </is>
       </c>
       <c r="D328" t="n">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="E328" t="n">
-        <v>4.5</v>
+        <v>1.5</v>
       </c>
       <c r="F328" t="inlineStr">
         <is>
-          <t>Garden Gourmet</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G328" t="inlineStr">
         <is>
-          <t>6.95</t>
+          <t>3.00</t>
         </is>
       </c>
       <c r="H328" t="inlineStr">
         <is>
-          <t>3.86/100g</t>
+          <t>0.60/100g</t>
         </is>
       </c>
       <c r="I328" t="inlineStr">
@@ -22894,7 +22898,7 @@
       </c>
       <c r="J328" t="inlineStr">
         <is>
-          <t>3.86</t>
+          <t>0.60</t>
         </is>
       </c>
       <c r="K328" t="inlineStr">
@@ -22904,22 +22908,18 @@
       </c>
       <c r="L328" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fleisch-fisch', 'the-veggie-chef', 'schnitzel-nuggets']</t>
+          <t>['lebensmittel', 'fruechte-gemuese', 'salatgemuese', 'peperoni']</t>
         </is>
       </c>
       <c r="M328" t="inlineStr">
         <is>
-          <t>Garden Gourmet Sensational Schnitzel 6.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N328" t="inlineStr">
-        <is>
-          <t>['chilled', 'vegan', 'vegetarian']</t>
-        </is>
-      </c>
+          <t>Naturaplan Bio Peperoni rot ca. 500g 3.00 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N328" t="inlineStr"/>
       <c r="O328" t="inlineStr">
         <is>
-          <t>2023-02-02 12:58:48</t>
+          <t>2023-02-02 20:52:01</t>
         </is>
       </c>
     </row>
@@ -22984,7 +22984,7 @@
       <c r="N329" t="inlineStr"/>
       <c r="O329" t="inlineStr">
         <is>
-          <t>2023-02-02 12:58:48</t>
+          <t>2023-02-02 20:52:01</t>
         </is>
       </c>
     </row>
@@ -23053,45 +23053,45 @@
       <c r="N330" t="inlineStr"/>
       <c r="O330" t="inlineStr">
         <is>
-          <t>2023-02-02 12:58:48</t>
+          <t>2023-02-02 20:52:01</t>
         </is>
       </c>
     </row>
     <row r="331">
       <c r="A331" t="inlineStr">
         <is>
-          <t>6814802</t>
+          <t>6810662</t>
         </is>
       </c>
       <c r="B331" t="inlineStr">
         <is>
-          <t>The Green Mountain plant-based Aufschnitt</t>
+          <t>Yolo Cold Slices Red Pepper</t>
         </is>
       </c>
       <c r="C331" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fleisch-fisch/the-veggie-chef/cold-cuts/the-green-mountain-plant-based-aufschnitt/p/6814802</t>
+          <t>/de/lebensmittel/fleisch-fisch/the-veggie-chef/cold-cuts/yolo-cold-slices-red-pepper/p/6810662</t>
         </is>
       </c>
       <c r="D331" t="n">
         <v>9</v>
       </c>
       <c r="E331" t="n">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="F331" t="inlineStr">
         <is>
-          <t>The GREEN MOUNTAIN</t>
+          <t>Yolo</t>
         </is>
       </c>
       <c r="G331" t="inlineStr">
         <is>
-          <t>4.95</t>
+          <t>2.95</t>
         </is>
       </c>
       <c r="H331" t="inlineStr">
         <is>
-          <t>4.95/100g</t>
+          <t>3.69/100g</t>
         </is>
       </c>
       <c r="I331" t="inlineStr">
@@ -23101,7 +23101,7 @@
       </c>
       <c r="J331" t="inlineStr">
         <is>
-          <t>4.95</t>
+          <t>3.69</t>
         </is>
       </c>
       <c r="K331" t="inlineStr">
@@ -23116,7 +23116,7 @@
       </c>
       <c r="M331" t="inlineStr">
         <is>
-          <t>The Green Mountain plant-based Aufschnitt 4.95 Schweizer Franken</t>
+          <t>Yolo Cold Slices Red Pepper 2.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N331" t="inlineStr">
@@ -23126,45 +23126,45 @@
       </c>
       <c r="O331" t="inlineStr">
         <is>
-          <t>2023-02-02 12:58:48</t>
+          <t>2023-02-02 20:52:01</t>
         </is>
       </c>
     </row>
     <row r="332">
       <c r="A332" t="inlineStr">
         <is>
-          <t>6810662</t>
+          <t>6814802</t>
         </is>
       </c>
       <c r="B332" t="inlineStr">
         <is>
-          <t>Yolo Cold Slices Red Pepper</t>
+          <t>The Green Mountain plant-based Aufschnitt</t>
         </is>
       </c>
       <c r="C332" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fleisch-fisch/the-veggie-chef/cold-cuts/yolo-cold-slices-red-pepper/p/6810662</t>
+          <t>/de/lebensmittel/fleisch-fisch/the-veggie-chef/cold-cuts/the-green-mountain-plant-based-aufschnitt/p/6814802</t>
         </is>
       </c>
       <c r="D332" t="n">
         <v>9</v>
       </c>
       <c r="E332" t="n">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="F332" t="inlineStr">
         <is>
-          <t>Yolo</t>
+          <t>The GREEN MOUNTAIN</t>
         </is>
       </c>
       <c r="G332" t="inlineStr">
         <is>
-          <t>2.95</t>
+          <t>4.95</t>
         </is>
       </c>
       <c r="H332" t="inlineStr">
         <is>
-          <t>3.69/100g</t>
+          <t>4.95/100g</t>
         </is>
       </c>
       <c r="I332" t="inlineStr">
@@ -23174,7 +23174,7 @@
       </c>
       <c r="J332" t="inlineStr">
         <is>
-          <t>3.69</t>
+          <t>4.95</t>
         </is>
       </c>
       <c r="K332" t="inlineStr">
@@ -23189,7 +23189,7 @@
       </c>
       <c r="M332" t="inlineStr">
         <is>
-          <t>Yolo Cold Slices Red Pepper 2.95 Schweizer Franken</t>
+          <t>The Green Mountain plant-based Aufschnitt 4.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N332" t="inlineStr">
@@ -23199,7 +23199,7 @@
       </c>
       <c r="O332" t="inlineStr">
         <is>
-          <t>2023-02-02 12:58:48</t>
+          <t>2023-02-02 20:52:01</t>
         </is>
       </c>
     </row>
@@ -23272,7 +23272,7 @@
       </c>
       <c r="O333" t="inlineStr">
         <is>
-          <t>2023-02-02 12:58:48</t>
+          <t>2023-02-02 20:52:01</t>
         </is>
       </c>
     </row>
@@ -23345,7 +23345,7 @@
       </c>
       <c r="O334" t="inlineStr">
         <is>
-          <t>2023-02-02 12:58:48</t>
+          <t>2023-02-02 20:52:01</t>
         </is>
       </c>
     </row>
@@ -23418,31 +23418,31 @@
       </c>
       <c r="O335" t="inlineStr">
         <is>
-          <t>2023-02-02 12:58:48</t>
+          <t>2023-02-02 20:52:01</t>
         </is>
       </c>
     </row>
     <row r="336">
       <c r="A336" t="inlineStr">
         <is>
-          <t>6638599</t>
+          <t>6143544</t>
         </is>
       </c>
       <c r="B336" t="inlineStr">
         <is>
-          <t>Betty Bossi Taboulé Salat</t>
+          <t>Naturaplan Bio Betty Bossi Kürbis-Würfel Hokkaido</t>
         </is>
       </c>
       <c r="C336" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fertiggerichte/frische-fertiggerichte/fertigsalate/betty-bossi-taboule-salat/p/6638599</t>
+          <t>/de/lebensmittel/fruechte-gemuese/weiteres-gemuese/pfannenfertiges-gemuese/naturaplan-bio-betty-bossi-kuerbis-wuerfel-hokkaido/p/6143544</t>
         </is>
       </c>
       <c r="D336" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E336" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="F336" t="inlineStr">
         <is>
@@ -23451,12 +23451,12 @@
       </c>
       <c r="G336" t="inlineStr">
         <is>
-          <t>5.20</t>
+          <t>5.70</t>
         </is>
       </c>
       <c r="H336" t="inlineStr">
         <is>
-          <t>2.00/100g</t>
+          <t>1.43/100g</t>
         </is>
       </c>
       <c r="I336" t="inlineStr">
@@ -23466,7 +23466,7 @@
       </c>
       <c r="J336" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>1.43</t>
         </is>
       </c>
       <c r="K336" t="inlineStr">
@@ -23476,46 +23476,46 @@
       </c>
       <c r="L336" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fertiggerichte', 'frische-fertiggerichte', 'fertigsalate']</t>
+          <t>['lebensmittel', 'fruechte-gemuese', 'weiteres-gemuese', 'pfannenfertiges-gemuese']</t>
         </is>
       </c>
       <c r="M336" t="inlineStr">
         <is>
-          <t>Betty Bossi Taboulé Salat 5.20 Schweizer Franken</t>
+          <t>Naturaplan Bio Betty Bossi Kürbis-Würfel Hokkaido 5.70 Schweizer Franken</t>
         </is>
       </c>
       <c r="N336" t="inlineStr">
         <is>
-          <t>['chilled', 'vegan', 'vegetarian']</t>
+          <t>['chilled']</t>
         </is>
       </c>
       <c r="O336" t="inlineStr">
         <is>
-          <t>2023-02-02 12:58:48</t>
+          <t>2023-02-02 20:52:01</t>
         </is>
       </c>
     </row>
     <row r="337">
       <c r="A337" t="inlineStr">
         <is>
-          <t>6143544</t>
+          <t>6638599</t>
         </is>
       </c>
       <c r="B337" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Betty Bossi Kürbis-Würfel Hokkaido</t>
+          <t>Betty Bossi Taboulé Salat</t>
         </is>
       </c>
       <c r="C337" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/weiteres-gemuese/pfannenfertiges-gemuese/naturaplan-bio-betty-bossi-kuerbis-wuerfel-hokkaido/p/6143544</t>
+          <t>/de/lebensmittel/fertiggerichte/frische-fertiggerichte/fertigsalate/betty-bossi-taboule-salat/p/6638599</t>
         </is>
       </c>
       <c r="D337" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E337" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="F337" t="inlineStr">
         <is>
@@ -23524,12 +23524,12 @@
       </c>
       <c r="G337" t="inlineStr">
         <is>
-          <t>5.70</t>
+          <t>5.20</t>
         </is>
       </c>
       <c r="H337" t="inlineStr">
         <is>
-          <t>1.43/100g</t>
+          <t>2.00/100g</t>
         </is>
       </c>
       <c r="I337" t="inlineStr">
@@ -23539,7 +23539,7 @@
       </c>
       <c r="J337" t="inlineStr">
         <is>
-          <t>1.43</t>
+          <t>2.00</t>
         </is>
       </c>
       <c r="K337" t="inlineStr">
@@ -23549,46 +23549,46 @@
       </c>
       <c r="L337" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fruechte-gemuese', 'weiteres-gemuese', 'pfannenfertiges-gemuese']</t>
+          <t>['lebensmittel', 'fertiggerichte', 'frische-fertiggerichte', 'fertigsalate']</t>
         </is>
       </c>
       <c r="M337" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Betty Bossi Kürbis-Würfel Hokkaido 5.70 Schweizer Franken</t>
+          <t>Betty Bossi Taboulé Salat 5.20 Schweizer Franken</t>
         </is>
       </c>
       <c r="N337" t="inlineStr">
         <is>
-          <t>['chilled']</t>
+          <t>['chilled', 'vegan', 'vegetarian']</t>
         </is>
       </c>
       <c r="O337" t="inlineStr">
         <is>
-          <t>2023-02-02 12:58:48</t>
+          <t>2023-02-02 20:52:01</t>
         </is>
       </c>
     </row>
     <row r="338">
       <c r="A338" t="inlineStr">
         <is>
-          <t>6999612</t>
+          <t>4542971</t>
         </is>
       </c>
       <c r="B338" t="inlineStr">
         <is>
-          <t>Betty Bossi Poulet Currysalat</t>
+          <t>Betty Bossi Kürbis-Würfel</t>
         </is>
       </c>
       <c r="C338" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fertiggerichte/frische-fertiggerichte/fertigsalate/betty-bossi-poulet-currysalat/p/6999612</t>
+          <t>/de/lebensmittel/fruechte-gemuese/weiteres-gemuese/pfannenfertiges-gemuese/betty-bossi-kuerbis-wuerfel/p/4542971</t>
         </is>
       </c>
       <c r="D338" t="n">
-        <v>4</v>
+        <v>26</v>
       </c>
       <c r="E338" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="F338" t="inlineStr">
         <is>
@@ -23597,12 +23597,12 @@
       </c>
       <c r="G338" t="inlineStr">
         <is>
-          <t>5.20</t>
+          <t>3.95</t>
         </is>
       </c>
       <c r="H338" t="inlineStr">
         <is>
-          <t>1.55/100g</t>
+          <t>0.99/100g</t>
         </is>
       </c>
       <c r="I338" t="inlineStr">
@@ -23612,7 +23612,7 @@
       </c>
       <c r="J338" t="inlineStr">
         <is>
-          <t>1.55</t>
+          <t>0.99</t>
         </is>
       </c>
       <c r="K338" t="inlineStr">
@@ -23622,12 +23622,12 @@
       </c>
       <c r="L338" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fertiggerichte', 'frische-fertiggerichte', 'fertigsalate']</t>
+          <t>['lebensmittel', 'fruechte-gemuese', 'weiteres-gemuese', 'pfannenfertiges-gemuese']</t>
         </is>
       </c>
       <c r="M338" t="inlineStr">
         <is>
-          <t>Betty Bossi Poulet Currysalat 5.20 Schweizer Franken</t>
+          <t>Betty Bossi Kürbis-Würfel 3.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N338" t="inlineStr">
@@ -23637,31 +23637,31 @@
       </c>
       <c r="O338" t="inlineStr">
         <is>
-          <t>2023-02-02 12:58:48</t>
+          <t>2023-02-02 20:52:01</t>
         </is>
       </c>
     </row>
     <row r="339">
       <c r="A339" t="inlineStr">
         <is>
-          <t>4542971</t>
+          <t>6999612</t>
         </is>
       </c>
       <c r="B339" t="inlineStr">
         <is>
-          <t>Betty Bossi Kürbis-Würfel</t>
+          <t>Betty Bossi Poulet Currysalat</t>
         </is>
       </c>
       <c r="C339" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/weiteres-gemuese/pfannenfertiges-gemuese/betty-bossi-kuerbis-wuerfel/p/4542971</t>
+          <t>/de/lebensmittel/fertiggerichte/frische-fertiggerichte/fertigsalate/betty-bossi-poulet-currysalat/p/6999612</t>
         </is>
       </c>
       <c r="D339" t="n">
-        <v>26</v>
+        <v>4</v>
       </c>
       <c r="E339" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="F339" t="inlineStr">
         <is>
@@ -23670,12 +23670,12 @@
       </c>
       <c r="G339" t="inlineStr">
         <is>
-          <t>3.95</t>
+          <t>5.20</t>
         </is>
       </c>
       <c r="H339" t="inlineStr">
         <is>
-          <t>0.99/100g</t>
+          <t>1.55/100g</t>
         </is>
       </c>
       <c r="I339" t="inlineStr">
@@ -23685,7 +23685,7 @@
       </c>
       <c r="J339" t="inlineStr">
         <is>
-          <t>0.99</t>
+          <t>1.55</t>
         </is>
       </c>
       <c r="K339" t="inlineStr">
@@ -23695,12 +23695,12 @@
       </c>
       <c r="L339" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fruechte-gemuese', 'weiteres-gemuese', 'pfannenfertiges-gemuese']</t>
+          <t>['lebensmittel', 'fertiggerichte', 'frische-fertiggerichte', 'fertigsalate']</t>
         </is>
       </c>
       <c r="M339" t="inlineStr">
         <is>
-          <t>Betty Bossi Kürbis-Würfel 3.95 Schweizer Franken</t>
+          <t>Betty Bossi Poulet Currysalat - Online kein Bestand 5.20 Schweizer Franken</t>
         </is>
       </c>
       <c r="N339" t="inlineStr">
@@ -23710,45 +23710,45 @@
       </c>
       <c r="O339" t="inlineStr">
         <is>
-          <t>2023-02-02 12:58:48</t>
+          <t>2023-02-02 20:52:01</t>
         </is>
       </c>
     </row>
     <row r="340">
       <c r="A340" t="inlineStr">
         <is>
-          <t>3090576</t>
+          <t>6781641</t>
         </is>
       </c>
       <c r="B340" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Shiitake-Pilze ca. 100g</t>
+          <t>Beyond Hackbällchen</t>
         </is>
       </c>
       <c r="C340" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/weiteres-gemuese/pilze/naturaplan-bio-shiitake-pilze-ca/p/3090576</t>
+          <t>/de/lebensmittel/fleisch-fisch/the-veggie-chef/burger-hackbaellchen/beyond-hackbaellchen/p/6781641</t>
         </is>
       </c>
       <c r="D340" t="n">
-        <v>37</v>
+        <v>6</v>
       </c>
       <c r="E340" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F340" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>BEYOND MEAT</t>
         </is>
       </c>
       <c r="G340" t="inlineStr">
         <is>
-          <t>3.20</t>
+          <t>5.95</t>
         </is>
       </c>
       <c r="H340" t="inlineStr">
         <is>
-          <t>3.20/100g</t>
+          <t>2.98/100g</t>
         </is>
       </c>
       <c r="I340" t="inlineStr">
@@ -23758,7 +23758,7 @@
       </c>
       <c r="J340" t="inlineStr">
         <is>
-          <t>3.20</t>
+          <t>2.98</t>
         </is>
       </c>
       <c r="K340" t="inlineStr">
@@ -23768,160 +23768,160 @@
       </c>
       <c r="L340" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fruechte-gemuese', 'weiteres-gemuese', 'pilze']</t>
+          <t>['lebensmittel', 'fleisch-fisch', 'the-veggie-chef', 'burger-hackbaellchen']</t>
         </is>
       </c>
       <c r="M340" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Shiitake-Pilze ca. 100g 3.20 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N340" t="inlineStr"/>
+          <t>Beyond Hackbällchen 5.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N340" t="inlineStr">
+        <is>
+          <t>['chilled', 'vegan', 'vegetarian', 'gluten_free']</t>
+        </is>
+      </c>
       <c r="O340" t="inlineStr">
         <is>
-          <t>2023-02-02 12:58:48</t>
+          <t>2023-02-02 20:52:01</t>
         </is>
       </c>
     </row>
     <row r="341">
       <c r="A341" t="inlineStr">
         <is>
-          <t>3091180</t>
+          <t>3090576</t>
         </is>
       </c>
       <c r="B341" t="inlineStr">
         <is>
-          <t>Batavia</t>
+          <t>Naturaplan Bio Shiitake-Pilze ca. 100g</t>
         </is>
       </c>
       <c r="C341" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/salate/ganze-salate/batavia/p/3091180</t>
+          <t>/de/lebensmittel/fruechte-gemuese/weiteres-gemuese/pilze/naturaplan-bio-shiitake-pilze-ca/p/3090576</t>
         </is>
       </c>
       <c r="D341" t="n">
-        <v>1</v>
+        <v>37</v>
       </c>
       <c r="E341" t="n">
         <v>5</v>
       </c>
-      <c r="F341" t="inlineStr"/>
+      <c r="F341" t="inlineStr">
+        <is>
+          <t>Coop</t>
+        </is>
+      </c>
       <c r="G341" t="inlineStr">
         <is>
-          <t>2.20</t>
+          <t>3.20</t>
         </is>
       </c>
       <c r="H341" t="inlineStr">
         <is>
-          <t>2.20/1ST</t>
+          <t>3.20/100g</t>
         </is>
       </c>
       <c r="I341" t="inlineStr">
         <is>
-          <t>Preis pro 1 Stück</t>
+          <t>Preis pro 100 Gramm</t>
         </is>
       </c>
       <c r="J341" t="inlineStr">
         <is>
-          <t>2.20</t>
+          <t>3.20</t>
         </is>
       </c>
       <c r="K341" t="inlineStr">
         <is>
-          <t>1ST</t>
+          <t>100g</t>
         </is>
       </c>
       <c r="L341" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fruechte-gemuese', 'salate', 'ganze-salate']</t>
+          <t>['lebensmittel', 'fruechte-gemuese', 'weiteres-gemuese', 'pilze']</t>
         </is>
       </c>
       <c r="M341" t="inlineStr">
         <is>
-          <t>Batavia 2.20 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N341" t="inlineStr">
-        <is>
-          <t>['chilled']</t>
-        </is>
-      </c>
+          <t>Naturaplan Bio Shiitake-Pilze ca. 100g 3.20 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N341" t="inlineStr"/>
       <c r="O341" t="inlineStr">
         <is>
-          <t>2023-02-02 12:58:48</t>
+          <t>2023-02-02 20:52:01</t>
         </is>
       </c>
     </row>
     <row r="342">
       <c r="A342" t="inlineStr">
         <is>
-          <t>6781641</t>
+          <t>3091180</t>
         </is>
       </c>
       <c r="B342" t="inlineStr">
         <is>
-          <t>Beyond Hackbällchen</t>
+          <t>Batavia</t>
         </is>
       </c>
       <c r="C342" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fleisch-fisch/the-veggie-chef/burger-hackbaellchen/beyond-hackbaellchen/p/6781641</t>
+          <t>/de/lebensmittel/fruechte-gemuese/salate/ganze-salate/batavia/p/3091180</t>
         </is>
       </c>
       <c r="D342" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E342" t="n">
-        <v>4</v>
-      </c>
-      <c r="F342" t="inlineStr">
-        <is>
-          <t>BEYOND MEAT</t>
-        </is>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="F342" t="inlineStr"/>
       <c r="G342" t="inlineStr">
         <is>
-          <t>5.95</t>
+          <t>2.20</t>
         </is>
       </c>
       <c r="H342" t="inlineStr">
         <is>
-          <t>2.98/100g</t>
+          <t>2.20/1ST</t>
         </is>
       </c>
       <c r="I342" t="inlineStr">
         <is>
-          <t>Preis pro 100 Gramm</t>
+          <t>Preis pro 1 Stück</t>
         </is>
       </c>
       <c r="J342" t="inlineStr">
         <is>
-          <t>2.98</t>
+          <t>2.20</t>
         </is>
       </c>
       <c r="K342" t="inlineStr">
         <is>
-          <t>100g</t>
+          <t>1ST</t>
         </is>
       </c>
       <c r="L342" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fleisch-fisch', 'the-veggie-chef', 'burger-hackbaellchen']</t>
+          <t>['lebensmittel', 'fruechte-gemuese', 'salate', 'ganze-salate']</t>
         </is>
       </c>
       <c r="M342" t="inlineStr">
         <is>
-          <t>Beyond Hackbällchen 5.95 Schweizer Franken</t>
+          <t>Batavia 2.20 Schweizer Franken</t>
         </is>
       </c>
       <c r="N342" t="inlineStr">
         <is>
-          <t>['chilled', 'vegan', 'vegetarian', 'gluten_free']</t>
+          <t>['chilled']</t>
         </is>
       </c>
       <c r="O342" t="inlineStr">
         <is>
-          <t>2023-02-02 12:58:48</t>
+          <t>2023-02-02 20:52:01</t>
         </is>
       </c>
     </row>
@@ -23986,7 +23986,7 @@
       <c r="N343" t="inlineStr"/>
       <c r="O343" t="inlineStr">
         <is>
-          <t>2023-02-02 12:58:48</t>
+          <t>2023-02-02 20:52:01</t>
         </is>
       </c>
     </row>
@@ -24051,7 +24051,7 @@
       <c r="N344" t="inlineStr"/>
       <c r="O344" t="inlineStr">
         <is>
-          <t>2023-02-02 12:58:48</t>
+          <t>2023-02-02 20:52:01</t>
         </is>
       </c>
     </row>
@@ -24124,7 +24124,7 @@
       </c>
       <c r="O345" t="inlineStr">
         <is>
-          <t>2023-02-02 12:58:48</t>
+          <t>2023-02-02 20:52:01</t>
         </is>
       </c>
     </row>
@@ -24197,7 +24197,7 @@
       </c>
       <c r="O346" t="inlineStr">
         <is>
-          <t>2023-02-02 12:58:48</t>
+          <t>2023-02-02 20:52:01</t>
         </is>
       </c>
     </row>
@@ -24270,31 +24270,31 @@
       </c>
       <c r="O347" t="inlineStr">
         <is>
-          <t>2023-02-02 12:58:48</t>
+          <t>2023-02-02 20:52:01</t>
         </is>
       </c>
     </row>
     <row r="348">
       <c r="A348" t="inlineStr">
         <is>
-          <t>6133999</t>
+          <t>4083022</t>
         </is>
       </c>
       <c r="B348" t="inlineStr">
         <is>
-          <t>Betty Bossi Kürbis-Würfel</t>
+          <t>Naturaplan Bio Family Gemüsebox</t>
         </is>
       </c>
       <c r="C348" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/weiteres-gemuese/pfannenfertiges-gemuese/betty-bossi-kuerbis-wuerfel/p/6133999</t>
+          <t>/de/lebensmittel/fruechte-gemuese/fruechte-gemueseboxen/naturaplan-bio-family-gemuesebox/p/4083022</t>
         </is>
       </c>
       <c r="D348" t="n">
-        <v>6</v>
+        <v>42</v>
       </c>
       <c r="E348" t="n">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="F348" t="inlineStr">
         <is>
@@ -24303,71 +24303,67 @@
       </c>
       <c r="G348" t="inlineStr">
         <is>
-          <t>3.30</t>
+          <t>23.50</t>
         </is>
       </c>
       <c r="H348" t="inlineStr">
         <is>
-          <t>0.83/100g</t>
+          <t>7.83/1kg</t>
         </is>
       </c>
       <c r="I348" t="inlineStr">
         <is>
-          <t>Preis pro 100 Gramm</t>
+          <t>Preis pro 1 Kilogramm</t>
         </is>
       </c>
       <c r="J348" t="inlineStr">
         <is>
-          <t>0.83</t>
+          <t>7.83</t>
         </is>
       </c>
       <c r="K348" t="inlineStr">
         <is>
-          <t>100g</t>
+          <t>1kg</t>
         </is>
       </c>
       <c r="L348" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fruechte-gemuese', 'weiteres-gemuese', 'pfannenfertiges-gemuese']</t>
+          <t>['lebensmittel', 'fruechte-gemuese', 'fruechte-gemueseboxen']</t>
         </is>
       </c>
       <c r="M348" t="inlineStr">
         <is>
-          <t>Betty Bossi Kürbis-Würfel 3.30 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N348" t="inlineStr">
-        <is>
-          <t>['chilled']</t>
-        </is>
-      </c>
+          <t>Naturaplan Bio Family Gemüsebox 23.50 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N348" t="inlineStr"/>
       <c r="O348" t="inlineStr">
         <is>
-          <t>2023-02-02 12:58:48</t>
+          <t>2023-02-02 20:52:01</t>
         </is>
       </c>
     </row>
     <row r="349">
       <c r="A349" t="inlineStr">
         <is>
-          <t>4083022</t>
+          <t>6875235</t>
         </is>
       </c>
       <c r="B349" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Family Gemüsebox</t>
+          <t>Délicorn Würstli vegetarisch</t>
         </is>
       </c>
       <c r="C349" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/fruechte-gemueseboxen/naturaplan-bio-family-gemuesebox/p/4083022</t>
+          <t>/de/lebensmittel/fleisch-fisch/the-veggie-chef/wuerste/delicorn-wuerstli-vegetarisch/p/6875235</t>
         </is>
       </c>
       <c r="D349" t="n">
-        <v>42</v>
+        <v>5</v>
       </c>
       <c r="E349" t="n">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="F349" t="inlineStr">
         <is>
@@ -24376,67 +24372,71 @@
       </c>
       <c r="G349" t="inlineStr">
         <is>
-          <t>23.50</t>
+          <t>4.50</t>
         </is>
       </c>
       <c r="H349" t="inlineStr">
         <is>
-          <t>7.83/1kg</t>
+          <t>2.25/100g</t>
         </is>
       </c>
       <c r="I349" t="inlineStr">
         <is>
-          <t>Preis pro 1 Kilogramm</t>
+          <t>Preis pro 100 Gramm</t>
         </is>
       </c>
       <c r="J349" t="inlineStr">
         <is>
-          <t>7.83</t>
+          <t>2.25</t>
         </is>
       </c>
       <c r="K349" t="inlineStr">
         <is>
-          <t>1kg</t>
+          <t>100g</t>
         </is>
       </c>
       <c r="L349" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fruechte-gemuese', 'fruechte-gemueseboxen']</t>
+          <t>['lebensmittel', 'fleisch-fisch', 'the-veggie-chef', 'wuerste']</t>
         </is>
       </c>
       <c r="M349" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Family Gemüsebox 23.50 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N349" t="inlineStr"/>
+          <t>Délicorn Würstli vegetarisch 4.50 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N349" t="inlineStr">
+        <is>
+          <t>['chilled', 'vegetarian']</t>
+        </is>
+      </c>
       <c r="O349" t="inlineStr">
         <is>
-          <t>2023-02-02 12:58:48</t>
+          <t>2023-02-02 20:52:01</t>
         </is>
       </c>
     </row>
     <row r="350">
       <c r="A350" t="inlineStr">
         <is>
-          <t>6875235</t>
+          <t>6133999</t>
         </is>
       </c>
       <c r="B350" t="inlineStr">
         <is>
-          <t>Délicorn Würstli vegetarisch</t>
+          <t>Betty Bossi Kürbis-Würfel</t>
         </is>
       </c>
       <c r="C350" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fleisch-fisch/the-veggie-chef/wuerste/delicorn-wuerstli-vegetarisch/p/6875235</t>
+          <t>/de/lebensmittel/fruechte-gemuese/weiteres-gemuese/pfannenfertiges-gemuese/betty-bossi-kuerbis-wuerfel/p/6133999</t>
         </is>
       </c>
       <c r="D350" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E350" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="F350" t="inlineStr">
         <is>
@@ -24445,12 +24445,12 @@
       </c>
       <c r="G350" t="inlineStr">
         <is>
-          <t>4.50</t>
+          <t>3.30</t>
         </is>
       </c>
       <c r="H350" t="inlineStr">
         <is>
-          <t>2.25/100g</t>
+          <t>0.83/100g</t>
         </is>
       </c>
       <c r="I350" t="inlineStr">
@@ -24460,7 +24460,7 @@
       </c>
       <c r="J350" t="inlineStr">
         <is>
-          <t>2.25</t>
+          <t>0.83</t>
         </is>
       </c>
       <c r="K350" t="inlineStr">
@@ -24470,22 +24470,22 @@
       </c>
       <c r="L350" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fleisch-fisch', 'the-veggie-chef', 'wuerste']</t>
+          <t>['lebensmittel', 'fruechte-gemuese', 'weiteres-gemuese', 'pfannenfertiges-gemuese']</t>
         </is>
       </c>
       <c r="M350" t="inlineStr">
         <is>
-          <t>Délicorn Würstli vegetarisch 4.50 Schweizer Franken</t>
+          <t>Betty Bossi Kürbis-Würfel 3.30 Schweizer Franken</t>
         </is>
       </c>
       <c r="N350" t="inlineStr">
         <is>
-          <t>['chilled', 'vegetarian']</t>
+          <t>['chilled']</t>
         </is>
       </c>
       <c r="O350" t="inlineStr">
         <is>
-          <t>2023-02-02 12:58:48</t>
+          <t>2023-02-02 20:52:01</t>
         </is>
       </c>
     </row>
@@ -24554,7 +24554,7 @@
       <c r="N351" t="inlineStr"/>
       <c r="O351" t="inlineStr">
         <is>
-          <t>2023-02-02 12:58:48</t>
+          <t>2023-02-02 20:52:01</t>
         </is>
       </c>
     </row>
@@ -24627,7 +24627,7 @@
       </c>
       <c r="O352" t="inlineStr">
         <is>
-          <t>2023-02-02 12:58:48</t>
+          <t>2023-02-02 20:52:01</t>
         </is>
       </c>
     </row>
@@ -24700,7 +24700,7 @@
       </c>
       <c r="O353" t="inlineStr">
         <is>
-          <t>2023-02-02 12:58:48</t>
+          <t>2023-02-02 20:52:01</t>
         </is>
       </c>
     </row>
@@ -24773,7 +24773,7 @@
       </c>
       <c r="O354" t="inlineStr">
         <is>
-          <t>2023-02-02 12:58:48</t>
+          <t>2023-02-02 20:52:01</t>
         </is>
       </c>
     </row>
@@ -24846,7 +24846,7 @@
       </c>
       <c r="O355" t="inlineStr">
         <is>
-          <t>2023-02-02 12:58:48</t>
+          <t>2023-02-02 20:52:01</t>
         </is>
       </c>
     </row>
@@ -24899,7 +24899,7 @@
       <c r="N356" t="inlineStr"/>
       <c r="O356" t="inlineStr">
         <is>
-          <t>2023-02-02 12:58:48</t>
+          <t>2023-02-02 20:52:01</t>
         </is>
       </c>
     </row>
@@ -24972,45 +24972,45 @@
       </c>
       <c r="O357" t="inlineStr">
         <is>
-          <t>2023-02-02 12:58:48</t>
+          <t>2023-02-02 20:52:01</t>
         </is>
       </c>
     </row>
     <row r="358">
       <c r="A358" t="inlineStr">
         <is>
-          <t>6661982</t>
+          <t>6508237</t>
         </is>
       </c>
       <c r="B358" t="inlineStr">
         <is>
-          <t>The Green Mountain plant-based Fleischkäsealternative</t>
+          <t>Garden Gourmet Sensational Gehacktes</t>
         </is>
       </c>
       <c r="C358" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fleisch-fisch/the-veggie-chef/cold-cuts/the-green-mountain-plant-based-fleischkaesealternative/p/6661982</t>
+          <t>/de/lebensmittel/fleisch-fisch/the-veggie-chef/gehacktes-geschnetzeltes/garden-gourmet-sensational-gehacktes/p/6508237</t>
         </is>
       </c>
       <c r="D358" t="n">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="E358" t="n">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="F358" t="inlineStr">
         <is>
-          <t>The GREEN MOUNTAIN</t>
+          <t>Garden Gourmet</t>
         </is>
       </c>
       <c r="G358" t="inlineStr">
         <is>
-          <t>6.95</t>
+          <t>5.95</t>
         </is>
       </c>
       <c r="H358" t="inlineStr">
         <is>
-          <t>1.99/100g</t>
+          <t>2.98/100g</t>
         </is>
       </c>
       <c r="I358" t="inlineStr">
@@ -25020,7 +25020,7 @@
       </c>
       <c r="J358" t="inlineStr">
         <is>
-          <t>1.99</t>
+          <t>2.98</t>
         </is>
       </c>
       <c r="K358" t="inlineStr">
@@ -25030,12 +25030,12 @@
       </c>
       <c r="L358" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fleisch-fisch', 'the-veggie-chef', 'cold-cuts']</t>
+          <t>['lebensmittel', 'fleisch-fisch', 'the-veggie-chef', 'gehacktes-geschnetzeltes']</t>
         </is>
       </c>
       <c r="M358" t="inlineStr">
         <is>
-          <t>The Green Mountain plant-based Fleischkäsealternative 6.95 Schweizer Franken</t>
+          <t>Garden Gourmet Sensational Gehacktes 5.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N358" t="inlineStr">
@@ -25045,45 +25045,45 @@
       </c>
       <c r="O358" t="inlineStr">
         <is>
-          <t>2023-02-02 12:58:48</t>
+          <t>2023-02-02 20:52:01</t>
         </is>
       </c>
     </row>
     <row r="359">
       <c r="A359" t="inlineStr">
         <is>
-          <t>6508237</t>
+          <t>6661982</t>
         </is>
       </c>
       <c r="B359" t="inlineStr">
         <is>
-          <t>Garden Gourmet Sensational Gehacktes</t>
+          <t>The Green Mountain plant-based Fleischkäsealternative</t>
         </is>
       </c>
       <c r="C359" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fleisch-fisch/the-veggie-chef/gehacktes-geschnetzeltes/garden-gourmet-sensational-gehacktes/p/6508237</t>
+          <t>/de/lebensmittel/fleisch-fisch/the-veggie-chef/cold-cuts/the-green-mountain-plant-based-fleischkaesealternative/p/6661982</t>
         </is>
       </c>
       <c r="D359" t="n">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="E359" t="n">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="F359" t="inlineStr">
         <is>
-          <t>Garden Gourmet</t>
+          <t>The GREEN MOUNTAIN</t>
         </is>
       </c>
       <c r="G359" t="inlineStr">
         <is>
-          <t>5.95</t>
+          <t>6.95</t>
         </is>
       </c>
       <c r="H359" t="inlineStr">
         <is>
-          <t>2.98/100g</t>
+          <t>1.99/100g</t>
         </is>
       </c>
       <c r="I359" t="inlineStr">
@@ -25093,7 +25093,7 @@
       </c>
       <c r="J359" t="inlineStr">
         <is>
-          <t>2.98</t>
+          <t>1.99</t>
         </is>
       </c>
       <c r="K359" t="inlineStr">
@@ -25103,12 +25103,12 @@
       </c>
       <c r="L359" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fleisch-fisch', 'the-veggie-chef', 'gehacktes-geschnetzeltes']</t>
+          <t>['lebensmittel', 'fleisch-fisch', 'the-veggie-chef', 'cold-cuts']</t>
         </is>
       </c>
       <c r="M359" t="inlineStr">
         <is>
-          <t>Garden Gourmet Sensational Gehacktes 5.95 Schweizer Franken</t>
+          <t>The Green Mountain plant-based Fleischkäsealternative 6.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N359" t="inlineStr">
@@ -25118,7 +25118,7 @@
       </c>
       <c r="O359" t="inlineStr">
         <is>
-          <t>2023-02-02 12:58:48</t>
+          <t>2023-02-02 20:52:01</t>
         </is>
       </c>
     </row>
@@ -25191,7 +25191,7 @@
       </c>
       <c r="O360" t="inlineStr">
         <is>
-          <t>2023-02-02 12:58:48</t>
+          <t>2023-02-02 20:52:01</t>
         </is>
       </c>
     </row>
@@ -25260,7 +25260,7 @@
       <c r="N361" t="inlineStr"/>
       <c r="O361" t="inlineStr">
         <is>
-          <t>2023-02-02 12:58:48</t>
+          <t>2023-02-02 20:52:01</t>
         </is>
       </c>
     </row>
@@ -25333,7 +25333,7 @@
       </c>
       <c r="O362" t="inlineStr">
         <is>
-          <t>2023-02-02 12:58:48</t>
+          <t>2023-02-02 20:52:01</t>
         </is>
       </c>
     </row>
@@ -25406,7 +25406,7 @@
       </c>
       <c r="O363" t="inlineStr">
         <is>
-          <t>2023-02-02 12:58:48</t>
+          <t>2023-02-02 20:52:01</t>
         </is>
       </c>
     </row>
@@ -25479,7 +25479,7 @@
       </c>
       <c r="O364" t="inlineStr">
         <is>
-          <t>2023-02-02 12:58:48</t>
+          <t>2023-02-02 20:52:01</t>
         </is>
       </c>
     </row>
@@ -25552,7 +25552,7 @@
       </c>
       <c r="O365" t="inlineStr">
         <is>
-          <t>2023-02-02 12:58:48</t>
+          <t>2023-02-02 20:52:01</t>
         </is>
       </c>
     </row>
@@ -25625,7 +25625,7 @@
       </c>
       <c r="O366" t="inlineStr">
         <is>
-          <t>2023-02-02 12:58:48</t>
+          <t>2023-02-02 20:52:01</t>
         </is>
       </c>
     </row>
@@ -25696,7 +25696,7 @@
       </c>
       <c r="O367" t="inlineStr">
         <is>
-          <t>2023-02-02 12:58:48</t>
+          <t>2023-02-02 20:52:01</t>
         </is>
       </c>
     </row>
@@ -25747,7 +25747,7 @@
       <c r="N368" t="inlineStr"/>
       <c r="O368" t="inlineStr">
         <is>
-          <t>2023-02-02 12:58:48</t>
+          <t>2023-02-02 20:52:01</t>
         </is>
       </c>
     </row>
@@ -25816,7 +25816,7 @@
       <c r="N369" t="inlineStr"/>
       <c r="O369" t="inlineStr">
         <is>
-          <t>2023-02-02 12:58:48</t>
+          <t>2023-02-02 20:52:01</t>
         </is>
       </c>
     </row>
@@ -25881,7 +25881,7 @@
       <c r="N370" t="inlineStr"/>
       <c r="O370" t="inlineStr">
         <is>
-          <t>2023-02-02 12:58:48</t>
+          <t>2023-02-02 20:52:01</t>
         </is>
       </c>
     </row>
@@ -25954,7 +25954,7 @@
       </c>
       <c r="O371" t="inlineStr">
         <is>
-          <t>2023-02-02 12:58:48</t>
+          <t>2023-02-02 20:52:01</t>
         </is>
       </c>
     </row>
@@ -26025,7 +26025,7 @@
       </c>
       <c r="O372" t="inlineStr">
         <is>
-          <t>2023-02-02 12:58:48</t>
+          <t>2023-02-02 20:52:01</t>
         </is>
       </c>
     </row>
@@ -26098,24 +26098,24 @@
       </c>
       <c r="O373" t="inlineStr">
         <is>
-          <t>2023-02-02 12:58:48</t>
+          <t>2023-02-02 20:52:01</t>
         </is>
       </c>
     </row>
     <row r="374">
       <c r="A374" t="inlineStr">
         <is>
-          <t>6076334</t>
+          <t>6986266</t>
         </is>
       </c>
       <c r="B374" t="inlineStr">
         <is>
-          <t>Délicorn Schnitzel mit Käsefüllung</t>
+          <t>Naturaplan Bio Rotkabis</t>
         </is>
       </c>
       <c r="C374" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fleisch-fisch/the-veggie-chef/schnitzel-nuggets/delicorn-schnitzel-mit-kaesefuellung/p/6076334</t>
+          <t>/de/lebensmittel/fruechte-gemuese/weiteres-gemuese/pfannenfertiges-gemuese/naturaplan-bio-rotkabis/p/6986266</t>
         </is>
       </c>
       <c r="D374" t="inlineStr"/>
@@ -26129,12 +26129,12 @@
       </c>
       <c r="G374" t="inlineStr">
         <is>
-          <t>6.50</t>
+          <t>1.95</t>
         </is>
       </c>
       <c r="H374" t="inlineStr">
         <is>
-          <t>2.71/100g</t>
+          <t>0.98/100g</t>
         </is>
       </c>
       <c r="I374" t="inlineStr">
@@ -26144,7 +26144,7 @@
       </c>
       <c r="J374" t="inlineStr">
         <is>
-          <t>2.71</t>
+          <t>0.98</t>
         </is>
       </c>
       <c r="K374" t="inlineStr">
@@ -26154,39 +26154,39 @@
       </c>
       <c r="L374" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fleisch-fisch', 'the-veggie-chef', 'schnitzel-nuggets']</t>
+          <t>['lebensmittel', 'fruechte-gemuese', 'weiteres-gemuese', 'pfannenfertiges-gemuese']</t>
         </is>
       </c>
       <c r="M374" t="inlineStr">
         <is>
-          <t>Délicorn Schnitzel mit Käsefüllung 6.50 Schweizer Franken</t>
+          <t>Naturaplan Bio Rotkabis 1.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N374" t="inlineStr">
         <is>
-          <t>['chilled', 'vegetarian']</t>
+          <t>['chilled']</t>
         </is>
       </c>
       <c r="O374" t="inlineStr">
         <is>
-          <t>2023-02-02 12:58:48</t>
+          <t>2023-02-02 20:52:01</t>
         </is>
       </c>
     </row>
     <row r="375">
       <c r="A375" t="inlineStr">
         <is>
-          <t>6986266</t>
+          <t>6076334</t>
         </is>
       </c>
       <c r="B375" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Rotkabis</t>
+          <t>Délicorn Schnitzel mit Käsefüllung</t>
         </is>
       </c>
       <c r="C375" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/weiteres-gemuese/pfannenfertiges-gemuese/naturaplan-bio-rotkabis/p/6986266</t>
+          <t>/de/lebensmittel/fleisch-fisch/the-veggie-chef/schnitzel-nuggets/delicorn-schnitzel-mit-kaesefuellung/p/6076334</t>
         </is>
       </c>
       <c r="D375" t="inlineStr"/>
@@ -26200,12 +26200,12 @@
       </c>
       <c r="G375" t="inlineStr">
         <is>
-          <t>1.95</t>
+          <t>6.50</t>
         </is>
       </c>
       <c r="H375" t="inlineStr">
         <is>
-          <t>0.98/100g</t>
+          <t>2.71/100g</t>
         </is>
       </c>
       <c r="I375" t="inlineStr">
@@ -26215,7 +26215,7 @@
       </c>
       <c r="J375" t="inlineStr">
         <is>
-          <t>0.98</t>
+          <t>2.71</t>
         </is>
       </c>
       <c r="K375" t="inlineStr">
@@ -26225,22 +26225,22 @@
       </c>
       <c r="L375" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fruechte-gemuese', 'weiteres-gemuese', 'pfannenfertiges-gemuese']</t>
+          <t>['lebensmittel', 'fleisch-fisch', 'the-veggie-chef', 'schnitzel-nuggets']</t>
         </is>
       </c>
       <c r="M375" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Rotkabis 1.95 Schweizer Franken</t>
+          <t>Délicorn Schnitzel mit Käsefüllung 6.50 Schweizer Franken</t>
         </is>
       </c>
       <c r="N375" t="inlineStr">
         <is>
-          <t>['chilled']</t>
+          <t>['chilled', 'vegetarian']</t>
         </is>
       </c>
       <c r="O375" t="inlineStr">
         <is>
-          <t>2023-02-02 12:58:48</t>
+          <t>2023-02-02 20:52:01</t>
         </is>
       </c>
     </row>
@@ -26313,7 +26313,7 @@
       </c>
       <c r="O376" t="inlineStr">
         <is>
-          <t>2023-02-02 12:58:48</t>
+          <t>2023-02-02 20:52:01</t>
         </is>
       </c>
     </row>
@@ -26386,7 +26386,7 @@
       </c>
       <c r="O377" t="inlineStr">
         <is>
-          <t>2023-02-02 12:58:48</t>
+          <t>2023-02-02 20:52:01</t>
         </is>
       </c>
     </row>
@@ -26455,7 +26455,7 @@
       <c r="N378" t="inlineStr"/>
       <c r="O378" t="inlineStr">
         <is>
-          <t>2023-02-02 12:58:48</t>
+          <t>2023-02-02 20:52:01</t>
         </is>
       </c>
     </row>
@@ -26524,7 +26524,7 @@
       <c r="N379" t="inlineStr"/>
       <c r="O379" t="inlineStr">
         <is>
-          <t>2023-02-02 12:58:48</t>
+          <t>2023-02-02 20:52:01</t>
         </is>
       </c>
     </row>
@@ -26593,7 +26593,7 @@
       <c r="N380" t="inlineStr"/>
       <c r="O380" t="inlineStr">
         <is>
-          <t>2023-02-02 12:58:48</t>
+          <t>2023-02-02 20:52:01</t>
         </is>
       </c>
     </row>
@@ -26666,7 +26666,7 @@
       </c>
       <c r="O381" t="inlineStr">
         <is>
-          <t>2023-02-02 12:58:48</t>
+          <t>2023-02-02 20:52:01</t>
         </is>
       </c>
     </row>
@@ -26735,7 +26735,7 @@
       <c r="N382" t="inlineStr"/>
       <c r="O382" t="inlineStr">
         <is>
-          <t>2023-02-02 12:58:48</t>
+          <t>2023-02-02 20:52:01</t>
         </is>
       </c>
     </row>
@@ -26808,7 +26808,7 @@
       </c>
       <c r="O383" t="inlineStr">
         <is>
-          <t>2023-02-02 12:58:48</t>
+          <t>2023-02-02 20:52:01</t>
         </is>
       </c>
     </row>
@@ -26877,7 +26877,7 @@
       <c r="N384" t="inlineStr"/>
       <c r="O384" t="inlineStr">
         <is>
-          <t>2023-02-02 12:58:48</t>
+          <t>2023-02-02 20:52:01</t>
         </is>
       </c>
     </row>
@@ -26942,7 +26942,7 @@
       <c r="N385" t="inlineStr"/>
       <c r="O385" t="inlineStr">
         <is>
-          <t>2023-02-02 12:58:48</t>
+          <t>2023-02-02 20:52:01</t>
         </is>
       </c>
     </row>
@@ -27015,7 +27015,7 @@
       </c>
       <c r="O386" t="inlineStr">
         <is>
-          <t>2023-02-02 12:58:48</t>
+          <t>2023-02-02 20:52:01</t>
         </is>
       </c>
     </row>
@@ -27088,7 +27088,7 @@
       </c>
       <c r="O387" t="inlineStr">
         <is>
-          <t>2023-02-02 12:58:48</t>
+          <t>2023-02-02 20:52:01</t>
         </is>
       </c>
     </row>
@@ -27161,7 +27161,7 @@
       </c>
       <c r="O388" t="inlineStr">
         <is>
-          <t>2023-02-02 12:58:48</t>
+          <t>2023-02-02 20:52:01</t>
         </is>
       </c>
     </row>
@@ -27226,45 +27226,45 @@
       <c r="N389" t="inlineStr"/>
       <c r="O389" t="inlineStr">
         <is>
-          <t>2023-02-02 12:58:48</t>
+          <t>2023-02-02 20:52:01</t>
         </is>
       </c>
     </row>
     <row r="390">
       <c r="A390" t="inlineStr">
         <is>
-          <t>6975971</t>
+          <t>6774028</t>
         </is>
       </c>
       <c r="B390" t="inlineStr">
         <is>
-          <t>Délicorn Bio Geschnetzeltes</t>
+          <t>festivo geräucherte Stick Vegan Chili</t>
         </is>
       </c>
       <c r="C390" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fleisch-fisch/the-veggie-chef/gehacktes-geschnetzeltes/delicorn-bio-geschnetzeltes/p/6975971</t>
+          <t>/de/lebensmittel/fleisch-fisch/the-veggie-chef/wuerste/festivo-geraeucherte-stick-vegan-chili/p/6774028</t>
         </is>
       </c>
       <c r="D390" t="n">
         <v>6</v>
       </c>
       <c r="E390" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F390" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>festivo</t>
         </is>
       </c>
       <c r="G390" t="inlineStr">
         <is>
-          <t>4.20</t>
+          <t>2.95</t>
         </is>
       </c>
       <c r="H390" t="inlineStr">
         <is>
-          <t>2.33/100g</t>
+          <t>4.21/100g</t>
         </is>
       </c>
       <c r="I390" t="inlineStr">
@@ -27274,7 +27274,7 @@
       </c>
       <c r="J390" t="inlineStr">
         <is>
-          <t>2.33</t>
+          <t>4.21</t>
         </is>
       </c>
       <c r="K390" t="inlineStr">
@@ -27284,12 +27284,12 @@
       </c>
       <c r="L390" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fleisch-fisch', 'the-veggie-chef', 'gehacktes-geschnetzeltes']</t>
+          <t>['lebensmittel', 'fleisch-fisch', 'the-veggie-chef', 'wuerste']</t>
         </is>
       </c>
       <c r="M390" t="inlineStr">
         <is>
-          <t>Délicorn Bio Geschnetzeltes 4.20 Schweizer Franken</t>
+          <t>festivo geräucherte Stick Vegan Chili 2.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N390" t="inlineStr">
@@ -27299,183 +27299,179 @@
       </c>
       <c r="O390" t="inlineStr">
         <is>
-          <t>2023-02-02 12:58:48</t>
+          <t>2023-02-02 20:52:01</t>
         </is>
       </c>
     </row>
     <row r="391">
       <c r="A391" t="inlineStr">
         <is>
-          <t>6774028</t>
+          <t>6073294</t>
         </is>
       </c>
       <c r="B391" t="inlineStr">
         <is>
-          <t>festivo geräucherte Stick Vegan Chili</t>
+          <t>Naturaplan Bio Kitchen-Classics Box</t>
         </is>
       </c>
       <c r="C391" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fleisch-fisch/the-veggie-chef/wuerste/festivo-geraeucherte-stick-vegan-chili/p/6774028</t>
+          <t>/de/lebensmittel/fruechte-gemuese/fruechte-gemueseboxen/naturaplan-bio-kitchen-classics-box/p/6073294</t>
         </is>
       </c>
       <c r="D391" t="n">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="E391" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F391" t="inlineStr">
         <is>
-          <t>festivo</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G391" t="inlineStr">
         <is>
-          <t>2.95</t>
+          <t>19.00</t>
         </is>
       </c>
       <c r="H391" t="inlineStr">
         <is>
-          <t>4.21/100g</t>
+          <t>6.33/1kg</t>
         </is>
       </c>
       <c r="I391" t="inlineStr">
         <is>
-          <t>Preis pro 100 Gramm</t>
+          <t>Preis pro 1 Kilogramm</t>
         </is>
       </c>
       <c r="J391" t="inlineStr">
         <is>
-          <t>4.21</t>
+          <t>6.33</t>
         </is>
       </c>
       <c r="K391" t="inlineStr">
         <is>
-          <t>100g</t>
+          <t>1kg</t>
         </is>
       </c>
       <c r="L391" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fleisch-fisch', 'the-veggie-chef', 'wuerste']</t>
+          <t>['lebensmittel', 'fruechte-gemuese', 'fruechte-gemueseboxen']</t>
         </is>
       </c>
       <c r="M391" t="inlineStr">
         <is>
-          <t>festivo geräucherte Stick Vegan Chili 2.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N391" t="inlineStr">
-        <is>
-          <t>['chilled', 'vegan', 'vegetarian']</t>
-        </is>
-      </c>
+          <t>Naturaplan Bio Kitchen-Classics Box 19.00 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N391" t="inlineStr"/>
       <c r="O391" t="inlineStr">
         <is>
-          <t>2023-02-02 12:58:48</t>
+          <t>2023-02-02 20:52:01</t>
         </is>
       </c>
     </row>
     <row r="392">
       <c r="A392" t="inlineStr">
         <is>
-          <t>6073294</t>
+          <t>6564002</t>
         </is>
       </c>
       <c r="B392" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Kitchen-Classics Box</t>
+          <t>Radicchio di Treviso</t>
         </is>
       </c>
       <c r="C392" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/fruechte-gemueseboxen/naturaplan-bio-kitchen-classics-box/p/6073294</t>
+          <t>/de/lebensmittel/fruechte-gemuese/salate/ganze-salate/radicchio-di-treviso/p/6564002</t>
         </is>
       </c>
       <c r="D392" t="n">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="E392" t="n">
-        <v>3</v>
-      </c>
-      <c r="F392" t="inlineStr">
-        <is>
-          <t>Coop</t>
-        </is>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="F392" t="inlineStr"/>
       <c r="G392" t="inlineStr">
         <is>
-          <t>19.00</t>
+          <t>5.95</t>
         </is>
       </c>
       <c r="H392" t="inlineStr">
         <is>
-          <t>6.33/1kg</t>
+          <t>1.98/100g</t>
         </is>
       </c>
       <c r="I392" t="inlineStr">
         <is>
-          <t>Preis pro 1 Kilogramm</t>
+          <t>Preis pro 100 Gramm</t>
         </is>
       </c>
       <c r="J392" t="inlineStr">
         <is>
-          <t>6.33</t>
+          <t>1.98</t>
         </is>
       </c>
       <c r="K392" t="inlineStr">
         <is>
-          <t>1kg</t>
+          <t>100g</t>
         </is>
       </c>
       <c r="L392" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fruechte-gemuese', 'fruechte-gemueseboxen']</t>
+          <t>['lebensmittel', 'fruechte-gemuese', 'salate', 'ganze-salate']</t>
         </is>
       </c>
       <c r="M392" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Kitchen-Classics Box 19.00 Schweizer Franken</t>
+          <t>Radicchio di Treviso 5.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N392" t="inlineStr"/>
       <c r="O392" t="inlineStr">
         <is>
-          <t>2023-02-02 12:58:48</t>
+          <t>2023-02-02 20:52:01</t>
         </is>
       </c>
     </row>
     <row r="393">
       <c r="A393" t="inlineStr">
         <is>
-          <t>6564002</t>
+          <t>6975971</t>
         </is>
       </c>
       <c r="B393" t="inlineStr">
         <is>
-          <t>Radicchio di Treviso</t>
+          <t>Délicorn Bio Geschnetzeltes</t>
         </is>
       </c>
       <c r="C393" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/salate/ganze-salate/radicchio-di-treviso/p/6564002</t>
+          <t>/de/lebensmittel/fleisch-fisch/the-veggie-chef/gehacktes-geschnetzeltes/delicorn-bio-geschnetzeltes/p/6975971</t>
         </is>
       </c>
       <c r="D393" t="n">
         <v>6</v>
       </c>
       <c r="E393" t="n">
-        <v>4</v>
-      </c>
-      <c r="F393" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="F393" t="inlineStr">
+        <is>
+          <t>Coop</t>
+        </is>
+      </c>
       <c r="G393" t="inlineStr">
         <is>
-          <t>5.95</t>
+          <t>4.20</t>
         </is>
       </c>
       <c r="H393" t="inlineStr">
         <is>
-          <t>1.98/100g</t>
+          <t>2.33/100g</t>
         </is>
       </c>
       <c r="I393" t="inlineStr">
@@ -27485,7 +27481,7 @@
       </c>
       <c r="J393" t="inlineStr">
         <is>
-          <t>1.98</t>
+          <t>2.33</t>
         </is>
       </c>
       <c r="K393" t="inlineStr">
@@ -27495,18 +27491,22 @@
       </c>
       <c r="L393" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fruechte-gemuese', 'salate', 'ganze-salate']</t>
+          <t>['lebensmittel', 'fleisch-fisch', 'the-veggie-chef', 'gehacktes-geschnetzeltes']</t>
         </is>
       </c>
       <c r="M393" t="inlineStr">
         <is>
-          <t>Radicchio di Treviso 5.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N393" t="inlineStr"/>
+          <t>Délicorn Bio Geschnetzeltes 4.20 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N393" t="inlineStr">
+        <is>
+          <t>['chilled', 'vegan', 'vegetarian']</t>
+        </is>
+      </c>
       <c r="O393" t="inlineStr">
         <is>
-          <t>2023-02-02 12:58:48</t>
+          <t>2023-02-02 20:52:01</t>
         </is>
       </c>
     </row>
@@ -27571,7 +27571,7 @@
       <c r="N394" t="inlineStr"/>
       <c r="O394" t="inlineStr">
         <is>
-          <t>2023-02-02 12:58:48</t>
+          <t>2023-02-02 20:52:01</t>
         </is>
       </c>
     </row>
@@ -27640,7 +27640,7 @@
       <c r="N395" t="inlineStr"/>
       <c r="O395" t="inlineStr">
         <is>
-          <t>2023-02-02 12:58:48</t>
+          <t>2023-02-02 20:52:01</t>
         </is>
       </c>
     </row>
@@ -27713,7 +27713,7 @@
       </c>
       <c r="O396" t="inlineStr">
         <is>
-          <t>2023-02-02 12:58:48</t>
+          <t>2023-02-02 20:52:01</t>
         </is>
       </c>
     </row>
@@ -27786,7 +27786,7 @@
       </c>
       <c r="O397" t="inlineStr">
         <is>
-          <t>2023-02-02 12:58:48</t>
+          <t>2023-02-02 20:52:01</t>
         </is>
       </c>
     </row>
@@ -27859,7 +27859,7 @@
       </c>
       <c r="O398" t="inlineStr">
         <is>
-          <t>2023-02-02 12:58:48</t>
+          <t>2023-02-02 20:52:01</t>
         </is>
       </c>
     </row>
@@ -27932,7 +27932,7 @@
       </c>
       <c r="O399" t="inlineStr">
         <is>
-          <t>2023-02-02 12:58:48</t>
+          <t>2023-02-02 20:52:01</t>
         </is>
       </c>
     </row>
@@ -28005,7 +28005,7 @@
       </c>
       <c r="O400" t="inlineStr">
         <is>
-          <t>2023-02-02 12:58:48</t>
+          <t>2023-02-02 20:52:01</t>
         </is>
       </c>
     </row>
@@ -28070,7 +28070,7 @@
       <c r="N401" t="inlineStr"/>
       <c r="O401" t="inlineStr">
         <is>
-          <t>2023-02-02 12:58:48</t>
+          <t>2023-02-02 20:52:01</t>
         </is>
       </c>
     </row>
@@ -28135,7 +28135,7 @@
       <c r="N402" t="inlineStr"/>
       <c r="O402" t="inlineStr">
         <is>
-          <t>2023-02-02 12:58:48</t>
+          <t>2023-02-02 20:52:01</t>
         </is>
       </c>
     </row>
@@ -28208,7 +28208,7 @@
       </c>
       <c r="O403" t="inlineStr">
         <is>
-          <t>2023-02-02 12:58:48</t>
+          <t>2023-02-02 20:52:01</t>
         </is>
       </c>
     </row>
@@ -28281,7 +28281,7 @@
       </c>
       <c r="O404" t="inlineStr">
         <is>
-          <t>2023-02-02 12:58:48</t>
+          <t>2023-02-02 20:52:01</t>
         </is>
       </c>
     </row>
@@ -28348,7 +28348,7 @@
       <c r="N405" t="inlineStr"/>
       <c r="O405" t="inlineStr">
         <is>
-          <t>2023-02-02 12:58:48</t>
+          <t>2023-02-02 20:52:01</t>
         </is>
       </c>
     </row>
@@ -28401,7 +28401,7 @@
       <c r="N406" t="inlineStr"/>
       <c r="O406" t="inlineStr">
         <is>
-          <t>2023-02-02 12:58:48</t>
+          <t>2023-02-02 20:52:01</t>
         </is>
       </c>
     </row>
@@ -28474,7 +28474,7 @@
       </c>
       <c r="O407" t="inlineStr">
         <is>
-          <t>2023-02-02 12:58:48</t>
+          <t>2023-02-02 20:52:01</t>
         </is>
       </c>
     </row>
@@ -28539,45 +28539,43 @@
       <c r="N408" t="inlineStr"/>
       <c r="O408" t="inlineStr">
         <is>
-          <t>2023-02-02 12:58:48</t>
+          <t>2023-02-02 20:52:01</t>
         </is>
       </c>
     </row>
     <row r="409">
       <c r="A409" t="inlineStr">
         <is>
-          <t>6576163</t>
+          <t>6590457</t>
         </is>
       </c>
       <c r="B409" t="inlineStr">
         <is>
-          <t>Garden Gourmet Sensational Bratwurst vegan</t>
+          <t>Naturaplan Bio Eisberg</t>
         </is>
       </c>
       <c r="C409" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fleisch-fisch/the-veggie-chef/wuerste/garden-gourmet-sensational-bratwurst-vegan/p/6576163</t>
-        </is>
-      </c>
-      <c r="D409" t="n">
-        <v>17</v>
-      </c>
+          <t>/de/lebensmittel/fruechte-gemuese/salate/geschnittene-salate/naturaplan-bio-eisberg/p/6590457</t>
+        </is>
+      </c>
+      <c r="D409" t="inlineStr"/>
       <c r="E409" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F409" t="inlineStr">
         <is>
-          <t>Garden Gourmet</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G409" t="inlineStr">
         <is>
-          <t>5.95</t>
+          <t>2.50</t>
         </is>
       </c>
       <c r="H409" t="inlineStr">
         <is>
-          <t>3.31/100g</t>
+          <t>1.67/100g</t>
         </is>
       </c>
       <c r="I409" t="inlineStr">
@@ -28587,7 +28585,7 @@
       </c>
       <c r="J409" t="inlineStr">
         <is>
-          <t>3.31</t>
+          <t>1.67</t>
         </is>
       </c>
       <c r="K409" t="inlineStr">
@@ -28597,194 +28595,194 @@
       </c>
       <c r="L409" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fleisch-fisch', 'the-veggie-chef', 'wuerste']</t>
+          <t>['lebensmittel', 'fruechte-gemuese', 'salate', 'geschnittene-salate']</t>
         </is>
       </c>
       <c r="M409" t="inlineStr">
         <is>
-          <t>Garden Gourmet Sensational Bratwurst vegan 5.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N409" t="inlineStr">
-        <is>
-          <t>['chilled', 'vegan', 'vegetarian']</t>
-        </is>
-      </c>
+          <t>Naturaplan Bio Eisberg 2.50 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N409" t="inlineStr"/>
       <c r="O409" t="inlineStr">
         <is>
-          <t>2023-02-02 12:58:48</t>
+          <t>2023-02-02 20:52:01</t>
         </is>
       </c>
     </row>
     <row r="410">
       <c r="A410" t="inlineStr">
         <is>
-          <t>3090754</t>
+          <t>6576163</t>
         </is>
       </c>
       <c r="B410" t="inlineStr">
         <is>
-          <t>Pomelo weiss 1 Stück</t>
+          <t>Garden Gourmet Sensational Bratwurst vegan</t>
         </is>
       </c>
       <c r="C410" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/fruechte/zitrusfruechte/pomelo-weiss-1-stueck/p/3090754</t>
+          <t>/de/lebensmittel/fleisch-fisch/the-veggie-chef/wuerste/garden-gourmet-sensational-bratwurst-vegan/p/6576163</t>
         </is>
       </c>
       <c r="D410" t="n">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="E410" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="F410" t="inlineStr"/>
+        <v>3</v>
+      </c>
+      <c r="F410" t="inlineStr">
+        <is>
+          <t>Garden Gourmet</t>
+        </is>
+      </c>
       <c r="G410" t="inlineStr">
         <is>
-          <t>3.30</t>
+          <t>5.95</t>
         </is>
       </c>
       <c r="H410" t="inlineStr">
         <is>
-          <t>3.30/1ST</t>
+          <t>3.31/100g</t>
         </is>
       </c>
       <c r="I410" t="inlineStr">
         <is>
-          <t>Preis pro 1 Stück</t>
+          <t>Preis pro 100 Gramm</t>
         </is>
       </c>
       <c r="J410" t="inlineStr">
         <is>
-          <t>3.30</t>
+          <t>3.31</t>
         </is>
       </c>
       <c r="K410" t="inlineStr">
         <is>
-          <t>1ST</t>
+          <t>100g</t>
         </is>
       </c>
       <c r="L410" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fruechte-gemuese', 'fruechte', 'zitrusfruechte']</t>
+          <t>['lebensmittel', 'fleisch-fisch', 'the-veggie-chef', 'wuerste']</t>
         </is>
       </c>
       <c r="M410" t="inlineStr">
         <is>
-          <t>Pomelo weiss 1 Stück 3.30 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N410" t="inlineStr"/>
+          <t>Garden Gourmet Sensational Bratwurst vegan 5.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N410" t="inlineStr">
+        <is>
+          <t>['chilled', 'vegan', 'vegetarian']</t>
+        </is>
+      </c>
       <c r="O410" t="inlineStr">
         <is>
-          <t>2023-02-02 12:58:48</t>
+          <t>2023-02-02 20:52:01</t>
         </is>
       </c>
     </row>
     <row r="411">
       <c r="A411" t="inlineStr">
         <is>
-          <t>6308951</t>
+          <t>3090754</t>
         </is>
       </c>
       <c r="B411" t="inlineStr">
         <is>
-          <t>Primagusto Wildfeigen</t>
+          <t>Pomelo weiss 1 Stück</t>
         </is>
       </c>
       <c r="C411" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/nuesse-datteln-marroni-und-feigen/primagusto-wildfeigen/p/6308951</t>
+          <t>/de/lebensmittel/fruechte-gemuese/fruechte/zitrusfruechte/pomelo-weiss-1-stueck/p/3090754</t>
         </is>
       </c>
       <c r="D411" t="n">
-        <v>4</v>
+        <v>40</v>
       </c>
       <c r="E411" t="n">
         <v>4.5</v>
       </c>
-      <c r="F411" t="inlineStr">
-        <is>
-          <t>Primagusto</t>
-        </is>
-      </c>
+      <c r="F411" t="inlineStr"/>
       <c r="G411" t="inlineStr">
         <is>
-          <t>6.95</t>
+          <t>3.30</t>
         </is>
       </c>
       <c r="H411" t="inlineStr">
         <is>
-          <t>2.78/100g</t>
+          <t>3.30/1ST</t>
         </is>
       </c>
       <c r="I411" t="inlineStr">
         <is>
-          <t>Preis pro 100 Gramm</t>
+          <t>Preis pro 1 Stück</t>
         </is>
       </c>
       <c r="J411" t="inlineStr">
         <is>
-          <t>2.78</t>
+          <t>3.30</t>
         </is>
       </c>
       <c r="K411" t="inlineStr">
         <is>
-          <t>100g</t>
+          <t>1ST</t>
         </is>
       </c>
       <c r="L411" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fruechte-gemuese', 'nuesse-datteln-marroni-und-feigen']</t>
+          <t>['lebensmittel', 'fruechte-gemuese', 'fruechte', 'zitrusfruechte']</t>
         </is>
       </c>
       <c r="M411" t="inlineStr">
         <is>
-          <t>Primagusto Wildfeigen 6.95 Schweizer Franken</t>
+          <t>Pomelo weiss 1 Stück 3.30 Schweizer Franken</t>
         </is>
       </c>
       <c r="N411" t="inlineStr"/>
       <c r="O411" t="inlineStr">
         <is>
-          <t>2023-02-02 12:58:48</t>
+          <t>2023-02-02 20:52:01</t>
         </is>
       </c>
     </row>
     <row r="412">
       <c r="A412" t="inlineStr">
         <is>
-          <t>6704473</t>
+          <t>6308951</t>
         </is>
       </c>
       <c r="B412" t="inlineStr">
         <is>
-          <t>Yolo Filets</t>
+          <t>Primagusto Wildfeigen</t>
         </is>
       </c>
       <c r="C412" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fleisch-fisch/the-veggie-chef/gehacktes-geschnetzeltes/yolo-filets/p/6704473</t>
+          <t>/de/lebensmittel/fruechte-gemuese/nuesse-datteln-marroni-und-feigen/primagusto-wildfeigen/p/6308951</t>
         </is>
       </c>
       <c r="D412" t="n">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="E412" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="F412" t="inlineStr">
         <is>
-          <t>Yolo</t>
+          <t>Primagusto</t>
         </is>
       </c>
       <c r="G412" t="inlineStr">
         <is>
-          <t>5.95</t>
+          <t>6.95</t>
         </is>
       </c>
       <c r="H412" t="inlineStr">
         <is>
-          <t>3.31/100g</t>
+          <t>2.78/100g</t>
         </is>
       </c>
       <c r="I412" t="inlineStr">
@@ -28794,7 +28792,7 @@
       </c>
       <c r="J412" t="inlineStr">
         <is>
-          <t>3.31</t>
+          <t>2.78</t>
         </is>
       </c>
       <c r="K412" t="inlineStr">
@@ -28804,60 +28802,56 @@
       </c>
       <c r="L412" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fleisch-fisch', 'the-veggie-chef', 'gehacktes-geschnetzeltes']</t>
+          <t>['lebensmittel', 'fruechte-gemuese', 'nuesse-datteln-marroni-und-feigen']</t>
         </is>
       </c>
       <c r="M412" t="inlineStr">
         <is>
-          <t>Yolo Filets 5.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N412" t="inlineStr">
-        <is>
-          <t>['chilled', 'vegan', 'vegetarian']</t>
-        </is>
-      </c>
+          <t>Primagusto Wildfeigen 6.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N412" t="inlineStr"/>
       <c r="O412" t="inlineStr">
         <is>
-          <t>2023-02-02 12:58:48</t>
+          <t>2023-02-02 20:52:01</t>
         </is>
       </c>
     </row>
     <row r="413">
       <c r="A413" t="inlineStr">
         <is>
-          <t>7031952</t>
+          <t>6704473</t>
         </is>
       </c>
       <c r="B413" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Pastasalat Tomaten &amp;amp; Mozzarella</t>
+          <t>Yolo Filets</t>
         </is>
       </c>
       <c r="C413" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fertiggerichte/frische-fertiggerichte/fertigsalate/naturaplan-bio-pastasalat-tomaten-mozzarella/p/7031952</t>
+          <t>/de/lebensmittel/fleisch-fisch/the-veggie-chef/gehacktes-geschnetzeltes/yolo-filets/p/6704473</t>
         </is>
       </c>
       <c r="D413" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="E413" t="n">
         <v>5</v>
       </c>
       <c r="F413" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Yolo</t>
         </is>
       </c>
       <c r="G413" t="inlineStr">
         <is>
-          <t>6.20</t>
+          <t>5.95</t>
         </is>
       </c>
       <c r="H413" t="inlineStr">
         <is>
-          <t>2.43/100g</t>
+          <t>3.31/100g</t>
         </is>
       </c>
       <c r="I413" t="inlineStr">
@@ -28867,7 +28861,7 @@
       </c>
       <c r="J413" t="inlineStr">
         <is>
-          <t>2.43</t>
+          <t>3.31</t>
         </is>
       </c>
       <c r="K413" t="inlineStr">
@@ -28877,47 +28871,47 @@
       </c>
       <c r="L413" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fertiggerichte', 'frische-fertiggerichte', 'fertigsalate']</t>
+          <t>['lebensmittel', 'fleisch-fisch', 'the-veggie-chef', 'gehacktes-geschnetzeltes']</t>
         </is>
       </c>
       <c r="M413" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Pastasalat Tomaten &amp;amp; Mozzarella 6.20 Schweizer Franken</t>
+          <t>Yolo Filets 5.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N413" t="inlineStr">
         <is>
-          <t>['chilled', 'vegetarian']</t>
+          <t>['chilled', 'vegan', 'vegetarian']</t>
         </is>
       </c>
       <c r="O413" t="inlineStr">
         <is>
-          <t>2023-02-02 12:58:48</t>
+          <t>2023-02-02 20:52:01</t>
         </is>
       </c>
     </row>
     <row r="414">
       <c r="A414" t="inlineStr">
         <is>
-          <t>3090812</t>
+          <t>7031952</t>
         </is>
       </c>
       <c r="B414" t="inlineStr">
         <is>
-          <t>Erdnüsse</t>
+          <t>Naturaplan Bio Pastasalat Tomaten &amp;amp; Mozzarella</t>
         </is>
       </c>
       <c r="C414" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/suesses-snacks/chips-snacks/trockenfruechte-nuesse/nuesse-kerne/erdnuesse/p/3090812</t>
+          <t>/de/lebensmittel/fertiggerichte/frische-fertiggerichte/fertigsalate/naturaplan-bio-pastasalat-tomaten-mozzarella/p/7031952</t>
         </is>
       </c>
       <c r="D414" t="n">
+        <v>1</v>
+      </c>
+      <c r="E414" t="n">
         <v>5</v>
       </c>
-      <c r="E414" t="n">
-        <v>4.5</v>
-      </c>
       <c r="F414" t="inlineStr">
         <is>
           <t>Coop</t>
@@ -28925,12 +28919,12 @@
       </c>
       <c r="G414" t="inlineStr">
         <is>
-          <t>2.95</t>
+          <t>6.20</t>
         </is>
       </c>
       <c r="H414" t="inlineStr">
         <is>
-          <t>0.84/100g</t>
+          <t>2.43/100g</t>
         </is>
       </c>
       <c r="I414" t="inlineStr">
@@ -28940,7 +28934,7 @@
       </c>
       <c r="J414" t="inlineStr">
         <is>
-          <t>0.84</t>
+          <t>2.43</t>
         </is>
       </c>
       <c r="K414" t="inlineStr">
@@ -28950,42 +28944,46 @@
       </c>
       <c r="L414" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'suesses-snacks', 'chips-snacks', 'trockenfruechte-nuesse', 'nuesse-kerne']</t>
+          <t>['lebensmittel', 'fertiggerichte', 'frische-fertiggerichte', 'fertigsalate']</t>
         </is>
       </c>
       <c r="M414" t="inlineStr">
         <is>
-          <t>Erdnüsse 2.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N414" t="inlineStr"/>
+          <t>Naturaplan Bio Pastasalat Tomaten &amp;amp; Mozzarella 6.20 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N414" t="inlineStr">
+        <is>
+          <t>['chilled', 'vegetarian']</t>
+        </is>
+      </c>
       <c r="O414" t="inlineStr">
         <is>
-          <t>2023-02-02 12:58:48</t>
+          <t>2023-02-02 20:52:01</t>
         </is>
       </c>
     </row>
     <row r="415">
       <c r="A415" t="inlineStr">
         <is>
-          <t>4434295</t>
+          <t>3090812</t>
         </is>
       </c>
       <c r="B415" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Family Früchtebox</t>
+          <t>Erdnüsse</t>
         </is>
       </c>
       <c r="C415" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/fruechte-gemueseboxen/naturaplan-bio-family-fruechtebox/p/4434295</t>
+          <t>/de/lebensmittel/suesses-snacks/chips-snacks/trockenfruechte-nuesse/nuesse-kerne/erdnuesse/p/3090812</t>
         </is>
       </c>
       <c r="D415" t="n">
-        <v>26</v>
+        <v>5</v>
       </c>
       <c r="E415" t="n">
-        <v>3</v>
+        <v>4.5</v>
       </c>
       <c r="F415" t="inlineStr">
         <is>
@@ -28994,65 +28992,67 @@
       </c>
       <c r="G415" t="inlineStr">
         <is>
-          <t>24.40</t>
+          <t>2.95</t>
         </is>
       </c>
       <c r="H415" t="inlineStr">
         <is>
-          <t>8.13/1kg</t>
+          <t>0.84/100g</t>
         </is>
       </c>
       <c r="I415" t="inlineStr">
         <is>
-          <t>Preis pro 1 Kilogramm</t>
+          <t>Preis pro 100 Gramm</t>
         </is>
       </c>
       <c r="J415" t="inlineStr">
         <is>
-          <t>8.13</t>
+          <t>0.84</t>
         </is>
       </c>
       <c r="K415" t="inlineStr">
         <is>
-          <t>1kg</t>
+          <t>100g</t>
         </is>
       </c>
       <c r="L415" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fruechte-gemuese', 'fruechte-gemueseboxen']</t>
+          <t>['lebensmittel', 'suesses-snacks', 'chips-snacks', 'trockenfruechte-nuesse', 'nuesse-kerne']</t>
         </is>
       </c>
       <c r="M415" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Family Früchtebox 24.40 Schweizer Franken</t>
+          <t>Erdnüsse 2.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N415" t="inlineStr"/>
       <c r="O415" t="inlineStr">
         <is>
-          <t>2023-02-02 12:58:48</t>
+          <t>2023-02-02 20:52:01</t>
         </is>
       </c>
     </row>
     <row r="416">
       <c r="A416" t="inlineStr">
         <is>
-          <t>6590457</t>
+          <t>4434295</t>
         </is>
       </c>
       <c r="B416" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Eisberg</t>
+          <t>Naturaplan Bio Family Früchtebox</t>
         </is>
       </c>
       <c r="C416" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/salate/geschnittene-salate/naturaplan-bio-eisberg/p/6590457</t>
-        </is>
-      </c>
-      <c r="D416" t="inlineStr"/>
+          <t>/de/lebensmittel/fruechte-gemuese/fruechte-gemueseboxen/naturaplan-bio-family-fruechtebox/p/4434295</t>
+        </is>
+      </c>
+      <c r="D416" t="n">
+        <v>26</v>
+      </c>
       <c r="E416" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F416" t="inlineStr">
         <is>
@@ -29061,43 +29061,43 @@
       </c>
       <c r="G416" t="inlineStr">
         <is>
-          <t>2.50</t>
+          <t>24.40</t>
         </is>
       </c>
       <c r="H416" t="inlineStr">
         <is>
-          <t>1.67/100g</t>
+          <t>8.13/1kg</t>
         </is>
       </c>
       <c r="I416" t="inlineStr">
         <is>
-          <t>Preis pro 100 Gramm</t>
+          <t>Preis pro 1 Kilogramm</t>
         </is>
       </c>
       <c r="J416" t="inlineStr">
         <is>
-          <t>1.67</t>
+          <t>8.13</t>
         </is>
       </c>
       <c r="K416" t="inlineStr">
         <is>
-          <t>100g</t>
+          <t>1kg</t>
         </is>
       </c>
       <c r="L416" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fruechte-gemuese', 'salate', 'geschnittene-salate']</t>
+          <t>['lebensmittel', 'fruechte-gemuese', 'fruechte-gemueseboxen']</t>
         </is>
       </c>
       <c r="M416" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Eisberg 2.50 Schweizer Franken</t>
+          <t>Naturaplan Bio Family Früchtebox 24.40 Schweizer Franken</t>
         </is>
       </c>
       <c r="N416" t="inlineStr"/>
       <c r="O416" t="inlineStr">
         <is>
-          <t>2023-02-02 12:58:48</t>
+          <t>2023-02-02 20:52:01</t>
         </is>
       </c>
     </row>
@@ -29162,7 +29162,7 @@
       <c r="N417" t="inlineStr"/>
       <c r="O417" t="inlineStr">
         <is>
-          <t>2023-02-02 12:58:48</t>
+          <t>2023-02-02 20:52:01</t>
         </is>
       </c>
     </row>
@@ -29231,7 +29231,7 @@
       <c r="N418" t="inlineStr"/>
       <c r="O418" t="inlineStr">
         <is>
-          <t>2023-02-02 12:58:48</t>
+          <t>2023-02-02 20:52:01</t>
         </is>
       </c>
     </row>
@@ -29304,7 +29304,7 @@
       </c>
       <c r="O419" t="inlineStr">
         <is>
-          <t>2023-02-02 12:58:48</t>
+          <t>2023-02-02 20:52:01</t>
         </is>
       </c>
     </row>
@@ -29377,7 +29377,7 @@
       </c>
       <c r="O420" t="inlineStr">
         <is>
-          <t>2023-02-02 12:58:48</t>
+          <t>2023-02-02 20:52:01</t>
         </is>
       </c>
     </row>
@@ -29450,7 +29450,7 @@
       </c>
       <c r="O421" t="inlineStr">
         <is>
-          <t>2023-02-02 12:58:48</t>
+          <t>2023-02-02 20:52:01</t>
         </is>
       </c>
     </row>
@@ -29471,10 +29471,10 @@
         </is>
       </c>
       <c r="D422" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E422" t="n">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="F422" t="inlineStr">
         <is>
@@ -29523,45 +29523,45 @@
       </c>
       <c r="O422" t="inlineStr">
         <is>
-          <t>2023-02-02 12:58:48</t>
+          <t>2023-02-02 20:52:01</t>
         </is>
       </c>
     </row>
     <row r="423">
       <c r="A423" t="inlineStr">
         <is>
-          <t>6974165</t>
+          <t>5668660</t>
         </is>
       </c>
       <c r="B423" t="inlineStr">
         <is>
-          <t>The Green Mountain plant-based Tranchen vegan</t>
+          <t>Délicorn Spacebar</t>
         </is>
       </c>
       <c r="C423" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fleisch-fisch/the-veggie-chef/cold-cuts/the-green-mountain-plant-based-tranchen-vegan/p/6974165</t>
+          <t>/de/lebensmittel/fleisch-fisch/the-veggie-chef/wuerste/delicorn-spacebar/p/5668660</t>
         </is>
       </c>
       <c r="D423" t="n">
+        <v>4</v>
+      </c>
+      <c r="E423" t="n">
         <v>5</v>
       </c>
-      <c r="E423" t="n">
-        <v>3.5</v>
-      </c>
       <c r="F423" t="inlineStr">
         <is>
-          <t>The GREEN MOUNTAIN</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G423" t="inlineStr">
         <is>
-          <t>5.50</t>
+          <t>1.95</t>
         </is>
       </c>
       <c r="H423" t="inlineStr">
         <is>
-          <t>2.75/100g</t>
+          <t>4.88/100g</t>
         </is>
       </c>
       <c r="I423" t="inlineStr">
@@ -29571,7 +29571,7 @@
       </c>
       <c r="J423" t="inlineStr">
         <is>
-          <t>2.75</t>
+          <t>4.88</t>
         </is>
       </c>
       <c r="K423" t="inlineStr">
@@ -29581,46 +29581,46 @@
       </c>
       <c r="L423" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fleisch-fisch', 'the-veggie-chef', 'cold-cuts']</t>
+          <t>['lebensmittel', 'fleisch-fisch', 'the-veggie-chef', 'wuerste']</t>
         </is>
       </c>
       <c r="M423" t="inlineStr">
         <is>
-          <t>The Green Mountain plant-based Tranchen vegan 5.50 Schweizer Franken</t>
+          <t>Délicorn Spacebar 1.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N423" t="inlineStr">
         <is>
-          <t>['chilled']</t>
+          <t>['chilled', 'vegan', 'vegetarian']</t>
         </is>
       </c>
       <c r="O423" t="inlineStr">
         <is>
-          <t>2023-02-02 12:58:48</t>
+          <t>2023-02-02 20:52:01</t>
         </is>
       </c>
     </row>
     <row r="424">
       <c r="A424" t="inlineStr">
         <is>
-          <t>5668660</t>
+          <t>6803515</t>
         </is>
       </c>
       <c r="B424" t="inlineStr">
         <is>
-          <t>Délicorn Spacebar</t>
+          <t>Prix Garantie veganer Burger</t>
         </is>
       </c>
       <c r="C424" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fleisch-fisch/the-veggie-chef/wuerste/delicorn-spacebar/p/5668660</t>
+          <t>/de/lebensmittel/fleisch-fisch/the-veggie-chef/burger-hackbaellchen/prix-garantie-veganer-burger/p/6803515</t>
         </is>
       </c>
       <c r="D424" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E424" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="F424" t="inlineStr">
         <is>
@@ -29629,12 +29629,12 @@
       </c>
       <c r="G424" t="inlineStr">
         <is>
-          <t>1.95</t>
+          <t>3.95</t>
         </is>
       </c>
       <c r="H424" t="inlineStr">
         <is>
-          <t>4.88/100g</t>
+          <t>1.74/100g</t>
         </is>
       </c>
       <c r="I424" t="inlineStr">
@@ -29644,7 +29644,7 @@
       </c>
       <c r="J424" t="inlineStr">
         <is>
-          <t>4.88</t>
+          <t>1.74</t>
         </is>
       </c>
       <c r="K424" t="inlineStr">
@@ -29654,12 +29654,12 @@
       </c>
       <c r="L424" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fleisch-fisch', 'the-veggie-chef', 'wuerste']</t>
+          <t>['lebensmittel', 'fleisch-fisch', 'the-veggie-chef', 'burger-hackbaellchen']</t>
         </is>
       </c>
       <c r="M424" t="inlineStr">
         <is>
-          <t>Délicorn Spacebar 1.95 Schweizer Franken</t>
+          <t>Prix Garantie veganer Burger 3.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N424" t="inlineStr">
@@ -29669,45 +29669,45 @@
       </c>
       <c r="O424" t="inlineStr">
         <is>
-          <t>2023-02-02 12:58:48</t>
+          <t>2023-02-02 20:52:01</t>
         </is>
       </c>
     </row>
     <row r="425">
       <c r="A425" t="inlineStr">
         <is>
-          <t>6803515</t>
+          <t>6987208</t>
         </is>
       </c>
       <c r="B425" t="inlineStr">
         <is>
-          <t>Prix Garantie veganer Burger</t>
+          <t>The Green Mountain plant-based Pfefferfilet</t>
         </is>
       </c>
       <c r="C425" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fleisch-fisch/the-veggie-chef/burger-hackbaellchen/prix-garantie-veganer-burger/p/6803515</t>
+          <t>/de/lebensmittel/fleisch-fisch/the-veggie-chef/steaks-filets/the-green-mountain-plant-based-pfefferfilet/p/6987208</t>
         </is>
       </c>
       <c r="D425" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E425" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="F425" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>The GREEN MOUNTAIN</t>
         </is>
       </c>
       <c r="G425" t="inlineStr">
         <is>
-          <t>3.95</t>
+          <t>8.95</t>
         </is>
       </c>
       <c r="H425" t="inlineStr">
         <is>
-          <t>1.74/100g</t>
+          <t>4.48/100g</t>
         </is>
       </c>
       <c r="I425" t="inlineStr">
@@ -29717,7 +29717,7 @@
       </c>
       <c r="J425" t="inlineStr">
         <is>
-          <t>1.74</t>
+          <t>4.48</t>
         </is>
       </c>
       <c r="K425" t="inlineStr">
@@ -29727,46 +29727,46 @@
       </c>
       <c r="L425" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fleisch-fisch', 'the-veggie-chef', 'burger-hackbaellchen']</t>
+          <t>['lebensmittel', 'fleisch-fisch', 'the-veggie-chef', 'steaks-filets']</t>
         </is>
       </c>
       <c r="M425" t="inlineStr">
         <is>
-          <t>Prix Garantie veganer Burger 3.95 Schweizer Franken</t>
+          <t>The Green Mountain plant-based Pfefferfilet 8.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N425" t="inlineStr">
         <is>
-          <t>['chilled', 'vegan', 'vegetarian']</t>
+          <t>['chilled']</t>
         </is>
       </c>
       <c r="O425" t="inlineStr">
         <is>
-          <t>2023-02-02 12:58:48</t>
+          <t>2023-02-02 20:52:01</t>
         </is>
       </c>
     </row>
     <row r="426">
       <c r="A426" t="inlineStr">
         <is>
-          <t>6987208</t>
+          <t>6974165</t>
         </is>
       </c>
       <c r="B426" t="inlineStr">
         <is>
-          <t>The Green Mountain plant-based Pfefferfilet</t>
+          <t>The Green Mountain plant-based Tranchen vegan</t>
         </is>
       </c>
       <c r="C426" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fleisch-fisch/the-veggie-chef/steaks-filets/the-green-mountain-plant-based-pfefferfilet/p/6987208</t>
+          <t>/de/lebensmittel/fleisch-fisch/the-veggie-chef/cold-cuts/the-green-mountain-plant-based-tranchen-vegan/p/6974165</t>
         </is>
       </c>
       <c r="D426" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E426" t="n">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="F426" t="inlineStr">
         <is>
@@ -29775,12 +29775,12 @@
       </c>
       <c r="G426" t="inlineStr">
         <is>
-          <t>8.95</t>
+          <t>5.50</t>
         </is>
       </c>
       <c r="H426" t="inlineStr">
         <is>
-          <t>4.48/100g</t>
+          <t>2.75/100g</t>
         </is>
       </c>
       <c r="I426" t="inlineStr">
@@ -29790,7 +29790,7 @@
       </c>
       <c r="J426" t="inlineStr">
         <is>
-          <t>4.48</t>
+          <t>2.75</t>
         </is>
       </c>
       <c r="K426" t="inlineStr">
@@ -29800,12 +29800,12 @@
       </c>
       <c r="L426" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fleisch-fisch', 'the-veggie-chef', 'steaks-filets']</t>
+          <t>['lebensmittel', 'fleisch-fisch', 'the-veggie-chef', 'cold-cuts']</t>
         </is>
       </c>
       <c r="M426" t="inlineStr">
         <is>
-          <t>The Green Mountain plant-based Pfefferfilet 8.95 Schweizer Franken</t>
+          <t>The Green Mountain plant-based Tranchen vegan 5.50 Schweizer Franken</t>
         </is>
       </c>
       <c r="N426" t="inlineStr">
@@ -29815,7 +29815,7 @@
       </c>
       <c r="O426" t="inlineStr">
         <is>
-          <t>2023-02-02 12:58:48</t>
+          <t>2023-02-02 20:52:01</t>
         </is>
       </c>
     </row>
@@ -29888,7 +29888,7 @@
       </c>
       <c r="O427" t="inlineStr">
         <is>
-          <t>2023-02-02 12:58:48</t>
+          <t>2023-02-02 20:52:01</t>
         </is>
       </c>
     </row>
@@ -29961,7 +29961,7 @@
       </c>
       <c r="O428" t="inlineStr">
         <is>
-          <t>2023-02-02 12:58:48</t>
+          <t>2023-02-02 20:52:01</t>
         </is>
       </c>
     </row>
@@ -30034,7 +30034,7 @@
       </c>
       <c r="O429" t="inlineStr">
         <is>
-          <t>2023-02-02 12:58:48</t>
+          <t>2023-02-02 20:52:01</t>
         </is>
       </c>
     </row>
@@ -30107,7 +30107,7 @@
       </c>
       <c r="O430" t="inlineStr">
         <is>
-          <t>2023-02-02 12:58:48</t>
+          <t>2023-02-02 20:52:01</t>
         </is>
       </c>
     </row>
@@ -30170,7 +30170,7 @@
       <c r="N431" t="inlineStr"/>
       <c r="O431" t="inlineStr">
         <is>
-          <t>2023-02-02 12:58:48</t>
+          <t>2023-02-02 20:52:01</t>
         </is>
       </c>
     </row>
@@ -30227,7 +30227,7 @@
       </c>
       <c r="O432" t="inlineStr">
         <is>
-          <t>2023-02-02 12:58:48</t>
+          <t>2023-02-02 20:52:01</t>
         </is>
       </c>
     </row>
@@ -30298,7 +30298,7 @@
       </c>
       <c r="O433" t="inlineStr">
         <is>
-          <t>2023-02-02 12:58:48</t>
+          <t>2023-02-02 20:52:01</t>
         </is>
       </c>
     </row>
@@ -30363,7 +30363,7 @@
       <c r="N434" t="inlineStr"/>
       <c r="O434" t="inlineStr">
         <is>
-          <t>2023-02-02 12:58:48</t>
+          <t>2023-02-02 20:52:01</t>
         </is>
       </c>
     </row>
@@ -30436,7 +30436,7 @@
       </c>
       <c r="O435" t="inlineStr">
         <is>
-          <t>2023-02-02 12:58:48</t>
+          <t>2023-02-02 20:52:01</t>
         </is>
       </c>
     </row>
@@ -30507,7 +30507,7 @@
       </c>
       <c r="O436" t="inlineStr">
         <is>
-          <t>2023-02-02 12:58:48</t>
+          <t>2023-02-02 20:52:01</t>
         </is>
       </c>
     </row>
@@ -30580,7 +30580,7 @@
       </c>
       <c r="O437" t="inlineStr">
         <is>
-          <t>2023-02-02 12:58:48</t>
+          <t>2023-02-02 20:52:01</t>
         </is>
       </c>
     </row>
@@ -30647,7 +30647,7 @@
       <c r="N438" t="inlineStr"/>
       <c r="O438" t="inlineStr">
         <is>
-          <t>2023-02-02 12:58:48</t>
+          <t>2023-02-02 20:52:01</t>
         </is>
       </c>
     </row>
@@ -30718,7 +30718,7 @@
       </c>
       <c r="O439" t="inlineStr">
         <is>
-          <t>2023-02-02 12:58:48</t>
+          <t>2023-02-02 20:52:01</t>
         </is>
       </c>
     </row>
@@ -30789,7 +30789,7 @@
       </c>
       <c r="O440" t="inlineStr">
         <is>
-          <t>2023-02-02 12:58:48</t>
+          <t>2023-02-02 20:52:01</t>
         </is>
       </c>
     </row>
@@ -30862,7 +30862,7 @@
       </c>
       <c r="O441" t="inlineStr">
         <is>
-          <t>2023-02-02 12:58:48</t>
+          <t>2023-02-02 20:52:01</t>
         </is>
       </c>
     </row>
@@ -30935,7 +30935,7 @@
       </c>
       <c r="O442" t="inlineStr">
         <is>
-          <t>2023-02-02 12:58:48</t>
+          <t>2023-02-02 20:52:01</t>
         </is>
       </c>
     </row>
@@ -31008,7 +31008,7 @@
       </c>
       <c r="O443" t="inlineStr">
         <is>
-          <t>2023-02-02 12:58:48</t>
+          <t>2023-02-02 20:52:01</t>
         </is>
       </c>
     </row>
@@ -31073,45 +31073,45 @@
       <c r="N444" t="inlineStr"/>
       <c r="O444" t="inlineStr">
         <is>
-          <t>2023-02-02 12:58:48</t>
+          <t>2023-02-02 20:52:01</t>
         </is>
       </c>
     </row>
     <row r="445">
       <c r="A445" t="inlineStr">
         <is>
-          <t>7051692</t>
+          <t>7027770</t>
         </is>
       </c>
       <c r="B445" t="inlineStr">
         <is>
-          <t>Outlawz Food Geschnetzeltes Jäger*innen Art</t>
+          <t>The Green Mountain plant-based Gulasch</t>
         </is>
       </c>
       <c r="C445" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fleisch-fisch/the-veggie-chef/gehacktes-geschnetzeltes/outlawz-food-geschnetzeltes-jaegerinnen-art/p/7051692</t>
+          <t>/de/lebensmittel/fleisch-fisch/the-veggie-chef/gehacktes-geschnetzeltes/the-green-mountain-plant-based-gulasch/p/7027770</t>
         </is>
       </c>
       <c r="D445" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E445" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F445" t="inlineStr">
         <is>
-          <t>OUTLAWZ Food</t>
+          <t>The GREEN MOUNTAIN</t>
         </is>
       </c>
       <c r="G445" t="inlineStr">
         <is>
-          <t>6.95</t>
+          <t>7.95</t>
         </is>
       </c>
       <c r="H445" t="inlineStr">
         <is>
-          <t>3.76/100g</t>
+          <t>2.27/100g</t>
         </is>
       </c>
       <c r="I445" t="inlineStr">
@@ -31121,7 +31121,7 @@
       </c>
       <c r="J445" t="inlineStr">
         <is>
-          <t>3.76</t>
+          <t>2.27</t>
         </is>
       </c>
       <c r="K445" t="inlineStr">
@@ -31136,55 +31136,55 @@
       </c>
       <c r="M445" t="inlineStr">
         <is>
-          <t>Outlawz Food Geschnetzeltes Jäger*innen Art 6.95 Schweizer Franken</t>
+          <t>The Green Mountain plant-based Gulasch 7.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N445" t="inlineStr">
         <is>
-          <t>['chilled', 'vegan', 'vegetarian']</t>
+          <t>['chilled']</t>
         </is>
       </c>
       <c r="O445" t="inlineStr">
         <is>
-          <t>2023-02-02 12:58:48</t>
+          <t>2023-02-02 20:52:01</t>
         </is>
       </c>
     </row>
     <row r="446">
       <c r="A446" t="inlineStr">
         <is>
-          <t>7027770</t>
+          <t>7051692</t>
         </is>
       </c>
       <c r="B446" t="inlineStr">
         <is>
-          <t>The Green Mountain plant-based Gulasch</t>
+          <t>Outlawz Food Geschnetzeltes Jäger*innen Art</t>
         </is>
       </c>
       <c r="C446" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fleisch-fisch/the-veggie-chef/gehacktes-geschnetzeltes/the-green-mountain-plant-based-gulasch/p/7027770</t>
+          <t>/de/lebensmittel/fleisch-fisch/the-veggie-chef/gehacktes-geschnetzeltes/outlawz-food-geschnetzeltes-jaegerinnen-art/p/7051692</t>
         </is>
       </c>
       <c r="D446" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E446" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F446" t="inlineStr">
         <is>
-          <t>The GREEN MOUNTAIN</t>
+          <t>OUTLAWZ Food</t>
         </is>
       </c>
       <c r="G446" t="inlineStr">
         <is>
-          <t>7.95</t>
+          <t>6.95</t>
         </is>
       </c>
       <c r="H446" t="inlineStr">
         <is>
-          <t>2.27/100g</t>
+          <t>3.76/100g</t>
         </is>
       </c>
       <c r="I446" t="inlineStr">
@@ -31194,7 +31194,7 @@
       </c>
       <c r="J446" t="inlineStr">
         <is>
-          <t>2.27</t>
+          <t>3.76</t>
         </is>
       </c>
       <c r="K446" t="inlineStr">
@@ -31209,17 +31209,17 @@
       </c>
       <c r="M446" t="inlineStr">
         <is>
-          <t>The Green Mountain plant-based Gulasch 7.95 Schweizer Franken</t>
+          <t>Outlawz Food Geschnetzeltes Jäger*innen Art 6.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N446" t="inlineStr">
         <is>
-          <t>['chilled']</t>
+          <t>['chilled', 'vegan', 'vegetarian']</t>
         </is>
       </c>
       <c r="O446" t="inlineStr">
         <is>
-          <t>2023-02-02 12:58:48</t>
+          <t>2023-02-02 20:52:01</t>
         </is>
       </c>
     </row>
@@ -31292,7 +31292,7 @@
       </c>
       <c r="O447" t="inlineStr">
         <is>
-          <t>2023-02-02 12:58:48</t>
+          <t>2023-02-02 20:52:01</t>
         </is>
       </c>
     </row>
@@ -31363,7 +31363,7 @@
       </c>
       <c r="O448" t="inlineStr">
         <is>
-          <t>2023-02-02 12:58:48</t>
+          <t>2023-02-02 20:52:01</t>
         </is>
       </c>
     </row>
@@ -31432,7 +31432,7 @@
       <c r="N449" t="inlineStr"/>
       <c r="O449" t="inlineStr">
         <is>
-          <t>2023-02-02 12:58:48</t>
+          <t>2023-02-02 20:52:01</t>
         </is>
       </c>
     </row>
@@ -31505,7 +31505,7 @@
       </c>
       <c r="O450" t="inlineStr">
         <is>
-          <t>2023-02-02 12:58:48</t>
+          <t>2023-02-02 20:52:01</t>
         </is>
       </c>
     </row>
@@ -31574,7 +31574,7 @@
       <c r="N451" t="inlineStr"/>
       <c r="O451" t="inlineStr">
         <is>
-          <t>2023-02-02 12:58:48</t>
+          <t>2023-02-02 20:52:01</t>
         </is>
       </c>
     </row>
@@ -31647,7 +31647,7 @@
       </c>
       <c r="O452" t="inlineStr">
         <is>
-          <t>2023-02-02 12:58:48</t>
+          <t>2023-02-02 20:52:01</t>
         </is>
       </c>
     </row>
@@ -31716,7 +31716,7 @@
       <c r="N453" t="inlineStr"/>
       <c r="O453" t="inlineStr">
         <is>
-          <t>2023-02-02 12:58:48</t>
+          <t>2023-02-02 20:52:01</t>
         </is>
       </c>
     </row>
@@ -31781,7 +31781,7 @@
       <c r="N454" t="inlineStr"/>
       <c r="O454" t="inlineStr">
         <is>
-          <t>2023-02-02 12:58:48</t>
+          <t>2023-02-02 20:52:01</t>
         </is>
       </c>
     </row>
@@ -31850,7 +31850,7 @@
       <c r="N455" t="inlineStr"/>
       <c r="O455" t="inlineStr">
         <is>
-          <t>2023-02-02 12:58:48</t>
+          <t>2023-02-02 20:52:01</t>
         </is>
       </c>
     </row>
@@ -31921,7 +31921,7 @@
       </c>
       <c r="O456" t="inlineStr">
         <is>
-          <t>2023-02-02 12:58:48</t>
+          <t>2023-02-02 20:52:01</t>
         </is>
       </c>
     </row>
@@ -31988,7 +31988,7 @@
       <c r="N457" t="inlineStr"/>
       <c r="O457" t="inlineStr">
         <is>
-          <t>2023-02-02 12:58:48</t>
+          <t>2023-02-02 20:52:01</t>
         </is>
       </c>
     </row>
@@ -32053,7 +32053,7 @@
       <c r="N458" t="inlineStr"/>
       <c r="O458" t="inlineStr">
         <is>
-          <t>2023-02-02 12:58:48</t>
+          <t>2023-02-02 20:52:01</t>
         </is>
       </c>
     </row>
@@ -32120,7 +32120,7 @@
       <c r="N459" t="inlineStr"/>
       <c r="O459" t="inlineStr">
         <is>
-          <t>2023-02-02 12:58:48</t>
+          <t>2023-02-02 20:52:01</t>
         </is>
       </c>
     </row>
@@ -32193,7 +32193,7 @@
       </c>
       <c r="O460" t="inlineStr">
         <is>
-          <t>2023-02-02 12:58:48</t>
+          <t>2023-02-02 20:52:01</t>
         </is>
       </c>
     </row>
@@ -32264,7 +32264,7 @@
       </c>
       <c r="O461" t="inlineStr">
         <is>
-          <t>2023-02-02 12:58:48</t>
+          <t>2023-02-02 20:52:01</t>
         </is>
       </c>
     </row>
@@ -32335,7 +32335,7 @@
       </c>
       <c r="O462" t="inlineStr">
         <is>
-          <t>2023-02-02 12:58:48</t>
+          <t>2023-02-02 20:52:01</t>
         </is>
       </c>
     </row>
@@ -32402,7 +32402,7 @@
       <c r="N463" t="inlineStr"/>
       <c r="O463" t="inlineStr">
         <is>
-          <t>2023-02-02 12:58:48</t>
+          <t>2023-02-02 20:52:01</t>
         </is>
       </c>
     </row>
@@ -32469,7 +32469,7 @@
       <c r="N464" t="inlineStr"/>
       <c r="O464" t="inlineStr">
         <is>
-          <t>2023-02-02 12:58:48</t>
+          <t>2023-02-02 20:52:01</t>
         </is>
       </c>
     </row>
@@ -32536,7 +32536,7 @@
       <c r="N465" t="inlineStr"/>
       <c r="O465" t="inlineStr">
         <is>
-          <t>2023-02-02 12:58:48</t>
+          <t>2023-02-02 20:52:01</t>
         </is>
       </c>
     </row>
@@ -32607,7 +32607,7 @@
       </c>
       <c r="O466" t="inlineStr">
         <is>
-          <t>2023-02-02 12:58:48</t>
+          <t>2023-02-02 20:52:01</t>
         </is>
       </c>
     </row>
